--- a/Contoso - Sales - Current Release/Dataverse Data/3 🏭 Accounts for Import.xlsx
+++ b/Contoso - Sales - Current Release/Dataverse Data/3 🏭 Accounts for Import.xlsx
@@ -1,24 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://microsoft-my.sharepoint.com/personal/misewell_microsoft_com/Documents/Documents/GitHub/ContosoBI/Contoso - Sales - Current Release/Dataverse Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="11_ADF37D841EA345F0FA330A5DCFB5940FC38FE545" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{81310E73-FCD4-430F-A9DC-86474532F34B}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="11_ADF37D841EA345F0FA330A5DCFB5940FC38FE545" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FDE90331-5881-40AC-B388-9019E3F6007C}"/>
   <bookViews>
-    <workbookView xWindow="44880" yWindow="-2610" windowWidth="57840" windowHeight="31920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="45465" yWindow="-945" windowWidth="34050" windowHeight="14175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="All Accounts - For Import" sheetId="1" r:id="rId1"/>
     <sheet name="hiddenSheet" sheetId="2" state="veryHidden" r:id="rId2"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId3"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -37,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="238">
   <si>
     <t>(Do Not Modify) Account</t>
   </si>
@@ -691,6 +688,66 @@
   </si>
   <si>
     <t>Bridgewater</t>
+  </si>
+  <si>
+    <t>Allie Bellew</t>
+  </si>
+  <si>
+    <t>Karen Berg</t>
+  </si>
+  <si>
+    <t>David So</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Amy Alberts</t>
+  </si>
+  <si>
+    <t>Eric Gruber</t>
+  </si>
+  <si>
+    <t>Kelly Krout</t>
+  </si>
+  <si>
+    <t>Christa Geller</t>
+  </si>
+  <si>
+    <t>Anne Weiler</t>
+  </si>
+  <si>
+    <t>Greg Winston</t>
+  </si>
+  <si>
+    <t>Alan Steiner</t>
+  </si>
+  <si>
+    <t>Jeff Hay</t>
+  </si>
+  <si>
+    <t>Carlos Grilo</t>
+  </si>
+  <si>
+    <t>Jamie Reding</t>
+  </si>
+  <si>
+    <t>Sanjay Shah</t>
+  </si>
+  <si>
+    <t>Alicia Thomber</t>
+  </si>
+  <si>
+    <t>Sven Mortensen</t>
+  </si>
+  <si>
+    <t>Molly Clark</t>
+  </si>
+  <si>
+    <t>Renee Lo</t>
+  </si>
+  <si>
+    <t>Spencer Low</t>
   </si>
 </sst>
 </file>
@@ -844,47 +901,12 @@
 </styleSheet>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Import Date"/>
-      <sheetName val="Accounts"/>
-      <sheetName val="Products"/>
-      <sheetName val="Cases"/>
-      <sheetName val="Cases - Import Format"/>
-      <sheetName val="Opportunities"/>
-      <sheetName val="Opportunities - Import Format"/>
-      <sheetName val="Territories"/>
-      <sheetName val="Owners"/>
-      <sheetName val="Industries"/>
-      <sheetName val="Marketing Campaigns"/>
-      <sheetName val="Contacts"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:J81" totalsRowShown="0">
   <autoFilter ref="A1:J81" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J81">
+    <sortCondition ref="D1:D81"/>
+  </sortState>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="(Do Not Modify) Account"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="(Do Not Modify) Row Checksum"/>
@@ -894,21 +916,17 @@
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Address 1: State/Province" dataDxfId="2" dataCellStyle="Normal"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Address 1: Country/Region" dataDxfId="1" dataCellStyle="Normal"/>
     <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Territory" dataDxfId="0" dataCellStyle="Normal"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Industry" dataCellStyle="Normal">
-      <calculatedColumnFormula>_xlfn.XLOOKUP([1]!AccountTbl[[#This Row],[IndustrySeq]],[1]!IndustryTbl[IndustrySeq],[1]!IndustryTbl[Industry])</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Owner" dataCellStyle="Normal">
-      <calculatedColumnFormula>_xlfn.XLOOKUP([1]!AccountTbl[[#This Row],[AccountOwnerSeq]],[1]!OwnerTbl[SystemUserSeq],[1]!OwnerTbl[Owner],"")</calculatedColumnFormula>
-    </tableColumn>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Industry" dataCellStyle="Normal"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Owner" dataCellStyle="Normal"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -946,7 +964,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1052,7 +1070,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1194,7 +1212,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1206,10 +1224,10 @@
   <dimension ref="A1:J81"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:J81"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="0" hidden="1" customWidth="1"/>
     <col min="2" max="2" width="0" style="1" hidden="1" customWidth="1"/>
@@ -1220,7 +1238,7 @@
     <col min="10" max="10" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1252,233 +1270,217 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B2"/>
       <c r="C2"/>
       <c r="D2" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="I2" t="str">
-        <f>_xlfn.XLOOKUP([1]!AccountTbl[[#This Row],[IndustrySeq]],[1]!IndustryTbl[IndustrySeq],[1]!IndustryTbl[Industry])</f>
-        <v>Brokers</v>
-      </c>
-      <c r="J2" t="str">
-        <f>_xlfn.XLOOKUP([1]!AccountTbl[[#This Row],[AccountOwnerSeq]],[1]!OwnerTbl[SystemUserSeq],[1]!OwnerTbl[Owner],"")</f>
-        <v>Allie Bellew</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+        <v>85</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="I2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B3"/>
       <c r="C3"/>
       <c r="D3" s="4" t="s">
-        <v>60</v>
+        <v>87</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>12</v>
+        <v>88</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>13</v>
+        <v>89</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>10</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="I3" t="str">
-        <f>_xlfn.XLOOKUP([1]!AccountTbl[[#This Row],[IndustrySeq]],[1]!IndustryTbl[IndustrySeq],[1]!IndustryTbl[Industry])</f>
-        <v>Legal Services</v>
-      </c>
-      <c r="J3" t="str">
-        <f>_xlfn.XLOOKUP([1]!AccountTbl[[#This Row],[AccountOwnerSeq]],[1]!OwnerTbl[SystemUserSeq],[1]!OwnerTbl[Owner],"")</f>
-        <v>Karen Berg</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+        <v>65</v>
+      </c>
+      <c r="I3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B4"/>
       <c r="C4"/>
       <c r="D4" s="3" t="s">
-        <v>62</v>
+        <v>90</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>63</v>
+        <v>91</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>10</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="I4" t="str">
-        <f>_xlfn.XLOOKUP([1]!AccountTbl[[#This Row],[IndustrySeq]],[1]!IndustryTbl[IndustrySeq],[1]!IndustryTbl[Industry])</f>
-        <v>Durable Manufacturing</v>
-      </c>
-      <c r="J4" t="str">
-        <f>_xlfn.XLOOKUP([1]!AccountTbl[[#This Row],[AccountOwnerSeq]],[1]!OwnerTbl[SystemUserSeq],[1]!OwnerTbl[Owner],"")</f>
-        <v>David So</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+        <v>68</v>
+      </c>
+      <c r="I4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B5"/>
       <c r="C5"/>
-      <c r="D5" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="I5" t="str">
-        <f>_xlfn.XLOOKUP([1]!AccountTbl[[#This Row],[IndustrySeq]],[1]!IndustryTbl[IndustrySeq],[1]!IndustryTbl[Industry])</f>
-        <v/>
-      </c>
-      <c r="J5" t="str">
-        <f>_xlfn.XLOOKUP([1]!AccountTbl[[#This Row],[AccountOwnerSeq]],[1]!OwnerTbl[SystemUserSeq],[1]!OwnerTbl[Owner],"")</f>
-        <v>Amy Alberts</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="D5" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="I5" t="s">
+        <v>31</v>
+      </c>
+      <c r="J5" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B6"/>
       <c r="C6"/>
       <c r="D6" s="3" t="s">
-        <v>69</v>
+        <v>93</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>70</v>
+        <v>94</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>10</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="I6" t="str">
-        <f>_xlfn.XLOOKUP([1]!AccountTbl[[#This Row],[IndustrySeq]],[1]!IndustryTbl[IndustrySeq],[1]!IndustryTbl[Industry])</f>
-        <v>Equipment Rental and Leasing</v>
-      </c>
-      <c r="J6" t="str">
-        <f>_xlfn.XLOOKUP([1]!AccountTbl[[#This Row],[AccountOwnerSeq]],[1]!OwnerTbl[SystemUserSeq],[1]!OwnerTbl[Owner],"")</f>
-        <v>Eric Gruber</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+        <v>61</v>
+      </c>
+      <c r="I6" t="s">
+        <v>45</v>
+      </c>
+      <c r="J6" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B7"/>
       <c r="C7"/>
       <c r="D7" s="4" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>74</v>
+        <v>13</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>10</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="I7" t="str">
-        <f>_xlfn.XLOOKUP([1]!AccountTbl[[#This Row],[IndustrySeq]],[1]!IndustryTbl[IndustrySeq],[1]!IndustryTbl[Industry])</f>
-        <v>Eating and Drinking Places</v>
-      </c>
-      <c r="J7" t="str">
-        <f>_xlfn.XLOOKUP([1]!AccountTbl[[#This Row],[AccountOwnerSeq]],[1]!OwnerTbl[SystemUserSeq],[1]!OwnerTbl[Owner],"")</f>
-        <v>David So</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+        <v>61</v>
+      </c>
+      <c r="I7" t="s">
+        <v>46</v>
+      </c>
+      <c r="J7" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B8"/>
       <c r="C8"/>
       <c r="D8" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="I8" t="str">
-        <f>_xlfn.XLOOKUP([1]!AccountTbl[[#This Row],[IndustrySeq]],[1]!IndustryTbl[IndustrySeq],[1]!IndustryTbl[Industry])</f>
-        <v>Agriculture and Non-petrol Natural Resource Extraction</v>
-      </c>
-      <c r="J8" t="str">
-        <f>_xlfn.XLOOKUP([1]!AccountTbl[[#This Row],[AccountOwnerSeq]],[1]!OwnerTbl[SystemUserSeq],[1]!OwnerTbl[Owner],"")</f>
-        <v>Kelly Krout</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+        <v>95</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="I8" t="s">
+        <v>42</v>
+      </c>
+      <c r="J8" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B9"/>
       <c r="C9"/>
       <c r="D9" s="4" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>73</v>
+        <v>99</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>10</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="I9" t="str">
-        <f>_xlfn.XLOOKUP([1]!AccountTbl[[#This Row],[IndustrySeq]],[1]!IndustryTbl[IndustrySeq],[1]!IndustryTbl[Industry])</f>
-        <v>Equipment Rental and Leasing</v>
-      </c>
-      <c r="J9" t="str">
-        <f>_xlfn.XLOOKUP([1]!AccountTbl[[#This Row],[AccountOwnerSeq]],[1]!OwnerTbl[SystemUserSeq],[1]!OwnerTbl[Owner],"")</f>
-        <v>Christa Geller</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+        <v>68</v>
+      </c>
+      <c r="I9" t="s">
+        <v>28</v>
+      </c>
+      <c r="J9" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B10"/>
       <c r="C10"/>
       <c r="D10" s="3" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>80</v>
+        <v>19</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>10</v>
@@ -1486,107 +1488,99 @@
       <c r="H10" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="I10" t="str">
-        <f>_xlfn.XLOOKUP([1]!AccountTbl[[#This Row],[IndustrySeq]],[1]!IndustryTbl[IndustrySeq],[1]!IndustryTbl[Industry])</f>
-        <v>Agriculture and Non-petrol Natural Resource Extraction</v>
-      </c>
-      <c r="J10" t="str">
-        <f>_xlfn.XLOOKUP([1]!AccountTbl[[#This Row],[AccountOwnerSeq]],[1]!OwnerTbl[SystemUserSeq],[1]!OwnerTbl[Owner],"")</f>
-        <v>Amy Alberts</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I10" t="s">
+        <v>44</v>
+      </c>
+      <c r="J10" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B11"/>
       <c r="C11"/>
       <c r="D11" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H11" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="I11" t="str">
-        <f>_xlfn.XLOOKUP([1]!AccountTbl[[#This Row],[IndustrySeq]],[1]!IndustryTbl[IndustrySeq],[1]!IndustryTbl[Industry])</f>
-        <v>Eating and Drinking Places</v>
-      </c>
-      <c r="J11" t="str">
-        <f>_xlfn.XLOOKUP([1]!AccountTbl[[#This Row],[AccountOwnerSeq]],[1]!OwnerTbl[SystemUserSeq],[1]!OwnerTbl[Owner],"")</f>
-        <v>Anne Weiler</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I11" t="s">
+        <v>221</v>
+      </c>
+      <c r="J11" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B12"/>
       <c r="C12"/>
       <c r="D12" s="3" t="s">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>10</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="I12" t="str">
-        <f>_xlfn.XLOOKUP([1]!AccountTbl[[#This Row],[IndustrySeq]],[1]!IndustryTbl[IndustrySeq],[1]!IndustryTbl[Industry])</f>
-        <v>Consulting</v>
-      </c>
-      <c r="J12" t="str">
-        <f>_xlfn.XLOOKUP([1]!AccountTbl[[#This Row],[AccountOwnerSeq]],[1]!OwnerTbl[SystemUserSeq],[1]!OwnerTbl[Owner],"")</f>
-        <v>Amy Alberts</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
+        <v>65</v>
+      </c>
+      <c r="I12" t="s">
+        <v>38</v>
+      </c>
+      <c r="J12" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B13"/>
       <c r="C13"/>
       <c r="D13" s="4" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>10</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="I13" t="str">
-        <f>_xlfn.XLOOKUP([1]!AccountTbl[[#This Row],[IndustrySeq]],[1]!IndustryTbl[IndustrySeq],[1]!IndustryTbl[Industry])</f>
-        <v>Business Services</v>
-      </c>
-      <c r="J13" t="str">
-        <f>_xlfn.XLOOKUP([1]!AccountTbl[[#This Row],[AccountOwnerSeq]],[1]!OwnerTbl[SystemUserSeq],[1]!OwnerTbl[Owner],"")</f>
-        <v>Allie Bellew</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
+        <v>59</v>
+      </c>
+      <c r="I13" t="s">
+        <v>36</v>
+      </c>
+      <c r="J13" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B14"/>
       <c r="C14"/>
-      <c r="D14" s="3" t="s">
-        <v>90</v>
+      <c r="D14" s="4" t="s">
+        <v>66</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>92</v>
+        <v>16</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>10</v>
@@ -1594,404 +1588,374 @@
       <c r="H14" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="I14" t="str">
-        <f>_xlfn.XLOOKUP([1]!AccountTbl[[#This Row],[IndustrySeq]],[1]!IndustryTbl[IndustrySeq],[1]!IndustryTbl[Industry])</f>
-        <v>Broadcasting Printing and Publishing</v>
-      </c>
-      <c r="J14" t="str">
-        <f>_xlfn.XLOOKUP([1]!AccountTbl[[#This Row],[AccountOwnerSeq]],[1]!OwnerTbl[SystemUserSeq],[1]!OwnerTbl[Owner],"")</f>
-        <v>Kelly Krout</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I14" t="s">
+        <v>221</v>
+      </c>
+      <c r="J14" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B15"/>
       <c r="C15"/>
-      <c r="D15" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="I15" t="str">
-        <f>_xlfn.XLOOKUP([1]!AccountTbl[[#This Row],[IndustrySeq]],[1]!IndustryTbl[IndustrySeq],[1]!IndustryTbl[Industry])</f>
-        <v>Insurance</v>
-      </c>
-      <c r="J15" t="str">
-        <f>_xlfn.XLOOKUP([1]!AccountTbl[[#This Row],[AccountOwnerSeq]],[1]!OwnerTbl[SystemUserSeq],[1]!OwnerTbl[Owner],"")</f>
-        <v>Karen Berg</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="D15" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="I15" t="s">
+        <v>31</v>
+      </c>
+      <c r="J15" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B16"/>
       <c r="C16"/>
       <c r="D16" s="3" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>96</v>
+        <v>70</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="G16" s="3" t="s">
         <v>10</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="I16" t="str">
-        <f>_xlfn.XLOOKUP([1]!AccountTbl[[#This Row],[IndustrySeq]],[1]!IndustryTbl[IndustrySeq],[1]!IndustryTbl[Industry])</f>
-        <v>Financial</v>
-      </c>
-      <c r="J16" t="str">
-        <f>_xlfn.XLOOKUP([1]!AccountTbl[[#This Row],[AccountOwnerSeq]],[1]!OwnerTbl[SystemUserSeq],[1]!OwnerTbl[Owner],"")</f>
-        <v>Greg Winston</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.4">
+        <v>65</v>
+      </c>
+      <c r="I16" t="s">
+        <v>41</v>
+      </c>
+      <c r="J16" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B17"/>
       <c r="C17"/>
       <c r="D17" s="4" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="G17" s="4" t="s">
         <v>10</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="I17" t="str">
-        <f>_xlfn.XLOOKUP([1]!AccountTbl[[#This Row],[IndustrySeq]],[1]!IndustryTbl[IndustrySeq],[1]!IndustryTbl[Industry])</f>
-        <v>Accounting</v>
-      </c>
-      <c r="J17" t="str">
-        <f>_xlfn.XLOOKUP([1]!AccountTbl[[#This Row],[AccountOwnerSeq]],[1]!OwnerTbl[SystemUserSeq],[1]!OwnerTbl[Owner],"")</f>
-        <v>Amy Alberts</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.4">
+        <v>65</v>
+      </c>
+      <c r="I17" t="s">
+        <v>32</v>
+      </c>
+      <c r="J17" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B18"/>
       <c r="C18"/>
       <c r="D18" s="3" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>19</v>
+        <v>115</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>92</v>
+        <v>116</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>10</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="I18" t="str">
-        <f>_xlfn.XLOOKUP([1]!AccountTbl[[#This Row],[IndustrySeq]],[1]!IndustryTbl[IndustrySeq],[1]!IndustryTbl[Industry])</f>
-        <v>Inbound Repair and Services</v>
-      </c>
-      <c r="J18" t="str">
-        <f>_xlfn.XLOOKUP([1]!AccountTbl[[#This Row],[AccountOwnerSeq]],[1]!OwnerTbl[SystemUserSeq],[1]!OwnerTbl[Owner],"")</f>
-        <v>Eric Gruber</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.4">
+        <v>59</v>
+      </c>
+      <c r="I18" t="s">
+        <v>41</v>
+      </c>
+      <c r="J18" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B19"/>
       <c r="C19"/>
       <c r="D19" s="4" t="s">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>104</v>
+        <v>78</v>
       </c>
       <c r="G19" s="4" t="s">
         <v>10</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="I19" t="str">
-        <f>_xlfn.XLOOKUP([1]!AccountTbl[[#This Row],[IndustrySeq]],[1]!IndustryTbl[IndustrySeq],[1]!IndustryTbl[Industry])</f>
-        <v/>
-      </c>
-      <c r="J19" t="str">
-        <f>_xlfn.XLOOKUP([1]!AccountTbl[[#This Row],[AccountOwnerSeq]],[1]!OwnerTbl[SystemUserSeq],[1]!OwnerTbl[Owner],"")</f>
-        <v>Alan Steiner</v>
-      </c>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.4">
+        <v>61</v>
+      </c>
+      <c r="I19" t="s">
+        <v>22</v>
+      </c>
+      <c r="J19" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B20"/>
       <c r="C20"/>
-      <c r="D20" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H20" s="4" t="s">
+      <c r="D20" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H20" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="I20" t="str">
-        <f>_xlfn.XLOOKUP([1]!AccountTbl[[#This Row],[IndustrySeq]],[1]!IndustryTbl[IndustrySeq],[1]!IndustryTbl[Industry])</f>
-        <v>Distributors, Dispatchers and Processors</v>
-      </c>
-      <c r="J20" t="str">
-        <f>_xlfn.XLOOKUP([1]!AccountTbl[[#This Row],[AccountOwnerSeq]],[1]!OwnerTbl[SystemUserSeq],[1]!OwnerTbl[Owner],"")</f>
-        <v>Anne Weiler</v>
-      </c>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="I20" t="s">
+        <v>28</v>
+      </c>
+      <c r="J20" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B21"/>
       <c r="C21"/>
       <c r="D21" s="4" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>109</v>
+        <v>73</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="G21" s="4" t="s">
         <v>10</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="I21" t="str">
-        <f>_xlfn.XLOOKUP([1]!AccountTbl[[#This Row],[IndustrySeq]],[1]!IndustryTbl[IndustrySeq],[1]!IndustryTbl[Industry])</f>
-        <v>Brokers</v>
-      </c>
-      <c r="J21" t="str">
-        <f>_xlfn.XLOOKUP([1]!AccountTbl[[#This Row],[AccountOwnerSeq]],[1]!OwnerTbl[SystemUserSeq],[1]!OwnerTbl[Owner],"")</f>
-        <v>Amy Alberts</v>
-      </c>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.4">
+        <v>61</v>
+      </c>
+      <c r="I21" t="s">
+        <v>43</v>
+      </c>
+      <c r="J21" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B22"/>
       <c r="C22"/>
-      <c r="D22" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H22" s="4" t="s">
+      <c r="D22" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H22" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="I22" t="str">
-        <f>_xlfn.XLOOKUP([1]!AccountTbl[[#This Row],[IndustrySeq]],[1]!IndustryTbl[IndustrySeq],[1]!IndustryTbl[Industry])</f>
-        <v>Building Supply Retail</v>
-      </c>
-      <c r="J22" t="str">
-        <f>_xlfn.XLOOKUP([1]!AccountTbl[[#This Row],[AccountOwnerSeq]],[1]!OwnerTbl[SystemUserSeq],[1]!OwnerTbl[Owner],"")</f>
-        <v>Kelly Krout</v>
-      </c>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="I22" t="s">
+        <v>35</v>
+      </c>
+      <c r="J22" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B23"/>
       <c r="C23"/>
-      <c r="D23" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="I23" t="str">
-        <f>_xlfn.XLOOKUP([1]!AccountTbl[[#This Row],[IndustrySeq]],[1]!IndustryTbl[IndustrySeq],[1]!IndustryTbl[Industry])</f>
-        <v>Equipment Rental and Leasing</v>
-      </c>
-      <c r="J23" t="str">
-        <f>_xlfn.XLOOKUP([1]!AccountTbl[[#This Row],[AccountOwnerSeq]],[1]!OwnerTbl[SystemUserSeq],[1]!OwnerTbl[Owner],"")</f>
-        <v>Christa Geller</v>
-      </c>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="D23" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="I23" t="s">
+        <v>39</v>
+      </c>
+      <c r="J23" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B24"/>
       <c r="C24"/>
-      <c r="D24" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H24" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="I24" t="str">
-        <f>_xlfn.XLOOKUP([1]!AccountTbl[[#This Row],[IndustrySeq]],[1]!IndustryTbl[IndustrySeq],[1]!IndustryTbl[Industry])</f>
-        <v>Food and Tobacco Processing</v>
-      </c>
-      <c r="J24" t="str">
-        <f>_xlfn.XLOOKUP([1]!AccountTbl[[#This Row],[AccountOwnerSeq]],[1]!OwnerTbl[SystemUserSeq],[1]!OwnerTbl[Owner],"")</f>
-        <v>Jeff Hay</v>
-      </c>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="D24" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="I24" t="s">
+        <v>42</v>
+      </c>
+      <c r="J24" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B25"/>
       <c r="C25"/>
-      <c r="D25" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H25" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="I25" t="str">
-        <f>_xlfn.XLOOKUP([1]!AccountTbl[[#This Row],[IndustrySeq]],[1]!IndustryTbl[IndustrySeq],[1]!IndustryTbl[Industry])</f>
-        <v>Accounting</v>
-      </c>
-      <c r="J25" t="str">
-        <f>_xlfn.XLOOKUP([1]!AccountTbl[[#This Row],[AccountOwnerSeq]],[1]!OwnerTbl[SystemUserSeq],[1]!OwnerTbl[Owner],"")</f>
-        <v>Alan Steiner</v>
-      </c>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="D25" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="I25" t="s">
+        <v>22</v>
+      </c>
+      <c r="J25" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B26"/>
       <c r="C26"/>
-      <c r="D26" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="G26" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H26" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="I26" t="str">
-        <f>_xlfn.XLOOKUP([1]!AccountTbl[[#This Row],[IndustrySeq]],[1]!IndustryTbl[IndustrySeq],[1]!IndustryTbl[Industry])</f>
-        <v>Inbound Capital Intensive Processing</v>
-      </c>
-      <c r="J26" t="str">
-        <f>_xlfn.XLOOKUP([1]!AccountTbl[[#This Row],[AccountOwnerSeq]],[1]!OwnerTbl[SystemUserSeq],[1]!OwnerTbl[Owner],"")</f>
-        <v>Jeff Hay</v>
-      </c>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="D26" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="I26" t="s">
+        <v>37</v>
+      </c>
+      <c r="J26" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B27"/>
       <c r="C27"/>
-      <c r="D27" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="I27" t="str">
-        <f>_xlfn.XLOOKUP([1]!AccountTbl[[#This Row],[IndustrySeq]],[1]!IndustryTbl[IndustrySeq],[1]!IndustryTbl[Industry])</f>
-        <v>Design, Direction and Creative Management</v>
-      </c>
-      <c r="J27" t="str">
-        <f>_xlfn.XLOOKUP([1]!AccountTbl[[#This Row],[AccountOwnerSeq]],[1]!OwnerTbl[SystemUserSeq],[1]!OwnerTbl[Owner],"")</f>
-        <v>Carlos Grilo</v>
-      </c>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="D27" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="I27" t="s">
+        <v>34</v>
+      </c>
+      <c r="J27" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B28"/>
       <c r="C28"/>
       <c r="D28" s="3" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>126</v>
+        <v>12</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="G28" s="3" t="s">
         <v>10</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="I28" t="str">
-        <f>_xlfn.XLOOKUP([1]!AccountTbl[[#This Row],[IndustrySeq]],[1]!IndustryTbl[IndustrySeq],[1]!IndustryTbl[Industry])</f>
-        <v>Financial</v>
-      </c>
-      <c r="J28" t="str">
-        <f>_xlfn.XLOOKUP([1]!AccountTbl[[#This Row],[AccountOwnerSeq]],[1]!OwnerTbl[SystemUserSeq],[1]!OwnerTbl[Owner],"")</f>
-        <v>Eric Gruber</v>
-      </c>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.4">
+        <v>61</v>
+      </c>
+      <c r="I28" t="s">
+        <v>40</v>
+      </c>
+      <c r="J28" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B29"/>
       <c r="C29"/>
       <c r="D29" s="4" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="G29" s="4" t="s">
         <v>10</v>
@@ -1999,80 +1963,74 @@
       <c r="H29" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="I29" t="str">
-        <f>_xlfn.XLOOKUP([1]!AccountTbl[[#This Row],[IndustrySeq]],[1]!IndustryTbl[IndustrySeq],[1]!IndustryTbl[Industry])</f>
-        <v>Food and Tobacco Processing</v>
-      </c>
-      <c r="J29" t="str">
-        <f>_xlfn.XLOOKUP([1]!AccountTbl[[#This Row],[AccountOwnerSeq]],[1]!OwnerTbl[SystemUserSeq],[1]!OwnerTbl[Owner],"")</f>
-        <v>Eric Gruber</v>
-      </c>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="I29" t="s">
+        <v>47</v>
+      </c>
+      <c r="J29" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B30"/>
       <c r="C30"/>
       <c r="D30" s="3" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>131</v>
+        <v>76</v>
       </c>
       <c r="G30" s="3" t="s">
         <v>10</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="I30" t="str">
-        <f>_xlfn.XLOOKUP([1]!AccountTbl[[#This Row],[IndustrySeq]],[1]!IndustryTbl[IndustrySeq],[1]!IndustryTbl[Industry])</f>
-        <v>Doctor's Offices and Clinics</v>
-      </c>
-      <c r="J30" t="str">
-        <f>_xlfn.XLOOKUP([1]!AccountTbl[[#This Row],[AccountOwnerSeq]],[1]!OwnerTbl[SystemUserSeq],[1]!OwnerTbl[Owner],"")</f>
-        <v>Anne Weiler</v>
-      </c>
-    </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.4">
+        <v>65</v>
+      </c>
+      <c r="I30" t="s">
+        <v>221</v>
+      </c>
+      <c r="J30" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B31"/>
       <c r="C31"/>
       <c r="D31" s="4" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>18</v>
+        <v>140</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>133</v>
+        <v>71</v>
       </c>
       <c r="G31" s="4" t="s">
         <v>10</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="I31" t="str">
-        <f>_xlfn.XLOOKUP([1]!AccountTbl[[#This Row],[IndustrySeq]],[1]!IndustryTbl[IndustrySeq],[1]!IndustryTbl[Industry])</f>
-        <v>Consumer Services</v>
-      </c>
-      <c r="J31" t="str">
-        <f>_xlfn.XLOOKUP([1]!AccountTbl[[#This Row],[AccountOwnerSeq]],[1]!OwnerTbl[SystemUserSeq],[1]!OwnerTbl[Owner],"")</f>
-        <v>Anne Weiler</v>
-      </c>
-    </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.4">
+        <v>65</v>
+      </c>
+      <c r="I31" t="s">
+        <v>43</v>
+      </c>
+      <c r="J31" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B32"/>
       <c r="C32"/>
       <c r="D32" s="3" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>12</v>
+        <v>142</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>13</v>
+        <v>143</v>
       </c>
       <c r="G32" s="3" t="s">
         <v>10</v>
@@ -2080,26 +2038,24 @@
       <c r="H32" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="I32" t="str">
-        <f>_xlfn.XLOOKUP([1]!AccountTbl[[#This Row],[IndustrySeq]],[1]!IndustryTbl[IndustrySeq],[1]!IndustryTbl[Industry])</f>
-        <v>Entertainment Retail</v>
-      </c>
-      <c r="J32" t="str">
-        <f>_xlfn.XLOOKUP([1]!AccountTbl[[#This Row],[AccountOwnerSeq]],[1]!OwnerTbl[SystemUserSeq],[1]!OwnerTbl[Owner],"")</f>
-        <v>Christa Geller</v>
-      </c>
-    </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="I32" t="s">
+        <v>45</v>
+      </c>
+      <c r="J32" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B33"/>
       <c r="C33"/>
       <c r="D33" s="4" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="G33" s="4" t="s">
         <v>10</v>
@@ -2107,26 +2063,24 @@
       <c r="H33" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="I33" t="str">
-        <f>_xlfn.XLOOKUP([1]!AccountTbl[[#This Row],[IndustrySeq]],[1]!IndustryTbl[IndustrySeq],[1]!IndustryTbl[Industry])</f>
-        <v>Non-Durable Merchandise Retail</v>
-      </c>
-      <c r="J33" t="str">
-        <f>_xlfn.XLOOKUP([1]!AccountTbl[[#This Row],[AccountOwnerSeq]],[1]!OwnerTbl[SystemUserSeq],[1]!OwnerTbl[Owner],"")</f>
-        <v>Jamie Reding</v>
-      </c>
-    </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="I33" t="s">
+        <v>40</v>
+      </c>
+      <c r="J33" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B34"/>
       <c r="C34"/>
       <c r="D34" s="3" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>76</v>
+        <v>147</v>
       </c>
       <c r="G34" s="3" t="s">
         <v>10</v>
@@ -2134,50 +2088,46 @@
       <c r="H34" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="I34" t="str">
-        <f>_xlfn.XLOOKUP([1]!AccountTbl[[#This Row],[IndustrySeq]],[1]!IndustryTbl[IndustrySeq],[1]!IndustryTbl[Industry])</f>
-        <v/>
-      </c>
-      <c r="J34" t="str">
-        <f>_xlfn.XLOOKUP([1]!AccountTbl[[#This Row],[AccountOwnerSeq]],[1]!OwnerTbl[SystemUserSeq],[1]!OwnerTbl[Owner],"")</f>
-        <v>Jamie Reding</v>
-      </c>
-    </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="I34" t="s">
+        <v>37</v>
+      </c>
+      <c r="J34" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B35"/>
       <c r="C35"/>
       <c r="D35" s="4" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>140</v>
+        <v>103</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>71</v>
+        <v>104</v>
       </c>
       <c r="G35" s="4" t="s">
         <v>10</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="I35" t="str">
-        <f>_xlfn.XLOOKUP([1]!AccountTbl[[#This Row],[IndustrySeq]],[1]!IndustryTbl[IndustrySeq],[1]!IndustryTbl[Industry])</f>
-        <v>Inbound Capital Intensive Processing</v>
-      </c>
-      <c r="J35" t="str">
-        <f>_xlfn.XLOOKUP([1]!AccountTbl[[#This Row],[AccountOwnerSeq]],[1]!OwnerTbl[SystemUserSeq],[1]!OwnerTbl[Owner],"")</f>
-        <v>Eric Gruber</v>
-      </c>
-    </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.4">
+        <v>59</v>
+      </c>
+      <c r="I35" t="s">
+        <v>29</v>
+      </c>
+      <c r="J35" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B36"/>
       <c r="C36"/>
       <c r="D36" s="3" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="F36" s="3" t="s">
         <v>143</v>
@@ -2188,26 +2138,24 @@
       <c r="H36" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="I36" t="str">
-        <f>_xlfn.XLOOKUP([1]!AccountTbl[[#This Row],[IndustrySeq]],[1]!IndustryTbl[IndustrySeq],[1]!IndustryTbl[Industry])</f>
-        <v>Insurance</v>
-      </c>
-      <c r="J36" t="str">
-        <f>_xlfn.XLOOKUP([1]!AccountTbl[[#This Row],[AccountOwnerSeq]],[1]!OwnerTbl[SystemUserSeq],[1]!OwnerTbl[Owner],"")</f>
-        <v>Sanjay Shah</v>
-      </c>
-    </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="I36" t="s">
+        <v>45</v>
+      </c>
+      <c r="J36" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B37"/>
       <c r="C37"/>
       <c r="D37" s="4" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>145</v>
+        <v>70</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="G37" s="4" t="s">
         <v>10</v>
@@ -2215,134 +2163,124 @@
       <c r="H37" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="I37" t="str">
-        <f>_xlfn.XLOOKUP([1]!AccountTbl[[#This Row],[IndustrySeq]],[1]!IndustryTbl[IndustrySeq],[1]!IndustryTbl[Industry])</f>
-        <v>Entertainment Retail</v>
-      </c>
-      <c r="J37" t="str">
-        <f>_xlfn.XLOOKUP([1]!AccountTbl[[#This Row],[AccountOwnerSeq]],[1]!OwnerTbl[SystemUserSeq],[1]!OwnerTbl[Owner],"")</f>
-        <v>David So</v>
-      </c>
-    </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="I37" t="s">
+        <v>45</v>
+      </c>
+      <c r="J37" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B38"/>
       <c r="C38"/>
       <c r="D38" s="3" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>123</v>
+        <v>153</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="G38" s="3" t="s">
         <v>10</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="I38" t="str">
-        <f>_xlfn.XLOOKUP([1]!AccountTbl[[#This Row],[IndustrySeq]],[1]!IndustryTbl[IndustrySeq],[1]!IndustryTbl[Industry])</f>
-        <v>Doctor's Offices and Clinics</v>
-      </c>
-      <c r="J38" t="str">
-        <f>_xlfn.XLOOKUP([1]!AccountTbl[[#This Row],[AccountOwnerSeq]],[1]!OwnerTbl[SystemUserSeq],[1]!OwnerTbl[Owner],"")</f>
-        <v>Carlos Grilo</v>
-      </c>
-    </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.4">
+        <v>59</v>
+      </c>
+      <c r="I38" t="s">
+        <v>38</v>
+      </c>
+      <c r="J38" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B39"/>
       <c r="C39"/>
-      <c r="D39" s="4" t="s">
-        <v>148</v>
+      <c r="D39" s="3" t="s">
+        <v>75</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>103</v>
+        <v>21</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>104</v>
+        <v>76</v>
       </c>
       <c r="G39" s="4" t="s">
         <v>10</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="I39" t="str">
-        <f>_xlfn.XLOOKUP([1]!AccountTbl[[#This Row],[IndustrySeq]],[1]!IndustryTbl[IndustrySeq],[1]!IndustryTbl[Industry])</f>
-        <v>Agriculture and Non-petrol Natural Resource Extraction</v>
-      </c>
-      <c r="J39" t="str">
-        <f>_xlfn.XLOOKUP([1]!AccountTbl[[#This Row],[AccountOwnerSeq]],[1]!OwnerTbl[SystemUserSeq],[1]!OwnerTbl[Owner],"")</f>
-        <v>Alan Steiner</v>
-      </c>
-    </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.4">
+        <v>65</v>
+      </c>
+      <c r="I39" t="s">
+        <v>29</v>
+      </c>
+      <c r="J39" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B40"/>
       <c r="C40"/>
       <c r="D40" s="3" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>150</v>
+        <v>86</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>143</v>
+        <v>81</v>
       </c>
       <c r="G40" s="3" t="s">
         <v>10</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="I40" t="str">
-        <f>_xlfn.XLOOKUP([1]!AccountTbl[[#This Row],[IndustrySeq]],[1]!IndustryTbl[IndustrySeq],[1]!IndustryTbl[Industry])</f>
-        <v>Insurance</v>
-      </c>
-      <c r="J40" t="str">
-        <f>_xlfn.XLOOKUP([1]!AccountTbl[[#This Row],[AccountOwnerSeq]],[1]!OwnerTbl[SystemUserSeq],[1]!OwnerTbl[Owner],"")</f>
-        <v>Sanjay Shah</v>
-      </c>
-    </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.4">
+        <v>68</v>
+      </c>
+      <c r="I40" t="s">
+        <v>47</v>
+      </c>
+      <c r="J40" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B41"/>
       <c r="C41"/>
       <c r="D41" s="4" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>70</v>
+        <v>156</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>71</v>
+        <v>143</v>
       </c>
       <c r="G41" s="4" t="s">
         <v>10</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="I41" t="str">
-        <f>_xlfn.XLOOKUP([1]!AccountTbl[[#This Row],[IndustrySeq]],[1]!IndustryTbl[IndustrySeq],[1]!IndustryTbl[Industry])</f>
-        <v>Insurance</v>
-      </c>
-      <c r="J41" t="str">
-        <f>_xlfn.XLOOKUP([1]!AccountTbl[[#This Row],[AccountOwnerSeq]],[1]!OwnerTbl[SystemUserSeq],[1]!OwnerTbl[Owner],"")</f>
-        <v>Jamie Reding</v>
-      </c>
-    </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.4">
+        <v>61</v>
+      </c>
+      <c r="I41" t="s">
+        <v>46</v>
+      </c>
+      <c r="J41" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B42"/>
       <c r="C42"/>
       <c r="D42" s="3" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>131</v>
+        <v>159</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>10</v>
@@ -2350,286 +2288,264 @@
       <c r="H42" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="I42" t="str">
-        <f>_xlfn.XLOOKUP([1]!AccountTbl[[#This Row],[IndustrySeq]],[1]!IndustryTbl[IndustrySeq],[1]!IndustryTbl[Industry])</f>
-        <v>Durable Manufacturing</v>
-      </c>
-      <c r="J42" t="str">
-        <f>_xlfn.XLOOKUP([1]!AccountTbl[[#This Row],[AccountOwnerSeq]],[1]!OwnerTbl[SystemUserSeq],[1]!OwnerTbl[Owner],"")</f>
-        <v>Anne Weiler</v>
-      </c>
-    </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="I42" t="s">
+        <v>32</v>
+      </c>
+      <c r="J42" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B43"/>
       <c r="C43"/>
-      <c r="D43" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="I43" t="str">
-        <f>_xlfn.XLOOKUP([1]!AccountTbl[[#This Row],[IndustrySeq]],[1]!IndustryTbl[IndustrySeq],[1]!IndustryTbl[Industry])</f>
-        <v>Non-Durable Merchandise Retail</v>
-      </c>
-      <c r="J43" t="str">
-        <f>_xlfn.XLOOKUP([1]!AccountTbl[[#This Row],[AccountOwnerSeq]],[1]!OwnerTbl[SystemUserSeq],[1]!OwnerTbl[Owner],"")</f>
-        <v>Alicia Thomber</v>
-      </c>
-    </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="D43" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H43" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="I43" t="s">
+        <v>41</v>
+      </c>
+      <c r="J43" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B44"/>
       <c r="C44"/>
-      <c r="D44" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="E44" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="F44" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="G44" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H44" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="I44" t="str">
-        <f>_xlfn.XLOOKUP([1]!AccountTbl[[#This Row],[IndustrySeq]],[1]!IndustryTbl[IndustrySeq],[1]!IndustryTbl[Industry])</f>
-        <v>Legal Services</v>
-      </c>
-      <c r="J44" t="str">
-        <f>_xlfn.XLOOKUP([1]!AccountTbl[[#This Row],[AccountOwnerSeq]],[1]!OwnerTbl[SystemUserSeq],[1]!OwnerTbl[Owner],"")</f>
-        <v>Sven Mortensen</v>
-      </c>
-    </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="D44" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="I44" t="s">
+        <v>29</v>
+      </c>
+      <c r="J44" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B45"/>
       <c r="C45"/>
-      <c r="D45" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="I45" t="str">
-        <f>_xlfn.XLOOKUP([1]!AccountTbl[[#This Row],[IndustrySeq]],[1]!IndustryTbl[IndustrySeq],[1]!IndustryTbl[Industry])</f>
-        <v>Building Supply Retail</v>
-      </c>
-      <c r="J45" t="str">
-        <f>_xlfn.XLOOKUP([1]!AccountTbl[[#This Row],[AccountOwnerSeq]],[1]!OwnerTbl[SystemUserSeq],[1]!OwnerTbl[Owner],"")</f>
-        <v>Allie Bellew</v>
-      </c>
-    </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="D45" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H45" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="I45" t="s">
+        <v>47</v>
+      </c>
+      <c r="J45" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B46"/>
       <c r="C46"/>
-      <c r="D46" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="E46" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="F46" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="G46" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H46" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="I46" t="str">
-        <f>_xlfn.XLOOKUP([1]!AccountTbl[[#This Row],[IndustrySeq]],[1]!IndustryTbl[IndustrySeq],[1]!IndustryTbl[Industry])</f>
-        <v>Non-Durable Merchandise Retail</v>
-      </c>
-      <c r="J46" t="str">
-        <f>_xlfn.XLOOKUP([1]!AccountTbl[[#This Row],[AccountOwnerSeq]],[1]!OwnerTbl[SystemUserSeq],[1]!OwnerTbl[Owner],"")</f>
-        <v>Sven Mortensen</v>
-      </c>
-    </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="D46" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="I46" t="s">
+        <v>30</v>
+      </c>
+      <c r="J46" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B47"/>
       <c r="C47"/>
-      <c r="D47" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="I47" t="str">
-        <f>_xlfn.XLOOKUP([1]!AccountTbl[[#This Row],[IndustrySeq]],[1]!IndustryTbl[IndustrySeq],[1]!IndustryTbl[Industry])</f>
-        <v>Broadcasting Printing and Publishing</v>
-      </c>
-      <c r="J47" t="str">
-        <f>_xlfn.XLOOKUP([1]!AccountTbl[[#This Row],[AccountOwnerSeq]],[1]!OwnerTbl[SystemUserSeq],[1]!OwnerTbl[Owner],"")</f>
-        <v>Alan Steiner</v>
-      </c>
-    </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="D47" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H47" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="I47" t="s">
+        <v>30</v>
+      </c>
+      <c r="J47" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B48"/>
       <c r="C48"/>
-      <c r="D48" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="E48" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="F48" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="G48" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H48" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="I48" t="str">
-        <f>_xlfn.XLOOKUP([1]!AccountTbl[[#This Row],[IndustrySeq]],[1]!IndustryTbl[IndustrySeq],[1]!IndustryTbl[Industry])</f>
-        <v>Broadcasting Printing and Publishing</v>
-      </c>
-      <c r="J48" t="str">
-        <f>_xlfn.XLOOKUP([1]!AccountTbl[[#This Row],[AccountOwnerSeq]],[1]!OwnerTbl[SystemUserSeq],[1]!OwnerTbl[Owner],"")</f>
-        <v>Amy Alberts</v>
-      </c>
-    </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="D48" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="I48" t="s">
+        <v>46</v>
+      </c>
+      <c r="J48" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B49"/>
       <c r="C49"/>
-      <c r="D49" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="I49" t="str">
-        <f>_xlfn.XLOOKUP([1]!AccountTbl[[#This Row],[IndustrySeq]],[1]!IndustryTbl[IndustrySeq],[1]!IndustryTbl[Industry])</f>
-        <v>Legal Services</v>
-      </c>
-      <c r="J49" t="str">
-        <f>_xlfn.XLOOKUP([1]!AccountTbl[[#This Row],[AccountOwnerSeq]],[1]!OwnerTbl[SystemUserSeq],[1]!OwnerTbl[Owner],"")</f>
-        <v>Molly Clark</v>
-      </c>
-    </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="D49" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H49" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="I49" t="s">
+        <v>31</v>
+      </c>
+      <c r="J49" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B50"/>
       <c r="C50"/>
-      <c r="D50" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="E50" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="F50" s="4" t="s">
+      <c r="D50" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="F50" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="G50" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H50" s="4" t="s">
+      <c r="G50" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H50" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="I50" t="str">
-        <f>_xlfn.XLOOKUP([1]!AccountTbl[[#This Row],[IndustrySeq]],[1]!IndustryTbl[IndustrySeq],[1]!IndustryTbl[Industry])</f>
-        <v>Brokers</v>
-      </c>
-      <c r="J50" t="str">
-        <f>_xlfn.XLOOKUP([1]!AccountTbl[[#This Row],[AccountOwnerSeq]],[1]!OwnerTbl[SystemUserSeq],[1]!OwnerTbl[Owner],"")</f>
-        <v>Kelly Krout</v>
-      </c>
-    </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="I50" t="s">
+        <v>33</v>
+      </c>
+      <c r="J50" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B51"/>
       <c r="C51"/>
-      <c r="D51" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="E51" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="F51" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="G51" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H51" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="I51" t="str">
-        <f>_xlfn.XLOOKUP([1]!AccountTbl[[#This Row],[IndustrySeq]],[1]!IndustryTbl[IndustrySeq],[1]!IndustryTbl[Industry])</f>
-        <v>Business Services</v>
-      </c>
-      <c r="J51" t="str">
-        <f>_xlfn.XLOOKUP([1]!AccountTbl[[#This Row],[AccountOwnerSeq]],[1]!OwnerTbl[SystemUserSeq],[1]!OwnerTbl[Owner],"")</f>
-        <v>Renee Lo</v>
-      </c>
-    </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="D51" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H51" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="I51" t="s">
+        <v>22</v>
+      </c>
+      <c r="J51" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="52" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B52"/>
       <c r="C52"/>
       <c r="D52" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="E52" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="F52" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="G52" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H52" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="I52" t="str">
-        <f>_xlfn.XLOOKUP([1]!AccountTbl[[#This Row],[IndustrySeq]],[1]!IndustryTbl[IndustrySeq],[1]!IndustryTbl[Industry])</f>
-        <v>Food and Tobacco Processing</v>
-      </c>
-      <c r="J52" t="str">
-        <f>_xlfn.XLOOKUP([1]!AccountTbl[[#This Row],[AccountOwnerSeq]],[1]!OwnerTbl[SystemUserSeq],[1]!OwnerTbl[Owner],"")</f>
-        <v>Alicia Thomber</v>
-      </c>
-    </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.4">
+        <v>82</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="I52" t="s">
+        <v>39</v>
+      </c>
+      <c r="J52" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="53" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B53"/>
       <c r="C53"/>
       <c r="D53" s="4" t="s">
@@ -2647,16 +2563,14 @@
       <c r="H53" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="I53" t="str">
-        <f>_xlfn.XLOOKUP([1]!AccountTbl[[#This Row],[IndustrySeq]],[1]!IndustryTbl[IndustrySeq],[1]!IndustryTbl[Industry])</f>
-        <v>Financial</v>
-      </c>
-      <c r="J53" t="str">
-        <f>_xlfn.XLOOKUP([1]!AccountTbl[[#This Row],[AccountOwnerSeq]],[1]!OwnerTbl[SystemUserSeq],[1]!OwnerTbl[Owner],"")</f>
-        <v>Christa Geller</v>
-      </c>
-    </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="I53" t="s">
+        <v>42</v>
+      </c>
+      <c r="J53" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="54" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B54"/>
       <c r="C54"/>
       <c r="D54" s="3" t="s">
@@ -2674,16 +2588,14 @@
       <c r="H54" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="I54" t="str">
-        <f>_xlfn.XLOOKUP([1]!AccountTbl[[#This Row],[IndustrySeq]],[1]!IndustryTbl[IndustrySeq],[1]!IndustryTbl[Industry])</f>
-        <v>Business Services</v>
-      </c>
-      <c r="J54" t="str">
-        <f>_xlfn.XLOOKUP([1]!AccountTbl[[#This Row],[AccountOwnerSeq]],[1]!OwnerTbl[SystemUserSeq],[1]!OwnerTbl[Owner],"")</f>
-        <v>Allie Bellew</v>
-      </c>
-    </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="I54" t="s">
+        <v>33</v>
+      </c>
+      <c r="J54" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="55" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B55"/>
       <c r="C55"/>
       <c r="D55" s="4" t="s">
@@ -2701,16 +2613,14 @@
       <c r="H55" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="I55" t="str">
-        <f>_xlfn.XLOOKUP([1]!AccountTbl[[#This Row],[IndustrySeq]],[1]!IndustryTbl[IndustrySeq],[1]!IndustryTbl[Industry])</f>
-        <v>Distributors, Dispatchers and Processors</v>
-      </c>
-      <c r="J55" t="str">
-        <f>_xlfn.XLOOKUP([1]!AccountTbl[[#This Row],[AccountOwnerSeq]],[1]!OwnerTbl[SystemUserSeq],[1]!OwnerTbl[Owner],"")</f>
-        <v>Carlos Grilo</v>
-      </c>
-    </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="I55" t="s">
+        <v>36</v>
+      </c>
+      <c r="J55" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="56" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B56"/>
       <c r="C56"/>
       <c r="D56" s="3" t="s">
@@ -2728,16 +2638,14 @@
       <c r="H56" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="I56" t="str">
-        <f>_xlfn.XLOOKUP([1]!AccountTbl[[#This Row],[IndustrySeq]],[1]!IndustryTbl[IndustrySeq],[1]!IndustryTbl[Industry])</f>
-        <v>Legal Services</v>
-      </c>
-      <c r="J56" t="str">
-        <f>_xlfn.XLOOKUP([1]!AccountTbl[[#This Row],[AccountOwnerSeq]],[1]!OwnerTbl[SystemUserSeq],[1]!OwnerTbl[Owner],"")</f>
-        <v>Alicia Thomber</v>
-      </c>
-    </row>
-    <row r="57" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="I56" t="s">
+        <v>46</v>
+      </c>
+      <c r="J56" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="57" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B57"/>
       <c r="C57"/>
       <c r="D57" s="4" t="s">
@@ -2755,16 +2663,14 @@
       <c r="H57" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="I57" t="str">
-        <f>_xlfn.XLOOKUP([1]!AccountTbl[[#This Row],[IndustrySeq]],[1]!IndustryTbl[IndustrySeq],[1]!IndustryTbl[Industry])</f>
-        <v>Design, Direction and Creative Management</v>
-      </c>
-      <c r="J57" t="str">
-        <f>_xlfn.XLOOKUP([1]!AccountTbl[[#This Row],[AccountOwnerSeq]],[1]!OwnerTbl[SystemUserSeq],[1]!OwnerTbl[Owner],"")</f>
-        <v>Anne Weiler</v>
-      </c>
-    </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="I57" t="s">
+        <v>35</v>
+      </c>
+      <c r="J57" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="58" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B58"/>
       <c r="C58"/>
       <c r="D58" s="3" t="s">
@@ -2782,16 +2688,14 @@
       <c r="H58" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="I58" t="str">
-        <f>_xlfn.XLOOKUP([1]!AccountTbl[[#This Row],[IndustrySeq]],[1]!IndustryTbl[IndustrySeq],[1]!IndustryTbl[Industry])</f>
-        <v>Consulting</v>
-      </c>
-      <c r="J58" t="str">
-        <f>_xlfn.XLOOKUP([1]!AccountTbl[[#This Row],[AccountOwnerSeq]],[1]!OwnerTbl[SystemUserSeq],[1]!OwnerTbl[Owner],"")</f>
-        <v>Renee Lo</v>
-      </c>
-    </row>
-    <row r="59" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="I58" t="s">
+        <v>20</v>
+      </c>
+      <c r="J58" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="59" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B59"/>
       <c r="C59"/>
       <c r="D59" s="4" t="s">
@@ -2809,16 +2713,14 @@
       <c r="H59" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="I59" t="str">
-        <f>_xlfn.XLOOKUP([1]!AccountTbl[[#This Row],[IndustrySeq]],[1]!IndustryTbl[IndustrySeq],[1]!IndustryTbl[Industry])</f>
-        <v>Outbound Consumer Service</v>
-      </c>
-      <c r="J59" t="str">
-        <f>_xlfn.XLOOKUP([1]!AccountTbl[[#This Row],[AccountOwnerSeq]],[1]!OwnerTbl[SystemUserSeq],[1]!OwnerTbl[Owner],"")</f>
-        <v>Sven Mortensen</v>
-      </c>
-    </row>
-    <row r="60" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="I59" t="s">
+        <v>48</v>
+      </c>
+      <c r="J59" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="60" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B60"/>
       <c r="C60"/>
       <c r="D60" s="3" t="s">
@@ -2836,16 +2738,14 @@
       <c r="H60" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="I60" t="str">
-        <f>_xlfn.XLOOKUP([1]!AccountTbl[[#This Row],[IndustrySeq]],[1]!IndustryTbl[IndustrySeq],[1]!IndustryTbl[Industry])</f>
-        <v>Doctor's Offices and Clinics</v>
-      </c>
-      <c r="J60" t="str">
-        <f>_xlfn.XLOOKUP([1]!AccountTbl[[#This Row],[AccountOwnerSeq]],[1]!OwnerTbl[SystemUserSeq],[1]!OwnerTbl[Owner],"")</f>
-        <v>Spencer Low</v>
-      </c>
-    </row>
-    <row r="61" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="I60" t="s">
+        <v>37</v>
+      </c>
+      <c r="J60" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="61" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B61"/>
       <c r="C61"/>
       <c r="D61" s="4" t="s">
@@ -2863,16 +2763,14 @@
       <c r="H61" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="I61" t="str">
-        <f>_xlfn.XLOOKUP([1]!AccountTbl[[#This Row],[IndustrySeq]],[1]!IndustryTbl[IndustrySeq],[1]!IndustryTbl[Industry])</f>
-        <v>Inbound Capital Intensive Processing</v>
-      </c>
-      <c r="J61" t="str">
-        <f>_xlfn.XLOOKUP([1]!AccountTbl[[#This Row],[AccountOwnerSeq]],[1]!OwnerTbl[SystemUserSeq],[1]!OwnerTbl[Owner],"")</f>
-        <v>Alicia Thomber</v>
-      </c>
-    </row>
-    <row r="62" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="I61" t="s">
+        <v>43</v>
+      </c>
+      <c r="J61" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="62" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B62"/>
       <c r="C62"/>
       <c r="D62" s="3" t="s">
@@ -2890,16 +2788,14 @@
       <c r="H62" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="I62" t="str">
-        <f>_xlfn.XLOOKUP([1]!AccountTbl[[#This Row],[IndustrySeq]],[1]!IndustryTbl[IndustrySeq],[1]!IndustryTbl[Industry])</f>
-        <v>Entertainment Retail</v>
-      </c>
-      <c r="J62" t="str">
-        <f>_xlfn.XLOOKUP([1]!AccountTbl[[#This Row],[AccountOwnerSeq]],[1]!OwnerTbl[SystemUserSeq],[1]!OwnerTbl[Owner],"")</f>
-        <v>Christa Geller</v>
-      </c>
-    </row>
-    <row r="63" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="I62" t="s">
+        <v>40</v>
+      </c>
+      <c r="J62" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="63" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B63"/>
       <c r="C63"/>
       <c r="D63" s="4" t="s">
@@ -2917,16 +2813,14 @@
       <c r="H63" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="I63" t="str">
-        <f>_xlfn.XLOOKUP([1]!AccountTbl[[#This Row],[IndustrySeq]],[1]!IndustryTbl[IndustrySeq],[1]!IndustryTbl[Industry])</f>
-        <v>Non-Durable Merchandise Retail</v>
-      </c>
-      <c r="J63" t="str">
-        <f>_xlfn.XLOOKUP([1]!AccountTbl[[#This Row],[AccountOwnerSeq]],[1]!OwnerTbl[SystemUserSeq],[1]!OwnerTbl[Owner],"")</f>
-        <v>Molly Clark</v>
-      </c>
-    </row>
-    <row r="64" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="I63" t="s">
+        <v>47</v>
+      </c>
+      <c r="J63" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="64" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B64"/>
       <c r="C64"/>
       <c r="D64" s="3" t="s">
@@ -2944,16 +2838,14 @@
       <c r="H64" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="I64" t="str">
-        <f>_xlfn.XLOOKUP([1]!AccountTbl[[#This Row],[IndustrySeq]],[1]!IndustryTbl[IndustrySeq],[1]!IndustryTbl[Industry])</f>
-        <v>Consumer Services</v>
-      </c>
-      <c r="J64" t="str">
-        <f>_xlfn.XLOOKUP([1]!AccountTbl[[#This Row],[AccountOwnerSeq]],[1]!OwnerTbl[SystemUserSeq],[1]!OwnerTbl[Owner],"")</f>
-        <v>Renee Lo</v>
-      </c>
-    </row>
-    <row r="65" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="I64" t="s">
+        <v>34</v>
+      </c>
+      <c r="J64" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="65" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B65"/>
       <c r="C65"/>
       <c r="D65" s="4" t="s">
@@ -2971,16 +2863,14 @@
       <c r="H65" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="I65" t="str">
-        <f>_xlfn.XLOOKUP([1]!AccountTbl[[#This Row],[IndustrySeq]],[1]!IndustryTbl[IndustrySeq],[1]!IndustryTbl[Industry])</f>
-        <v>Outbound Consumer Service</v>
-      </c>
-      <c r="J65" t="str">
-        <f>_xlfn.XLOOKUP([1]!AccountTbl[[#This Row],[AccountOwnerSeq]],[1]!OwnerTbl[SystemUserSeq],[1]!OwnerTbl[Owner],"")</f>
-        <v>Molly Clark</v>
-      </c>
-    </row>
-    <row r="66" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="I65" t="s">
+        <v>48</v>
+      </c>
+      <c r="J65" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="66" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B66"/>
       <c r="C66"/>
       <c r="D66" s="3" t="s">
@@ -2998,16 +2888,14 @@
       <c r="H66" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="I66" t="str">
-        <f>_xlfn.XLOOKUP([1]!AccountTbl[[#This Row],[IndustrySeq]],[1]!IndustryTbl[IndustrySeq],[1]!IndustryTbl[Industry])</f>
-        <v>Inbound Repair and Services</v>
-      </c>
-      <c r="J66" t="str">
-        <f>_xlfn.XLOOKUP([1]!AccountTbl[[#This Row],[AccountOwnerSeq]],[1]!OwnerTbl[SystemUserSeq],[1]!OwnerTbl[Owner],"")</f>
-        <v>Jeff Hay</v>
-      </c>
-    </row>
-    <row r="67" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="I66" t="s">
+        <v>44</v>
+      </c>
+      <c r="J66" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="67" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B67"/>
       <c r="C67"/>
       <c r="D67" s="4" t="s">
@@ -3025,16 +2913,14 @@
       <c r="H67" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="I67" t="str">
-        <f>_xlfn.XLOOKUP([1]!AccountTbl[[#This Row],[IndustrySeq]],[1]!IndustryTbl[IndustrySeq],[1]!IndustryTbl[Industry])</f>
-        <v>Legal Services</v>
-      </c>
-      <c r="J67" t="str">
-        <f>_xlfn.XLOOKUP([1]!AccountTbl[[#This Row],[AccountOwnerSeq]],[1]!OwnerTbl[SystemUserSeq],[1]!OwnerTbl[Owner],"")</f>
-        <v>Jamie Reding</v>
-      </c>
-    </row>
-    <row r="68" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="I67" t="s">
+        <v>46</v>
+      </c>
+      <c r="J67" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="68" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B68"/>
       <c r="C68"/>
       <c r="D68" s="3" t="s">
@@ -3052,16 +2938,14 @@
       <c r="H68" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="I68" t="str">
-        <f>_xlfn.XLOOKUP([1]!AccountTbl[[#This Row],[IndustrySeq]],[1]!IndustryTbl[IndustrySeq],[1]!IndustryTbl[Industry])</f>
-        <v>Design, Direction and Creative Management</v>
-      </c>
-      <c r="J68" t="str">
-        <f>_xlfn.XLOOKUP([1]!AccountTbl[[#This Row],[AccountOwnerSeq]],[1]!OwnerTbl[SystemUserSeq],[1]!OwnerTbl[Owner],"")</f>
-        <v>Spencer Low</v>
-      </c>
-    </row>
-    <row r="69" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="I68" t="s">
+        <v>35</v>
+      </c>
+      <c r="J68" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="69" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B69"/>
       <c r="C69"/>
       <c r="D69" s="4" t="s">
@@ -3079,16 +2963,14 @@
       <c r="H69" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="I69" t="str">
-        <f>_xlfn.XLOOKUP([1]!AccountTbl[[#This Row],[IndustrySeq]],[1]!IndustryTbl[IndustrySeq],[1]!IndustryTbl[Industry])</f>
-        <v>Consumer Services</v>
-      </c>
-      <c r="J69" t="str">
-        <f>_xlfn.XLOOKUP([1]!AccountTbl[[#This Row],[AccountOwnerSeq]],[1]!OwnerTbl[SystemUserSeq],[1]!OwnerTbl[Owner],"")</f>
-        <v>Anne Weiler</v>
-      </c>
-    </row>
-    <row r="70" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="I69" t="s">
+        <v>34</v>
+      </c>
+      <c r="J69" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="70" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B70"/>
       <c r="C70"/>
       <c r="D70" s="3" t="s">
@@ -3106,16 +2988,14 @@
       <c r="H70" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="I70" t="str">
-        <f>_xlfn.XLOOKUP([1]!AccountTbl[[#This Row],[IndustrySeq]],[1]!IndustryTbl[IndustrySeq],[1]!IndustryTbl[Industry])</f>
-        <v>Inbound Repair and Services</v>
-      </c>
-      <c r="J70" t="str">
-        <f>_xlfn.XLOOKUP([1]!AccountTbl[[#This Row],[AccountOwnerSeq]],[1]!OwnerTbl[SystemUserSeq],[1]!OwnerTbl[Owner],"")</f>
-        <v>Alicia Thomber</v>
-      </c>
-    </row>
-    <row r="71" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="I70" t="s">
+        <v>44</v>
+      </c>
+      <c r="J70" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="71" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B71"/>
       <c r="C71"/>
       <c r="D71" s="4" t="s">
@@ -3133,16 +3013,14 @@
       <c r="H71" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="I71" t="str">
-        <f>_xlfn.XLOOKUP([1]!AccountTbl[[#This Row],[IndustrySeq]],[1]!IndustryTbl[IndustrySeq],[1]!IndustryTbl[Industry])</f>
-        <v>Outbound Consumer Service</v>
-      </c>
-      <c r="J71" t="str">
-        <f>_xlfn.XLOOKUP([1]!AccountTbl[[#This Row],[AccountOwnerSeq]],[1]!OwnerTbl[SystemUserSeq],[1]!OwnerTbl[Owner],"")</f>
-        <v>Jamie Reding</v>
-      </c>
-    </row>
-    <row r="72" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="I71" t="s">
+        <v>48</v>
+      </c>
+      <c r="J71" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="72" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B72"/>
       <c r="C72"/>
       <c r="D72" s="3" t="s">
@@ -3160,16 +3038,14 @@
       <c r="H72" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="I72" t="str">
-        <f>_xlfn.XLOOKUP([1]!AccountTbl[[#This Row],[IndustrySeq]],[1]!IndustryTbl[IndustrySeq],[1]!IndustryTbl[Industry])</f>
-        <v>Consulting</v>
-      </c>
-      <c r="J72" t="str">
-        <f>_xlfn.XLOOKUP([1]!AccountTbl[[#This Row],[AccountOwnerSeq]],[1]!OwnerTbl[SystemUserSeq],[1]!OwnerTbl[Owner],"")</f>
-        <v>Allie Bellew</v>
-      </c>
-    </row>
-    <row r="73" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="I72" t="s">
+        <v>20</v>
+      </c>
+      <c r="J72" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="73" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B73"/>
       <c r="C73"/>
       <c r="D73" s="4" t="s">
@@ -3187,16 +3063,14 @@
       <c r="H73" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="I73" t="str">
-        <f>_xlfn.XLOOKUP([1]!AccountTbl[[#This Row],[IndustrySeq]],[1]!IndustryTbl[IndustrySeq],[1]!IndustryTbl[Industry])</f>
-        <v>Distributors, Dispatchers and Processors</v>
-      </c>
-      <c r="J73" t="str">
-        <f>_xlfn.XLOOKUP([1]!AccountTbl[[#This Row],[AccountOwnerSeq]],[1]!OwnerTbl[SystemUserSeq],[1]!OwnerTbl[Owner],"")</f>
-        <v>Spencer Low</v>
-      </c>
-    </row>
-    <row r="74" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="I73" t="s">
+        <v>36</v>
+      </c>
+      <c r="J73" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="74" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B74"/>
       <c r="C74"/>
       <c r="D74" s="3" t="s">
@@ -3214,16 +3088,14 @@
       <c r="H74" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="I74" t="str">
-        <f>_xlfn.XLOOKUP([1]!AccountTbl[[#This Row],[IndustrySeq]],[1]!IndustryTbl[IndustrySeq],[1]!IndustryTbl[Industry])</f>
-        <v>Accounting</v>
-      </c>
-      <c r="J74" t="str">
-        <f>_xlfn.XLOOKUP([1]!AccountTbl[[#This Row],[AccountOwnerSeq]],[1]!OwnerTbl[SystemUserSeq],[1]!OwnerTbl[Owner],"")</f>
-        <v>Jamie Reding</v>
-      </c>
-    </row>
-    <row r="75" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="I74" t="s">
+        <v>28</v>
+      </c>
+      <c r="J74" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="75" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B75"/>
       <c r="C75"/>
       <c r="D75" s="4" t="s">
@@ -3241,16 +3113,14 @@
       <c r="H75" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="I75" t="str">
-        <f>_xlfn.XLOOKUP([1]!AccountTbl[[#This Row],[IndustrySeq]],[1]!IndustryTbl[IndustrySeq],[1]!IndustryTbl[Industry])</f>
-        <v>Durable Manufacturing</v>
-      </c>
-      <c r="J75" t="str">
-        <f>_xlfn.XLOOKUP([1]!AccountTbl[[#This Row],[AccountOwnerSeq]],[1]!OwnerTbl[SystemUserSeq],[1]!OwnerTbl[Owner],"")</f>
-        <v>Anne Weiler</v>
-      </c>
-    </row>
-    <row r="76" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="I75" t="s">
+        <v>38</v>
+      </c>
+      <c r="J75" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="76" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B76"/>
       <c r="C76"/>
       <c r="D76" s="3" t="s">
@@ -3268,16 +3138,14 @@
       <c r="H76" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="I76" t="str">
-        <f>_xlfn.XLOOKUP([1]!AccountTbl[[#This Row],[IndustrySeq]],[1]!IndustryTbl[IndustrySeq],[1]!IndustryTbl[Industry])</f>
-        <v>Non-Durable Merchandise Retail</v>
-      </c>
-      <c r="J76" t="str">
-        <f>_xlfn.XLOOKUP([1]!AccountTbl[[#This Row],[AccountOwnerSeq]],[1]!OwnerTbl[SystemUserSeq],[1]!OwnerTbl[Owner],"")</f>
-        <v>Sanjay Shah</v>
-      </c>
-    </row>
-    <row r="77" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="I76" t="s">
+        <v>47</v>
+      </c>
+      <c r="J76" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="77" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B77"/>
       <c r="C77"/>
       <c r="D77" s="4" t="s">
@@ -3295,16 +3163,14 @@
       <c r="H77" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="I77" t="str">
-        <f>_xlfn.XLOOKUP([1]!AccountTbl[[#This Row],[IndustrySeq]],[1]!IndustryTbl[IndustrySeq],[1]!IndustryTbl[Industry])</f>
-        <v>Insurance</v>
-      </c>
-      <c r="J77" t="str">
-        <f>_xlfn.XLOOKUP([1]!AccountTbl[[#This Row],[AccountOwnerSeq]],[1]!OwnerTbl[SystemUserSeq],[1]!OwnerTbl[Owner],"")</f>
-        <v>Alicia Thomber</v>
-      </c>
-    </row>
-    <row r="78" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="I77" t="s">
+        <v>45</v>
+      </c>
+      <c r="J77" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="78" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B78"/>
       <c r="C78"/>
       <c r="D78" s="3" t="s">
@@ -3322,16 +3188,14 @@
       <c r="H78" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="I78" t="str">
-        <f>_xlfn.XLOOKUP([1]!AccountTbl[[#This Row],[IndustrySeq]],[1]!IndustryTbl[IndustrySeq],[1]!IndustryTbl[Industry])</f>
-        <v>Building Supply Retail</v>
-      </c>
-      <c r="J78" t="str">
-        <f>_xlfn.XLOOKUP([1]!AccountTbl[[#This Row],[AccountOwnerSeq]],[1]!OwnerTbl[SystemUserSeq],[1]!OwnerTbl[Owner],"")</f>
-        <v>Alicia Thomber</v>
-      </c>
-    </row>
-    <row r="79" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="I78" t="s">
+        <v>32</v>
+      </c>
+      <c r="J78" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="79" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B79"/>
       <c r="C79"/>
       <c r="D79" s="4" t="s">
@@ -3349,16 +3213,14 @@
       <c r="H79" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="I79" t="str">
-        <f>_xlfn.XLOOKUP([1]!AccountTbl[[#This Row],[IndustrySeq]],[1]!IndustryTbl[IndustrySeq],[1]!IndustryTbl[Industry])</f>
-        <v>Insurance</v>
-      </c>
-      <c r="J79" t="str">
-        <f>_xlfn.XLOOKUP([1]!AccountTbl[[#This Row],[AccountOwnerSeq]],[1]!OwnerTbl[SystemUserSeq],[1]!OwnerTbl[Owner],"")</f>
-        <v>Molly Clark</v>
-      </c>
-    </row>
-    <row r="80" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="I79" t="s">
+        <v>45</v>
+      </c>
+      <c r="J79" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="80" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B80"/>
       <c r="C80"/>
       <c r="D80" s="3" t="s">
@@ -3376,16 +3238,14 @@
       <c r="H80" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="I80" t="str">
-        <f>_xlfn.XLOOKUP([1]!AccountTbl[[#This Row],[IndustrySeq]],[1]!IndustryTbl[IndustrySeq],[1]!IndustryTbl[Industry])</f>
-        <v>Eating and Drinking Places</v>
-      </c>
-      <c r="J80" t="str">
-        <f>_xlfn.XLOOKUP([1]!AccountTbl[[#This Row],[AccountOwnerSeq]],[1]!OwnerTbl[SystemUserSeq],[1]!OwnerTbl[Owner],"")</f>
-        <v>Anne Weiler</v>
-      </c>
-    </row>
-    <row r="81" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="I80" t="s">
+        <v>39</v>
+      </c>
+      <c r="J80" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="81" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B81"/>
       <c r="C81"/>
       <c r="D81" s="4" t="s">
@@ -3403,13 +3263,11 @@
       <c r="H81" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="I81" t="str">
-        <f>_xlfn.XLOOKUP([1]!AccountTbl[[#This Row],[IndustrySeq]],[1]!IndustryTbl[IndustrySeq],[1]!IndustryTbl[Industry])</f>
-        <v>Outbound Consumer Service</v>
-      </c>
-      <c r="J81" t="str">
-        <f>_xlfn.XLOOKUP([1]!AccountTbl[[#This Row],[AccountOwnerSeq]],[1]!OwnerTbl[SystemUserSeq],[1]!OwnerTbl[Owner],"")</f>
-        <v>Alicia Thomber</v>
+      <c r="I81" t="s">
+        <v>48</v>
+      </c>
+      <c r="J81" t="s">
+        <v>233</v>
       </c>
     </row>
   </sheetData>
@@ -3455,14 +3313,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>28</v>
       </c>

--- a/Contoso - Sales - Current Release/Dataverse Data/3 🏭 Accounts for Import.xlsx
+++ b/Contoso - Sales - Current Release/Dataverse Data/3 🏭 Accounts for Import.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://microsoft-my.sharepoint.com/personal/misewell_microsoft_com/Documents/Documents/GitHub/ContosoBI/Contoso - Sales - Current Release/Dataverse Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="11_ADF37D841EA345F0FA330A5DCFB5940FC38FE545" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FDE90331-5881-40AC-B388-9019E3F6007C}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="11_ADF37D841EA345F0FA330A5DCFB5940FC38FE545" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3BF4E630-DD86-46D0-8695-0C2DF7BF404B}"/>
   <bookViews>
-    <workbookView xWindow="45465" yWindow="-945" windowWidth="34050" windowHeight="14175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="72255" yWindow="495" windowWidth="21510" windowHeight="26865" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="All Accounts - For Import" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2144" uniqueCount="563">
   <si>
     <t>(Do Not Modify) Account</t>
   </si>
@@ -690,6 +690,984 @@
     <t>Bridgewater</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
+    <t>Tailspin Toys - Atlanta</t>
+  </si>
+  <si>
+    <t>Alpine Ski House - Akron</t>
+  </si>
+  <si>
+    <t>Akron</t>
+  </si>
+  <si>
+    <t>Woodgrove Bank - Sacramento</t>
+  </si>
+  <si>
+    <t>Proseware, Inc. - Tampa</t>
+  </si>
+  <si>
+    <t>Wingtip Toys - Greensboro</t>
+  </si>
+  <si>
+    <t>Greensboro</t>
+  </si>
+  <si>
+    <t>Northwind Traders - Charleston</t>
+  </si>
+  <si>
+    <t>Charleston</t>
+  </si>
+  <si>
+    <t>Adatum Corporation - Charlottesville</t>
+  </si>
+  <si>
+    <t>Charlottesville</t>
+  </si>
+  <si>
+    <t>VA</t>
+  </si>
+  <si>
+    <t>Bellows College - Houston</t>
+  </si>
+  <si>
+    <t>Liberty's Delightful Sinful Bakery &amp; Cafe - Des Moines</t>
+  </si>
+  <si>
+    <t>Consolidated Messenger - Charleston</t>
+  </si>
+  <si>
+    <t>VanArsdel, Ltd. - Salt Lake City</t>
+  </si>
+  <si>
+    <t>Salt Lake City</t>
+  </si>
+  <si>
+    <t>UT</t>
+  </si>
+  <si>
+    <t>Munson's Pickles and Preserves Farm - Roanoke</t>
+  </si>
+  <si>
+    <t>Roanoke</t>
+  </si>
+  <si>
+    <t>Fabrikam, Inc. - Alhambra</t>
+  </si>
+  <si>
+    <t>Alhambra</t>
+  </si>
+  <si>
+    <t>VanArsdel, Ltd. - Detroit</t>
+  </si>
+  <si>
+    <t>Detroit</t>
+  </si>
+  <si>
+    <t>Adatum Corporation - Cincinnati</t>
+  </si>
+  <si>
+    <t>Nod Publishers - Maple Plain</t>
+  </si>
+  <si>
+    <t>Maple Plain</t>
+  </si>
+  <si>
+    <t>MN</t>
+  </si>
+  <si>
+    <t>Alpine Ski House - Cedar Rapids</t>
+  </si>
+  <si>
+    <t>Cedar Rapids</t>
+  </si>
+  <si>
+    <t>Nod Publishers - Huntsville</t>
+  </si>
+  <si>
+    <t>Lamna Healthcare Company - Hamilton</t>
+  </si>
+  <si>
+    <t>Hamilton</t>
+  </si>
+  <si>
+    <t>VT</t>
+  </si>
+  <si>
+    <t>Consolidated Messenger - Sparks</t>
+  </si>
+  <si>
+    <t>Sparks</t>
+  </si>
+  <si>
+    <t>School of Fine Art - Des Moines</t>
+  </si>
+  <si>
+    <t>Bellows College - Rochester</t>
+  </si>
+  <si>
+    <t>Lamna Healthcare Company - Los Angeles</t>
+  </si>
+  <si>
+    <t>Los Angeles</t>
+  </si>
+  <si>
+    <t>Contoso Suites - Philadelphia</t>
+  </si>
+  <si>
+    <t>Adatum Corporation - Maple Plain</t>
+  </si>
+  <si>
+    <t>First Up Consultants - Clearwater</t>
+  </si>
+  <si>
+    <t>Clearwater</t>
+  </si>
+  <si>
+    <t>Fabrikam, Inc. - Dallas</t>
+  </si>
+  <si>
+    <t>Dallas</t>
+  </si>
+  <si>
+    <t>The Phone Company - Lincoln</t>
+  </si>
+  <si>
+    <t>Lincoln</t>
+  </si>
+  <si>
+    <t>NE</t>
+  </si>
+  <si>
+    <t>Wide World Importers - Toledo</t>
+  </si>
+  <si>
+    <t>Toledo</t>
+  </si>
+  <si>
+    <t>Graphic Design Institute - Scranton</t>
+  </si>
+  <si>
+    <t>Scranton</t>
+  </si>
+  <si>
+    <t>Adatum Corporation - Lexington</t>
+  </si>
+  <si>
+    <t>Lexington</t>
+  </si>
+  <si>
+    <t>KY</t>
+  </si>
+  <si>
+    <t>Fabrikam, Inc. - Washington</t>
+  </si>
+  <si>
+    <t>Washington</t>
+  </si>
+  <si>
+    <t>DC</t>
+  </si>
+  <si>
+    <t>The Phone Company - Iowa City</t>
+  </si>
+  <si>
+    <t>Fabrikam Residences - Dallas</t>
+  </si>
+  <si>
+    <t>Northwind Traders - Sacramento</t>
+  </si>
+  <si>
+    <t>Northwind Traders - San Angelo</t>
+  </si>
+  <si>
+    <t>San Angelo</t>
+  </si>
+  <si>
+    <t>Humongous Insurance - Birmingham</t>
+  </si>
+  <si>
+    <t>Birmingham</t>
+  </si>
+  <si>
+    <t>Bellows College - Charlotte</t>
+  </si>
+  <si>
+    <t>Munson's Pickles and Preserves Farm - Evansville</t>
+  </si>
+  <si>
+    <t>Evansville</t>
+  </si>
+  <si>
+    <t>Bellows College - Columbus</t>
+  </si>
+  <si>
+    <t>Columbus</t>
+  </si>
+  <si>
+    <t>Adventure Works Cycles - Portland</t>
+  </si>
+  <si>
+    <t>Wide World Importers - Salt Lake City</t>
+  </si>
+  <si>
+    <t>Fourth Coffee - Charlotte</t>
+  </si>
+  <si>
+    <t>Humongous Insurance - Conroe</t>
+  </si>
+  <si>
+    <t>Woodgrove Bank - Little Rock</t>
+  </si>
+  <si>
+    <t>Little Rock</t>
+  </si>
+  <si>
+    <t>AR</t>
+  </si>
+  <si>
+    <t>Margie's Travel - Midland</t>
+  </si>
+  <si>
+    <t>Midland</t>
+  </si>
+  <si>
+    <t>Alpine Ski House - Fort Lauderdale</t>
+  </si>
+  <si>
+    <t>VanArsdel, Ltd. - Des Moines</t>
+  </si>
+  <si>
+    <t>Graphic Design Institute - Long Beach</t>
+  </si>
+  <si>
+    <t>Fourth Coffee - Durham</t>
+  </si>
+  <si>
+    <t>Durham</t>
+  </si>
+  <si>
+    <t>Proseware, Inc. - Huntsville</t>
+  </si>
+  <si>
+    <t>Lucerne Publishing - Wichita</t>
+  </si>
+  <si>
+    <t>Wichita</t>
+  </si>
+  <si>
+    <t>KS</t>
+  </si>
+  <si>
+    <t>Munson's Pickles and Preserves Farm - Savannah</t>
+  </si>
+  <si>
+    <t>Contoso Suites - New Orleans</t>
+  </si>
+  <si>
+    <t>New Orleans</t>
+  </si>
+  <si>
+    <t>VanArsdel, Ltd. - Portland</t>
+  </si>
+  <si>
+    <t>Contoso Pharmaceuticals - Albany</t>
+  </si>
+  <si>
+    <t>Fourth Coffee - Fort Lauderdale</t>
+  </si>
+  <si>
+    <t>Best For You Organics Company - New Orleans</t>
+  </si>
+  <si>
+    <t>Trey Research - Washington</t>
+  </si>
+  <si>
+    <t>Wide World Importers - San Jose</t>
+  </si>
+  <si>
+    <t>Fabrikam, Inc. - Colorado Springs</t>
+  </si>
+  <si>
+    <t>Colorado Springs</t>
+  </si>
+  <si>
+    <t>Northwind Traders - Springfield</t>
+  </si>
+  <si>
+    <t>Springfield</t>
+  </si>
+  <si>
+    <t>Northwind Traders - Duluth</t>
+  </si>
+  <si>
+    <t>Duluth</t>
+  </si>
+  <si>
+    <t>Contoso Pharmaceuticals - Scottsdale</t>
+  </si>
+  <si>
+    <t>Scottsdale</t>
+  </si>
+  <si>
+    <t>Liberty's Delightful Sinful Bakery &amp; Cafe - Beaverton</t>
+  </si>
+  <si>
+    <t>First Up Consultants - Cincinnati</t>
+  </si>
+  <si>
+    <t>Humongous Insurance - Fargo</t>
+  </si>
+  <si>
+    <t>Fabrikam Residences - Portland</t>
+  </si>
+  <si>
+    <t>Liberty's Delightful Sinful Bakery &amp; Cafe - Greensboro</t>
+  </si>
+  <si>
+    <t>Southridge Video - Paterson</t>
+  </si>
+  <si>
+    <t>Paterson</t>
+  </si>
+  <si>
+    <t>NJ</t>
+  </si>
+  <si>
+    <t>Tailspin Toys - Oklahoma City</t>
+  </si>
+  <si>
+    <t>Oklahoma City</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>Contoso Pharmaceuticals - Evansville</t>
+  </si>
+  <si>
+    <t>Wide World Importers - Corona</t>
+  </si>
+  <si>
+    <t>Corona</t>
+  </si>
+  <si>
+    <t>Liberty's Delightful Sinful Bakery &amp; Cafe - Midland</t>
+  </si>
+  <si>
+    <t>Relecloud - Provo</t>
+  </si>
+  <si>
+    <t>Provo</t>
+  </si>
+  <si>
+    <t>Consolidated Messenger - Bellevue</t>
+  </si>
+  <si>
+    <t>Bellevue</t>
+  </si>
+  <si>
+    <t>Trey Research - Lynn</t>
+  </si>
+  <si>
+    <t>Lynn</t>
+  </si>
+  <si>
+    <t>Alpine Ski House - Battle Creek</t>
+  </si>
+  <si>
+    <t>Fabrikam Residences - Charlotte</t>
+  </si>
+  <si>
+    <t>Lamna Healthcare Company - Sacramento</t>
+  </si>
+  <si>
+    <t>Contoso Pharmaceuticals - Atlanta</t>
+  </si>
+  <si>
+    <t>Best For You Organics Company - Kansas City</t>
+  </si>
+  <si>
+    <t>Kansas City</t>
+  </si>
+  <si>
+    <t>The Phone Company - Boise</t>
+  </si>
+  <si>
+    <t>Boise</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Nod Publishers - Shreveport</t>
+  </si>
+  <si>
+    <t>Fabrikam, Inc. - Henderson</t>
+  </si>
+  <si>
+    <t>Graphic Design Institute - Los Angeles</t>
+  </si>
+  <si>
+    <t>Woodgrove Bank - Dallas</t>
+  </si>
+  <si>
+    <t>Relecloud - Fargo</t>
+  </si>
+  <si>
+    <t>Humongous Insurance - Shreveport</t>
+  </si>
+  <si>
+    <t>Proseware, Inc. - Amarillo</t>
+  </si>
+  <si>
+    <t>Amarillo</t>
+  </si>
+  <si>
+    <t>Bellows College - Cedar Rapids</t>
+  </si>
+  <si>
+    <t>Relecloud - Portland</t>
+  </si>
+  <si>
+    <t>Trey Research - Arlington</t>
+  </si>
+  <si>
+    <t>Arlington</t>
+  </si>
+  <si>
+    <t>Bellows College - Fargo</t>
+  </si>
+  <si>
+    <t>Lamna Healthcare Company - El Paso</t>
+  </si>
+  <si>
+    <t>Trey Research - Vancouver</t>
+  </si>
+  <si>
+    <t>Lamna Healthcare Company - Hicksville</t>
+  </si>
+  <si>
+    <t>Graphic Design Institute - Sioux City</t>
+  </si>
+  <si>
+    <t>Sioux City</t>
+  </si>
+  <si>
+    <t>Southridge Video - Henderson</t>
+  </si>
+  <si>
+    <t>Adventure Works Cycles - Florence, SC</t>
+  </si>
+  <si>
+    <t>Wingtip Toys - Portland</t>
+  </si>
+  <si>
+    <t>Consolidated Messenger - Columbia</t>
+  </si>
+  <si>
+    <t>Columbia</t>
+  </si>
+  <si>
+    <t>Fabrikam Residences - Asheville</t>
+  </si>
+  <si>
+    <t>Asheville</t>
+  </si>
+  <si>
+    <t>VanArsdel, Ltd. - Fort Worth</t>
+  </si>
+  <si>
+    <t>Fort Worth</t>
+  </si>
+  <si>
+    <t>Tailspin Toys - New York City</t>
+  </si>
+  <si>
+    <t>The Phone Company - Washington</t>
+  </si>
+  <si>
+    <t>Contoso Suites - Olympia</t>
+  </si>
+  <si>
+    <t>Olympia</t>
+  </si>
+  <si>
+    <t>Adatum Corporation - Richmond</t>
+  </si>
+  <si>
+    <t>Richmond</t>
+  </si>
+  <si>
+    <t>Adatum Corporation - Louisville</t>
+  </si>
+  <si>
+    <t>Louisville</t>
+  </si>
+  <si>
+    <t>Margie's Travel - Miami</t>
+  </si>
+  <si>
+    <t>School of Fine Art - Columbus</t>
+  </si>
+  <si>
+    <t>Bellows College - Nashville</t>
+  </si>
+  <si>
+    <t>Nashville</t>
+  </si>
+  <si>
+    <t>First Up Consultants - Jacksonville</t>
+  </si>
+  <si>
+    <t>The Phone Company - Pasadena</t>
+  </si>
+  <si>
+    <t>Pasadena</t>
+  </si>
+  <si>
+    <t>Best For You Organics Company - Newark</t>
+  </si>
+  <si>
+    <t>Newark</t>
+  </si>
+  <si>
+    <t>Munson's Pickles and Preserves Farm - Columbus</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>Graphic Design Institute - Mountain View</t>
+  </si>
+  <si>
+    <t>Mountain View</t>
+  </si>
+  <si>
+    <t>School of Fine Art - San Angelo</t>
+  </si>
+  <si>
+    <t>Lamna Healthcare Company - Concord</t>
+  </si>
+  <si>
+    <t>Concord</t>
+  </si>
+  <si>
+    <t>Trey Research - Chattanooga</t>
+  </si>
+  <si>
+    <t>Proseware, Inc. - Salt Lake City</t>
+  </si>
+  <si>
+    <t>First Up Consultants - Baltimore</t>
+  </si>
+  <si>
+    <t>Baltimore</t>
+  </si>
+  <si>
+    <t>Wide World Importers - Jacksonville</t>
+  </si>
+  <si>
+    <t>Proseware, Inc. - Pittsburgh</t>
+  </si>
+  <si>
+    <t>Contoso, Ltd. - New Brunswick</t>
+  </si>
+  <si>
+    <t>New Brunswick</t>
+  </si>
+  <si>
+    <t>Relecloud - Baton Rouge</t>
+  </si>
+  <si>
+    <t>Baton Rouge</t>
+  </si>
+  <si>
+    <t>Margie's Travel - Lees Summit</t>
+  </si>
+  <si>
+    <t>School of Fine Art - Philadelphia</t>
+  </si>
+  <si>
+    <t>Nod Publishers - Charlotte</t>
+  </si>
+  <si>
+    <t>Adatum Corporation - San Jose</t>
+  </si>
+  <si>
+    <t>Best For You Organics Company - Memphis</t>
+  </si>
+  <si>
+    <t>Memphis</t>
+  </si>
+  <si>
+    <t>Fourth Coffee - Norfolk</t>
+  </si>
+  <si>
+    <t>Norfolk</t>
+  </si>
+  <si>
+    <t>Nod Publishers - Detroit</t>
+  </si>
+  <si>
+    <t>Woodgrove Bank - Milwaukee</t>
+  </si>
+  <si>
+    <t>Adventure Works Cycles - Atlanta</t>
+  </si>
+  <si>
+    <t>Alpine Ski House - Van Nuys</t>
+  </si>
+  <si>
+    <t>Van Nuys</t>
+  </si>
+  <si>
+    <t>Contoso Suites - Erie</t>
+  </si>
+  <si>
+    <t>Erie</t>
+  </si>
+  <si>
+    <t>Alpine Ski House - Santa Monica</t>
+  </si>
+  <si>
+    <t>Contoso, Ltd. - Charlotte</t>
+  </si>
+  <si>
+    <t>Wide World Importers - Columbus</t>
+  </si>
+  <si>
+    <t>Woodgrove Bank - Des Moines</t>
+  </si>
+  <si>
+    <t>Nod Publishers - Fort Worth</t>
+  </si>
+  <si>
+    <t>Tailspin Toys - Lafayette</t>
+  </si>
+  <si>
+    <t>Lafayette</t>
+  </si>
+  <si>
+    <t>Wide World Importers - Boston</t>
+  </si>
+  <si>
+    <t>Humongous Insurance - Washington</t>
+  </si>
+  <si>
+    <t>Fabrikam Residences - Washington</t>
+  </si>
+  <si>
+    <t>Best For You Organics Company - Louisville</t>
+  </si>
+  <si>
+    <t>Adventure Works Cycles - Cedar Rapids</t>
+  </si>
+  <si>
+    <t>Munson's Pickles and Preserves Farm - New Orleans</t>
+  </si>
+  <si>
+    <t>Contoso, Ltd. - Las Vegas</t>
+  </si>
+  <si>
+    <t>Las Vegas</t>
+  </si>
+  <si>
+    <t>Alpine Ski House - Syracuse</t>
+  </si>
+  <si>
+    <t>Relecloud - Greensboro</t>
+  </si>
+  <si>
+    <t>Fabrikam, Inc. - Mesa</t>
+  </si>
+  <si>
+    <t>Mesa</t>
+  </si>
+  <si>
+    <t>Contoso Pharmaceuticals - Naples</t>
+  </si>
+  <si>
+    <t>Contoso Pharmaceuticals - North Little Rock</t>
+  </si>
+  <si>
+    <t>North Little Rock</t>
+  </si>
+  <si>
+    <t>The Phone Company - New York City</t>
+  </si>
+  <si>
+    <t>Trey Research - Oklahoma City</t>
+  </si>
+  <si>
+    <t>Fabrikam Residences - Hollywood</t>
+  </si>
+  <si>
+    <t>Hollywood</t>
+  </si>
+  <si>
+    <t>First Up Consultants - Port Saint Lucie</t>
+  </si>
+  <si>
+    <t>Port Saint Lucie</t>
+  </si>
+  <si>
+    <t>Liberty's Delightful Sinful Bakery &amp; Cafe - Little Rock</t>
+  </si>
+  <si>
+    <t>Northwind Traders - Garden Grove</t>
+  </si>
+  <si>
+    <t>Garden Grove</t>
+  </si>
+  <si>
+    <t>Contoso, Ltd. - Kansas City</t>
+  </si>
+  <si>
+    <t>Woodgrove Bank - Billings</t>
+  </si>
+  <si>
+    <t>Billings</t>
+  </si>
+  <si>
+    <t>MT</t>
+  </si>
+  <si>
+    <t>Fabrikam Residences - Detroit</t>
+  </si>
+  <si>
+    <t>Contoso Pharmaceuticals - Washington</t>
+  </si>
+  <si>
+    <t>Lucerne Publishing - Phoenix</t>
+  </si>
+  <si>
+    <t>Fabrikam Residences - Salt Lake City</t>
+  </si>
+  <si>
+    <t>Lucerne Publishing - Trenton</t>
+  </si>
+  <si>
+    <t>Trenton</t>
+  </si>
+  <si>
+    <t>Margie's Travel - Chicago</t>
+  </si>
+  <si>
+    <t>Wingtip Toys - Charlotte</t>
+  </si>
+  <si>
+    <t>Graphic Design Institute - New York City</t>
+  </si>
+  <si>
+    <t>Wingtip Toys - San Antonio</t>
+  </si>
+  <si>
+    <t>First Up Consultants - Beaumont</t>
+  </si>
+  <si>
+    <t>Beaumont</t>
+  </si>
+  <si>
+    <t>Munson's Pickles and Preserves Farm - Austin</t>
+  </si>
+  <si>
+    <t>The Phone Company - Lexington</t>
+  </si>
+  <si>
+    <t>Alpine Ski House - Pittsburgh</t>
+  </si>
+  <si>
+    <t>Tailspin Toys - San Antonio</t>
+  </si>
+  <si>
+    <t>School of Fine Art - Young America</t>
+  </si>
+  <si>
+    <t>Young America</t>
+  </si>
+  <si>
+    <t>Lucerne Publishing - Petaluma</t>
+  </si>
+  <si>
+    <t>Petaluma</t>
+  </si>
+  <si>
+    <t>Munson's Pickles and Preserves Farm - Flushing</t>
+  </si>
+  <si>
+    <t>Flushing</t>
+  </si>
+  <si>
+    <t>Graphic Design Institute - Boca Raton</t>
+  </si>
+  <si>
+    <t>Boca Raton</t>
+  </si>
+  <si>
+    <t>School of Fine Art - Austin</t>
+  </si>
+  <si>
+    <t>Margie's Travel - Rochester</t>
+  </si>
+  <si>
+    <t>Lamna Healthcare Company - Brooklyn</t>
+  </si>
+  <si>
+    <t>Brooklyn</t>
+  </si>
+  <si>
+    <t>Consolidated Messenger - Palatine</t>
+  </si>
+  <si>
+    <t>Palatine</t>
+  </si>
+  <si>
+    <t>Proseware, Inc. - Denver</t>
+  </si>
+  <si>
+    <t>VanArsdel, Ltd. - Largo</t>
+  </si>
+  <si>
+    <t>Bellows College - Cheyenne</t>
+  </si>
+  <si>
+    <t>Cheyenne</t>
+  </si>
+  <si>
+    <t>WY</t>
+  </si>
+  <si>
+    <t>Best For You Organics Company - El Paso</t>
+  </si>
+  <si>
+    <t>Liberty's Delightful Sinful Bakery &amp; Cafe - Gary</t>
+  </si>
+  <si>
+    <t>Alpine Ski House - Jacksonville</t>
+  </si>
+  <si>
+    <t>Wingtip Toys - Santa Cruz</t>
+  </si>
+  <si>
+    <t>Santa Cruz</t>
+  </si>
+  <si>
+    <t>School of Fine Art - Knoxville</t>
+  </si>
+  <si>
+    <t>Knoxville</t>
+  </si>
+  <si>
+    <t>School of Fine Art - San Rafael</t>
+  </si>
+  <si>
+    <t>San Rafael</t>
+  </si>
+  <si>
+    <t>Lamna Healthcare Company - Pierre</t>
+  </si>
+  <si>
+    <t>Lamna Healthcare Company - Washington</t>
+  </si>
+  <si>
+    <t>Adatum Corporation - Austin</t>
+  </si>
+  <si>
+    <t>Proseware, Inc. - Great Neck</t>
+  </si>
+  <si>
+    <t>Great Neck</t>
+  </si>
+  <si>
+    <t>Proseware, Inc. - Minneapolis</t>
+  </si>
+  <si>
+    <t>Minneapolis</t>
+  </si>
+  <si>
+    <t>Trey Research - Las Vegas</t>
+  </si>
+  <si>
+    <t>Adventure Works Cycles - Chicago</t>
+  </si>
+  <si>
+    <t>Nod Publishers - Champaign</t>
+  </si>
+  <si>
+    <t>Champaign</t>
+  </si>
+  <si>
+    <t>Relecloud - Bradenton</t>
+  </si>
+  <si>
+    <t>Bradenton</t>
+  </si>
+  <si>
+    <t>Wingtip Toys - Dayton</t>
+  </si>
+  <si>
+    <t>Dayton</t>
+  </si>
+  <si>
+    <t>Wingtip Toys - Farmington</t>
+  </si>
+  <si>
+    <t>Farmington</t>
+  </si>
+  <si>
+    <t>Adventure Works Cycles - Fargo</t>
+  </si>
+  <si>
+    <t>Margie's Travel - Garden Grove</t>
+  </si>
+  <si>
+    <t>Adventure Works Cycles - Florence, AL</t>
+  </si>
+  <si>
+    <t>Southridge Video - El Paso</t>
+  </si>
+  <si>
+    <t>Contoso, Ltd. - New Orleans</t>
+  </si>
+  <si>
+    <t>Trey Research - Tampa</t>
+  </si>
+  <si>
+    <t>Fourth Coffee - Nashville</t>
+  </si>
+  <si>
+    <t>Contoso, Ltd. - Fort Worth</t>
+  </si>
+  <si>
+    <t>Lucerne Publishing - Des Moines</t>
+  </si>
+  <si>
+    <t>Adventure Works Cycles - Huntington</t>
+  </si>
+  <si>
+    <t>Fourth Coffee - Saint Joseph</t>
+  </si>
+  <si>
+    <t>Saint Joseph</t>
+  </si>
+  <si>
+    <t>Liberty's Delightful Sinful Bakery &amp; Cafe - Beaufort</t>
+  </si>
+  <si>
+    <t>Beaufort</t>
+  </si>
+  <si>
+    <t>Consolidated Messenger - New York City</t>
+  </si>
+  <si>
+    <t>Relecloud - Midland</t>
+  </si>
+  <si>
+    <t>Humongous Insurance - Denver</t>
+  </si>
+  <si>
     <t>Allie Bellew</t>
   </si>
   <si>
@@ -697,9 +1675,6 @@
   </si>
   <si>
     <t>David So</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>Amy Alberts</t>
@@ -754,30 +1729,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD9E1F2"/>
-        <bgColor rgb="FFD9E1F2"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -792,12 +1755,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -902,8 +1863,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:J81" totalsRowShown="0">
-  <autoFilter ref="A1:J81" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:J301" totalsRowShown="0">
+  <autoFilter ref="A1:J301" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J81">
     <sortCondition ref="D1:D81"/>
   </sortState>
@@ -1221,10 +2182,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="dataSheet"/>
-  <dimension ref="A1:J81"/>
+  <dimension ref="A1:J301"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1273,2019 +2234,7519 @@
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B2"/>
       <c r="C2"/>
-      <c r="D2" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>68</v>
+      <c r="D2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" t="s">
+        <v>61</v>
       </c>
       <c r="I2" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="J2" t="s">
-        <v>222</v>
+        <v>544</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B3"/>
       <c r="C3"/>
-      <c r="D3" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>65</v>
+      <c r="D3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" t="s">
+        <v>61</v>
       </c>
       <c r="I3" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="J3" t="s">
-        <v>218</v>
+        <v>545</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B4"/>
       <c r="C4"/>
-      <c r="D4" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>68</v>
+      <c r="D4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" t="s">
+        <v>65</v>
       </c>
       <c r="I4" t="s">
-        <v>30</v>
+        <v>218</v>
       </c>
       <c r="J4" t="s">
-        <v>224</v>
+        <v>546</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B5"/>
       <c r="C5"/>
-      <c r="D5" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>59</v>
+      <c r="D5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" t="s">
+        <v>68</v>
       </c>
       <c r="I5" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="J5" t="s">
-        <v>218</v>
+        <v>547</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B6"/>
       <c r="C6"/>
-      <c r="D6" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>61</v>
+      <c r="D6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" t="s">
+        <v>65</v>
       </c>
       <c r="I6" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="J6" t="s">
-        <v>219</v>
+        <v>548</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B7"/>
       <c r="C7"/>
-      <c r="D7" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>61</v>
+      <c r="D7" t="s">
+        <v>72</v>
+      </c>
+      <c r="E7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" t="s">
+        <v>68</v>
       </c>
       <c r="I7" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="J7" t="s">
-        <v>219</v>
+        <v>546</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B8"/>
       <c r="C8"/>
-      <c r="D8" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>61</v>
+      <c r="D8" t="s">
+        <v>75</v>
+      </c>
+      <c r="E8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" t="s">
+        <v>65</v>
       </c>
       <c r="I8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J8" t="s">
-        <v>227</v>
+        <v>549</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B9"/>
       <c r="C9"/>
-      <c r="D9" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>68</v>
+      <c r="D9" t="s">
+        <v>77</v>
+      </c>
+      <c r="E9" t="s">
+        <v>73</v>
+      </c>
+      <c r="F9" t="s">
+        <v>78</v>
+      </c>
+      <c r="G9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" t="s">
+        <v>61</v>
       </c>
       <c r="I9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J9" t="s">
-        <v>222</v>
+        <v>550</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B10"/>
       <c r="C10"/>
-      <c r="D10" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H10" s="3" t="s">
+      <c r="D10" t="s">
+        <v>79</v>
+      </c>
+      <c r="E10" t="s">
+        <v>80</v>
+      </c>
+      <c r="F10" t="s">
+        <v>81</v>
+      </c>
+      <c r="G10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" t="s">
         <v>68</v>
       </c>
       <c r="I10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="J10" t="s">
-        <v>223</v>
+        <v>547</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B11"/>
       <c r="C11"/>
-      <c r="D11" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H11" s="4" t="s">
+      <c r="D11" t="s">
+        <v>82</v>
+      </c>
+      <c r="E11" t="s">
+        <v>83</v>
+      </c>
+      <c r="F11" t="s">
+        <v>84</v>
+      </c>
+      <c r="G11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11" t="s">
         <v>59</v>
       </c>
       <c r="I11" t="s">
-        <v>221</v>
+        <v>20</v>
       </c>
       <c r="J11" t="s">
-        <v>228</v>
+        <v>551</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B12"/>
       <c r="C12"/>
-      <c r="D12" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>65</v>
+      <c r="D12" t="s">
+        <v>85</v>
+      </c>
+      <c r="E12" t="s">
+        <v>86</v>
+      </c>
+      <c r="F12" t="s">
+        <v>81</v>
+      </c>
+      <c r="G12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H12" t="s">
+        <v>68</v>
       </c>
       <c r="I12" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="J12" t="s">
-        <v>220</v>
+        <v>547</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B13"/>
       <c r="C13"/>
-      <c r="D13" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>59</v>
+      <c r="D13" t="s">
+        <v>87</v>
+      </c>
+      <c r="E13" t="s">
+        <v>88</v>
+      </c>
+      <c r="F13" t="s">
+        <v>89</v>
+      </c>
+      <c r="G13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H13" t="s">
+        <v>65</v>
       </c>
       <c r="I13" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="J13" t="s">
-        <v>226</v>
+        <v>544</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B14"/>
       <c r="C14"/>
-      <c r="D14" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H14" s="3" t="s">
+      <c r="D14" t="s">
+        <v>90</v>
+      </c>
+      <c r="E14" t="s">
+        <v>91</v>
+      </c>
+      <c r="F14" t="s">
+        <v>92</v>
+      </c>
+      <c r="G14" t="s">
+        <v>10</v>
+      </c>
+      <c r="H14" t="s">
         <v>68</v>
       </c>
       <c r="I14" t="s">
-        <v>221</v>
+        <v>45</v>
       </c>
       <c r="J14" t="s">
-        <v>222</v>
+        <v>549</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B15"/>
       <c r="C15"/>
-      <c r="D15" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>68</v>
+      <c r="D15" t="s">
+        <v>93</v>
+      </c>
+      <c r="E15" t="s">
+        <v>94</v>
+      </c>
+      <c r="F15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15" t="s">
+        <v>61</v>
       </c>
       <c r="I15" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="J15" t="s">
-        <v>222</v>
+        <v>545</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B16"/>
       <c r="C16"/>
-      <c r="D16" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>65</v>
+      <c r="D16" t="s">
+        <v>95</v>
+      </c>
+      <c r="E16" t="s">
+        <v>96</v>
+      </c>
+      <c r="F16" t="s">
+        <v>97</v>
+      </c>
+      <c r="G16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H16" t="s">
+        <v>61</v>
       </c>
       <c r="I16" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="J16" t="s">
-        <v>223</v>
+        <v>552</v>
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B17"/>
       <c r="C17"/>
-      <c r="D17" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>65</v>
+      <c r="D17" t="s">
+        <v>98</v>
+      </c>
+      <c r="E17" t="s">
+        <v>99</v>
+      </c>
+      <c r="F17" t="s">
+        <v>100</v>
+      </c>
+      <c r="G17" t="s">
+        <v>10</v>
+      </c>
+      <c r="H17" t="s">
+        <v>68</v>
       </c>
       <c r="I17" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="J17" t="s">
-        <v>224</v>
+        <v>547</v>
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B18"/>
       <c r="C18"/>
-      <c r="D18" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>59</v>
+      <c r="D18" t="s">
+        <v>101</v>
+      </c>
+      <c r="E18" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" t="s">
+        <v>92</v>
+      </c>
+      <c r="G18" t="s">
+        <v>10</v>
+      </c>
+      <c r="H18" t="s">
+        <v>68</v>
       </c>
       <c r="I18" t="s">
-        <v>41</v>
+        <v>218</v>
       </c>
       <c r="J18" t="s">
-        <v>225</v>
+        <v>548</v>
       </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B19"/>
       <c r="C19"/>
-      <c r="D19" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>61</v>
+      <c r="D19" t="s">
+        <v>102</v>
+      </c>
+      <c r="E19" t="s">
+        <v>103</v>
+      </c>
+      <c r="F19" t="s">
+        <v>104</v>
+      </c>
+      <c r="G19" t="s">
+        <v>10</v>
+      </c>
+      <c r="H19" t="s">
+        <v>59</v>
       </c>
       <c r="I19" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="J19" t="s">
-        <v>229</v>
+        <v>553</v>
       </c>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B20"/>
       <c r="C20"/>
-      <c r="D20" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H20" s="3" t="s">
+      <c r="D20" t="s">
+        <v>105</v>
+      </c>
+      <c r="E20" t="s">
+        <v>106</v>
+      </c>
+      <c r="F20" t="s">
+        <v>107</v>
+      </c>
+      <c r="G20" t="s">
+        <v>10</v>
+      </c>
+      <c r="H20" t="s">
         <v>59</v>
       </c>
       <c r="I20" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="J20" t="s">
-        <v>228</v>
+        <v>551</v>
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B21"/>
       <c r="C21"/>
-      <c r="D21" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H21" s="4" t="s">
-        <v>61</v>
+      <c r="D21" t="s">
+        <v>108</v>
+      </c>
+      <c r="E21" t="s">
+        <v>109</v>
+      </c>
+      <c r="F21" t="s">
+        <v>110</v>
+      </c>
+      <c r="G21" t="s">
+        <v>10</v>
+      </c>
+      <c r="H21" t="s">
+        <v>68</v>
       </c>
       <c r="I21" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="J21" t="s">
-        <v>229</v>
+        <v>547</v>
       </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B22"/>
       <c r="C22"/>
-      <c r="D22" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H22" s="3" t="s">
+      <c r="D22" t="s">
+        <v>111</v>
+      </c>
+      <c r="E22" t="s">
+        <v>112</v>
+      </c>
+      <c r="F22" t="s">
+        <v>113</v>
+      </c>
+      <c r="G22" t="s">
+        <v>10</v>
+      </c>
+      <c r="H22" t="s">
         <v>65</v>
       </c>
       <c r="I22" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="J22" t="s">
-        <v>230</v>
+        <v>549</v>
       </c>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B23"/>
       <c r="C23"/>
-      <c r="D23" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H23" s="4" t="s">
-        <v>68</v>
+      <c r="D23" t="s">
+        <v>114</v>
+      </c>
+      <c r="E23" t="s">
+        <v>115</v>
+      </c>
+      <c r="F23" t="s">
+        <v>116</v>
+      </c>
+      <c r="G23" t="s">
+        <v>10</v>
+      </c>
+      <c r="H23" t="s">
+        <v>59</v>
       </c>
       <c r="I23" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="J23" t="s">
-        <v>220</v>
+        <v>550</v>
       </c>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B24"/>
       <c r="C24"/>
-      <c r="D24" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>65</v>
+      <c r="D24" t="s">
+        <v>117</v>
+      </c>
+      <c r="E24" t="s">
+        <v>118</v>
+      </c>
+      <c r="F24" t="s">
+        <v>78</v>
+      </c>
+      <c r="G24" t="s">
+        <v>10</v>
+      </c>
+      <c r="H24" t="s">
+        <v>61</v>
       </c>
       <c r="I24" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="J24" t="s">
-        <v>223</v>
+        <v>554</v>
       </c>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B25"/>
       <c r="C25"/>
-      <c r="D25" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H25" s="4" t="s">
-        <v>65</v>
+      <c r="D25" t="s">
+        <v>119</v>
+      </c>
+      <c r="E25" t="s">
+        <v>120</v>
+      </c>
+      <c r="F25" t="s">
+        <v>104</v>
+      </c>
+      <c r="G25" t="s">
+        <v>10</v>
+      </c>
+      <c r="H25" t="s">
+        <v>59</v>
       </c>
       <c r="I25" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="J25" t="s">
-        <v>223</v>
+        <v>553</v>
       </c>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B26"/>
       <c r="C26"/>
-      <c r="D26" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>59</v>
+      <c r="D26" t="s">
+        <v>121</v>
+      </c>
+      <c r="E26" t="s">
+        <v>73</v>
+      </c>
+      <c r="F26" t="s">
+        <v>78</v>
+      </c>
+      <c r="G26" t="s">
+        <v>10</v>
+      </c>
+      <c r="H26" t="s">
+        <v>61</v>
       </c>
       <c r="I26" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J26" t="s">
-        <v>226</v>
+        <v>554</v>
       </c>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B27"/>
       <c r="C27"/>
-      <c r="D27" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="G27" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H27" s="4" t="s">
-        <v>59</v>
+      <c r="D27" t="s">
+        <v>122</v>
+      </c>
+      <c r="E27" t="s">
+        <v>123</v>
+      </c>
+      <c r="F27" t="s">
+        <v>124</v>
+      </c>
+      <c r="G27" t="s">
+        <v>10</v>
+      </c>
+      <c r="H27" t="s">
+        <v>65</v>
       </c>
       <c r="I27" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="J27" t="s">
-        <v>226</v>
+        <v>555</v>
       </c>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B28"/>
       <c r="C28"/>
-      <c r="D28" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H28" s="3" t="s">
-        <v>61</v>
+      <c r="D28" t="s">
+        <v>125</v>
+      </c>
+      <c r="E28" t="s">
+        <v>126</v>
+      </c>
+      <c r="F28" t="s">
+        <v>71</v>
+      </c>
+      <c r="G28" t="s">
+        <v>10</v>
+      </c>
+      <c r="H28" t="s">
+        <v>65</v>
       </c>
       <c r="I28" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="J28" t="s">
-        <v>225</v>
+        <v>548</v>
       </c>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B29"/>
       <c r="C29"/>
-      <c r="D29" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="G29" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H29" s="4" t="s">
+      <c r="D29" t="s">
+        <v>127</v>
+      </c>
+      <c r="E29" t="s">
+        <v>128</v>
+      </c>
+      <c r="F29" t="s">
+        <v>71</v>
+      </c>
+      <c r="G29" t="s">
+        <v>10</v>
+      </c>
+      <c r="H29" t="s">
         <v>65</v>
       </c>
       <c r="I29" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="J29" t="s">
-        <v>231</v>
+        <v>548</v>
       </c>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B30"/>
       <c r="C30"/>
-      <c r="D30" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H30" s="3" t="s">
-        <v>65</v>
+      <c r="D30" t="s">
+        <v>129</v>
+      </c>
+      <c r="E30" t="s">
+        <v>130</v>
+      </c>
+      <c r="F30" t="s">
+        <v>131</v>
+      </c>
+      <c r="G30" t="s">
+        <v>10</v>
+      </c>
+      <c r="H30" t="s">
+        <v>59</v>
       </c>
       <c r="I30" t="s">
-        <v>221</v>
+        <v>34</v>
       </c>
       <c r="J30" t="s">
-        <v>231</v>
+        <v>551</v>
       </c>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B31"/>
       <c r="C31"/>
-      <c r="D31" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="G31" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H31" s="4" t="s">
-        <v>65</v>
+      <c r="D31" t="s">
+        <v>132</v>
+      </c>
+      <c r="E31" t="s">
+        <v>18</v>
+      </c>
+      <c r="F31" t="s">
+        <v>133</v>
+      </c>
+      <c r="G31" t="s">
+        <v>10</v>
+      </c>
+      <c r="H31" t="s">
+        <v>59</v>
       </c>
       <c r="I31" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="J31" t="s">
-        <v>223</v>
+        <v>551</v>
       </c>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B32"/>
       <c r="C32"/>
-      <c r="D32" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H32" s="3" t="s">
+      <c r="D32" t="s">
+        <v>134</v>
+      </c>
+      <c r="E32" t="s">
+        <v>12</v>
+      </c>
+      <c r="F32" t="s">
+        <v>13</v>
+      </c>
+      <c r="G32" t="s">
+        <v>10</v>
+      </c>
+      <c r="H32" t="s">
         <v>61</v>
       </c>
       <c r="I32" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J32" t="s">
-        <v>232</v>
+        <v>550</v>
       </c>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B33"/>
       <c r="C33"/>
-      <c r="D33" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="G33" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H33" s="4" t="s">
+      <c r="D33" t="s">
+        <v>135</v>
+      </c>
+      <c r="E33" t="s">
+        <v>136</v>
+      </c>
+      <c r="F33" t="s">
+        <v>76</v>
+      </c>
+      <c r="G33" t="s">
+        <v>10</v>
+      </c>
+      <c r="H33" t="s">
         <v>65</v>
       </c>
       <c r="I33" t="s">
-        <v>40</v>
+        <v>218</v>
       </c>
       <c r="J33" t="s">
-        <v>220</v>
+        <v>556</v>
       </c>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B34"/>
       <c r="C34"/>
-      <c r="D34" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="G34" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H34" s="3" t="s">
+      <c r="D34" t="s">
+        <v>137</v>
+      </c>
+      <c r="E34" t="s">
+        <v>138</v>
+      </c>
+      <c r="F34" t="s">
+        <v>76</v>
+      </c>
+      <c r="G34" t="s">
+        <v>10</v>
+      </c>
+      <c r="H34" t="s">
         <v>65</v>
       </c>
       <c r="I34" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="J34" t="s">
-        <v>230</v>
+        <v>556</v>
       </c>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B35"/>
       <c r="C35"/>
-      <c r="D35" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="G35" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H35" s="4" t="s">
-        <v>59</v>
+      <c r="D35" t="s">
+        <v>139</v>
+      </c>
+      <c r="E35" t="s">
+        <v>140</v>
+      </c>
+      <c r="F35" t="s">
+        <v>71</v>
+      </c>
+      <c r="G35" t="s">
+        <v>10</v>
+      </c>
+      <c r="H35" t="s">
+        <v>65</v>
       </c>
       <c r="I35" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="J35" t="s">
-        <v>228</v>
+        <v>548</v>
       </c>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B36"/>
       <c r="C36"/>
-      <c r="D36" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="F36" s="3" t="s">
+      <c r="D36" t="s">
+        <v>141</v>
+      </c>
+      <c r="E36" t="s">
+        <v>142</v>
+      </c>
+      <c r="F36" t="s">
         <v>143</v>
       </c>
-      <c r="G36" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H36" s="3" t="s">
+      <c r="G36" t="s">
+        <v>10</v>
+      </c>
+      <c r="H36" t="s">
         <v>61</v>
       </c>
       <c r="I36" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="J36" t="s">
-        <v>232</v>
+        <v>557</v>
       </c>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B37"/>
       <c r="C37"/>
-      <c r="D37" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="F37" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="G37" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H37" s="4" t="s">
+      <c r="D37" t="s">
+        <v>144</v>
+      </c>
+      <c r="E37" t="s">
+        <v>145</v>
+      </c>
+      <c r="F37" t="s">
+        <v>64</v>
+      </c>
+      <c r="G37" t="s">
+        <v>10</v>
+      </c>
+      <c r="H37" t="s">
         <v>65</v>
       </c>
       <c r="I37" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="J37" t="s">
-        <v>231</v>
+        <v>546</v>
       </c>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B38"/>
       <c r="C38"/>
-      <c r="D38" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="G38" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H38" s="3" t="s">
-        <v>59</v>
+      <c r="D38" t="s">
+        <v>146</v>
+      </c>
+      <c r="E38" t="s">
+        <v>123</v>
+      </c>
+      <c r="F38" t="s">
+        <v>147</v>
+      </c>
+      <c r="G38" t="s">
+        <v>10</v>
+      </c>
+      <c r="H38" t="s">
+        <v>65</v>
       </c>
       <c r="I38" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="J38" t="s">
-        <v>226</v>
+        <v>555</v>
       </c>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B39"/>
       <c r="C39"/>
-      <c r="D39" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F39" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="G39" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H39" s="4" t="s">
-        <v>65</v>
+      <c r="D39" t="s">
+        <v>148</v>
+      </c>
+      <c r="E39" t="s">
+        <v>103</v>
+      </c>
+      <c r="F39" t="s">
+        <v>104</v>
+      </c>
+      <c r="G39" t="s">
+        <v>10</v>
+      </c>
+      <c r="H39" t="s">
+        <v>59</v>
       </c>
       <c r="I39" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="J39" t="s">
-        <v>224</v>
+        <v>553</v>
       </c>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B40"/>
       <c r="C40"/>
-      <c r="D40" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="G40" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H40" s="3" t="s">
-        <v>68</v>
+      <c r="D40" t="s">
+        <v>149</v>
+      </c>
+      <c r="E40" t="s">
+        <v>150</v>
+      </c>
+      <c r="F40" t="s">
+        <v>143</v>
+      </c>
+      <c r="G40" t="s">
+        <v>10</v>
+      </c>
+      <c r="H40" t="s">
+        <v>61</v>
       </c>
       <c r="I40" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J40" t="s">
-        <v>233</v>
+        <v>557</v>
       </c>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B41"/>
       <c r="C41"/>
-      <c r="D41" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="E41" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="F41" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="G41" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H41" s="4" t="s">
-        <v>61</v>
+      <c r="D41" t="s">
+        <v>151</v>
+      </c>
+      <c r="E41" t="s">
+        <v>70</v>
+      </c>
+      <c r="F41" t="s">
+        <v>71</v>
+      </c>
+      <c r="G41" t="s">
+        <v>10</v>
+      </c>
+      <c r="H41" t="s">
+        <v>65</v>
       </c>
       <c r="I41" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="J41" t="s">
-        <v>234</v>
+        <v>556</v>
       </c>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B42"/>
       <c r="C42"/>
-      <c r="D42" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H42" s="3" t="s">
+      <c r="D42" t="s">
+        <v>152</v>
+      </c>
+      <c r="E42" t="s">
+        <v>153</v>
+      </c>
+      <c r="F42" t="s">
+        <v>131</v>
+      </c>
+      <c r="G42" t="s">
+        <v>10</v>
+      </c>
+      <c r="H42" t="s">
         <v>59</v>
       </c>
       <c r="I42" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="J42" t="s">
-        <v>218</v>
+        <v>551</v>
       </c>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B43"/>
       <c r="C43"/>
-      <c r="D43" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="E43" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="F43" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="G43" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H43" s="4" t="s">
-        <v>61</v>
+      <c r="D43" t="s">
+        <v>154</v>
+      </c>
+      <c r="E43" t="s">
+        <v>86</v>
+      </c>
+      <c r="F43" t="s">
+        <v>81</v>
+      </c>
+      <c r="G43" t="s">
+        <v>10</v>
+      </c>
+      <c r="H43" t="s">
+        <v>68</v>
       </c>
       <c r="I43" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="J43" t="s">
-        <v>225</v>
+        <v>558</v>
       </c>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B44"/>
       <c r="C44"/>
-      <c r="D44" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>68</v>
+      <c r="D44" t="s">
+        <v>155</v>
+      </c>
+      <c r="E44" t="s">
+        <v>156</v>
+      </c>
+      <c r="F44" t="s">
+        <v>143</v>
+      </c>
+      <c r="G44" t="s">
+        <v>10</v>
+      </c>
+      <c r="H44" t="s">
+        <v>61</v>
       </c>
       <c r="I44" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="J44" t="s">
-        <v>222</v>
+        <v>559</v>
       </c>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B45"/>
       <c r="C45"/>
-      <c r="D45" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="E45" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="F45" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="G45" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H45" s="4" t="s">
-        <v>61</v>
+      <c r="D45" t="s">
+        <v>157</v>
+      </c>
+      <c r="E45" t="s">
+        <v>158</v>
+      </c>
+      <c r="F45" t="s">
+        <v>159</v>
+      </c>
+      <c r="G45" t="s">
+        <v>10</v>
+      </c>
+      <c r="H45" t="s">
+        <v>59</v>
       </c>
       <c r="I45" t="s">
         <v>47</v>
       </c>
       <c r="J45" t="s">
-        <v>234</v>
+        <v>544</v>
       </c>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B46"/>
       <c r="C46"/>
-      <c r="D46" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>59</v>
+      <c r="D46" t="s">
+        <v>160</v>
+      </c>
+      <c r="E46" t="s">
+        <v>161</v>
+      </c>
+      <c r="F46" t="s">
+        <v>143</v>
+      </c>
+      <c r="G46" t="s">
+        <v>10</v>
+      </c>
+      <c r="H46" t="s">
+        <v>61</v>
       </c>
       <c r="I46" t="s">
         <v>30</v>
       </c>
       <c r="J46" t="s">
-        <v>228</v>
+        <v>559</v>
       </c>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B47"/>
       <c r="C47"/>
-      <c r="D47" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="E47" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="F47" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="G47" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H47" s="4" t="s">
-        <v>68</v>
+      <c r="D47" t="s">
+        <v>162</v>
+      </c>
+      <c r="E47" t="s">
+        <v>103</v>
+      </c>
+      <c r="F47" t="s">
+        <v>104</v>
+      </c>
+      <c r="G47" t="s">
+        <v>10</v>
+      </c>
+      <c r="H47" t="s">
+        <v>59</v>
       </c>
       <c r="I47" t="s">
         <v>30</v>
       </c>
       <c r="J47" t="s">
-        <v>222</v>
+        <v>553</v>
       </c>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B48"/>
       <c r="C48"/>
-      <c r="D48" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>61</v>
+      <c r="D48" t="s">
+        <v>163</v>
+      </c>
+      <c r="E48" t="s">
+        <v>109</v>
+      </c>
+      <c r="F48" t="s">
+        <v>110</v>
+      </c>
+      <c r="G48" t="s">
+        <v>10</v>
+      </c>
+      <c r="H48" t="s">
+        <v>68</v>
       </c>
       <c r="I48" t="s">
         <v>46</v>
       </c>
       <c r="J48" t="s">
-        <v>235</v>
+        <v>547</v>
       </c>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B49"/>
       <c r="C49"/>
-      <c r="D49" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="E49" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="F49" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="G49" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H49" s="4" t="s">
-        <v>65</v>
+      <c r="D49" t="s">
+        <v>164</v>
+      </c>
+      <c r="E49" t="s">
+        <v>118</v>
+      </c>
+      <c r="F49" t="s">
+        <v>78</v>
+      </c>
+      <c r="G49" t="s">
+        <v>10</v>
+      </c>
+      <c r="H49" t="s">
+        <v>61</v>
       </c>
       <c r="I49" t="s">
         <v>31</v>
       </c>
       <c r="J49" t="s">
-        <v>224</v>
+        <v>560</v>
       </c>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B50"/>
       <c r="C50"/>
-      <c r="D50" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="E50" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="F50" s="3" t="s">
+      <c r="D50" t="s">
+        <v>165</v>
+      </c>
+      <c r="E50" t="s">
+        <v>166</v>
+      </c>
+      <c r="F50" t="s">
         <v>76</v>
       </c>
-      <c r="G50" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H50" s="3" t="s">
+      <c r="G50" t="s">
+        <v>10</v>
+      </c>
+      <c r="H50" t="s">
         <v>65</v>
       </c>
       <c r="I50" t="s">
         <v>33</v>
       </c>
       <c r="J50" t="s">
-        <v>236</v>
+        <v>549</v>
       </c>
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B51"/>
       <c r="C51"/>
-      <c r="D51" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="E51" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="F51" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="G51" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H51" s="4" t="s">
-        <v>68</v>
+      <c r="D51" t="s">
+        <v>167</v>
+      </c>
+      <c r="E51" t="s">
+        <v>168</v>
+      </c>
+      <c r="F51" t="s">
+        <v>76</v>
+      </c>
+      <c r="G51" t="s">
+        <v>10</v>
+      </c>
+      <c r="H51" t="s">
+        <v>65</v>
       </c>
       <c r="I51" t="s">
         <v>22</v>
       </c>
       <c r="J51" t="s">
-        <v>233</v>
+        <v>561</v>
       </c>
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B52"/>
       <c r="C52"/>
-      <c r="D52" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>59</v>
+      <c r="D52" t="s">
+        <v>169</v>
+      </c>
+      <c r="E52" t="s">
+        <v>170</v>
+      </c>
+      <c r="F52" t="s">
+        <v>81</v>
+      </c>
+      <c r="G52" t="s">
+        <v>10</v>
+      </c>
+      <c r="H52" t="s">
+        <v>68</v>
       </c>
       <c r="I52" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J52" t="s">
-        <v>226</v>
+        <v>558</v>
       </c>
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B53"/>
       <c r="C53"/>
-      <c r="D53" s="4" t="s">
+      <c r="D53" t="s">
         <v>14</v>
       </c>
-      <c r="E53" s="4" t="s">
+      <c r="E53" t="s">
         <v>171</v>
       </c>
-      <c r="F53" s="4" t="s">
+      <c r="F53" t="s">
         <v>172</v>
       </c>
-      <c r="G53" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H53" s="4" t="s">
+      <c r="G53" t="s">
+        <v>10</v>
+      </c>
+      <c r="H53" t="s">
         <v>59</v>
       </c>
       <c r="I53" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="J53" t="s">
-        <v>225</v>
+        <v>550</v>
       </c>
     </row>
     <row r="54" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B54"/>
       <c r="C54"/>
-      <c r="D54" s="3" t="s">
+      <c r="D54" t="s">
         <v>173</v>
       </c>
-      <c r="E54" s="3" t="s">
+      <c r="E54" t="s">
         <v>174</v>
       </c>
-      <c r="F54" s="3" t="s">
+      <c r="F54" t="s">
         <v>159</v>
       </c>
-      <c r="G54" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H54" s="3" t="s">
+      <c r="G54" t="s">
+        <v>10</v>
+      </c>
+      <c r="H54" t="s">
         <v>59</v>
       </c>
       <c r="I54" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="J54" t="s">
-        <v>218</v>
+        <v>544</v>
       </c>
     </row>
     <row r="55" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B55"/>
       <c r="C55"/>
-      <c r="D55" s="4" t="s">
+      <c r="D55" t="s">
         <v>175</v>
       </c>
-      <c r="E55" s="4" t="s">
+      <c r="E55" t="s">
         <v>176</v>
       </c>
-      <c r="F55" s="4" t="s">
+      <c r="F55" t="s">
         <v>124</v>
       </c>
-      <c r="G55" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H55" s="4" t="s">
+      <c r="G55" t="s">
+        <v>10</v>
+      </c>
+      <c r="H55" t="s">
         <v>65</v>
       </c>
       <c r="I55" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="J55" t="s">
-        <v>230</v>
+        <v>555</v>
       </c>
     </row>
     <row r="56" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B56"/>
       <c r="C56"/>
-      <c r="D56" s="3" t="s">
+      <c r="D56" t="s">
         <v>177</v>
       </c>
-      <c r="E56" s="3" t="s">
+      <c r="E56" t="s">
         <v>91</v>
       </c>
-      <c r="F56" s="3" t="s">
+      <c r="F56" t="s">
         <v>92</v>
       </c>
-      <c r="G56" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H56" s="3" t="s">
+      <c r="G56" t="s">
+        <v>10</v>
+      </c>
+      <c r="H56" t="s">
         <v>68</v>
       </c>
       <c r="I56" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="J56" t="s">
-        <v>233</v>
+        <v>558</v>
       </c>
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B57"/>
       <c r="C57"/>
-      <c r="D57" s="4" t="s">
+      <c r="D57" t="s">
         <v>178</v>
       </c>
-      <c r="E57" s="4" t="s">
+      <c r="E57" t="s">
         <v>18</v>
       </c>
-      <c r="F57" s="4" t="s">
+      <c r="F57" t="s">
         <v>133</v>
       </c>
-      <c r="G57" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H57" s="4" t="s">
+      <c r="G57" t="s">
+        <v>10</v>
+      </c>
+      <c r="H57" t="s">
         <v>59</v>
       </c>
       <c r="I57" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="J57" t="s">
-        <v>226</v>
+        <v>551</v>
       </c>
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B58"/>
       <c r="C58"/>
-      <c r="D58" s="3" t="s">
+      <c r="D58" t="s">
         <v>179</v>
       </c>
-      <c r="E58" s="3" t="s">
+      <c r="E58" t="s">
         <v>112</v>
       </c>
-      <c r="F58" s="3" t="s">
+      <c r="F58" t="s">
         <v>113</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H58" s="3" t="s">
+      <c r="G58" t="s">
+        <v>10</v>
+      </c>
+      <c r="H58" t="s">
         <v>65</v>
       </c>
       <c r="I58" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="J58" t="s">
-        <v>236</v>
+        <v>561</v>
       </c>
     </row>
     <row r="59" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B59"/>
       <c r="C59"/>
-      <c r="D59" s="4" t="s">
+      <c r="D59" t="s">
         <v>180</v>
       </c>
-      <c r="E59" s="4" t="s">
+      <c r="E59" t="s">
         <v>142</v>
       </c>
-      <c r="F59" s="4" t="s">
+      <c r="F59" t="s">
         <v>143</v>
       </c>
-      <c r="G59" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H59" s="4" t="s">
+      <c r="G59" t="s">
+        <v>10</v>
+      </c>
+      <c r="H59" t="s">
         <v>61</v>
       </c>
       <c r="I59" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="J59" t="s">
-        <v>234</v>
+        <v>559</v>
       </c>
     </row>
     <row r="60" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B60"/>
       <c r="C60"/>
-      <c r="D60" s="3" t="s">
+      <c r="D60" t="s">
         <v>24</v>
       </c>
-      <c r="E60" s="3" t="s">
+      <c r="E60" t="s">
         <v>181</v>
       </c>
-      <c r="F60" s="3" t="s">
+      <c r="F60" t="s">
         <v>182</v>
       </c>
-      <c r="G60" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H60" s="3" t="s">
+      <c r="G60" t="s">
+        <v>10</v>
+      </c>
+      <c r="H60" t="s">
         <v>65</v>
       </c>
       <c r="I60" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="J60" t="s">
-        <v>237</v>
+        <v>562</v>
       </c>
     </row>
     <row r="61" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B61"/>
       <c r="C61"/>
-      <c r="D61" s="4" t="s">
+      <c r="D61" t="s">
         <v>183</v>
       </c>
-      <c r="E61" s="4" t="s">
+      <c r="E61" t="s">
         <v>184</v>
       </c>
-      <c r="F61" s="4" t="s">
+      <c r="F61" t="s">
         <v>81</v>
       </c>
-      <c r="G61" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H61" s="4" t="s">
+      <c r="G61" t="s">
+        <v>10</v>
+      </c>
+      <c r="H61" t="s">
         <v>68</v>
       </c>
       <c r="I61" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="J61" t="s">
-        <v>233</v>
+        <v>558</v>
       </c>
     </row>
     <row r="62" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B62"/>
       <c r="C62"/>
-      <c r="D62" s="3" t="s">
+      <c r="D62" t="s">
         <v>185</v>
       </c>
-      <c r="E62" s="3" t="s">
+      <c r="E62" t="s">
         <v>186</v>
       </c>
-      <c r="F62" s="3" t="s">
+      <c r="F62" t="s">
         <v>187</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H62" s="3" t="s">
+      <c r="G62" t="s">
+        <v>10</v>
+      </c>
+      <c r="H62" t="s">
         <v>59</v>
       </c>
       <c r="I62" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="J62" t="s">
-        <v>225</v>
+        <v>550</v>
       </c>
     </row>
     <row r="63" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B63"/>
       <c r="C63"/>
-      <c r="D63" s="4" t="s">
+      <c r="D63" t="s">
         <v>188</v>
       </c>
-      <c r="E63" s="4" t="s">
+      <c r="E63" t="s">
         <v>73</v>
       </c>
-      <c r="F63" s="4" t="s">
+      <c r="F63" t="s">
         <v>78</v>
       </c>
-      <c r="G63" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H63" s="4" t="s">
+      <c r="G63" t="s">
+        <v>10</v>
+      </c>
+      <c r="H63" t="s">
         <v>61</v>
       </c>
       <c r="I63" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="J63" t="s">
-        <v>235</v>
+        <v>560</v>
       </c>
     </row>
     <row r="64" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B64"/>
       <c r="C64"/>
-      <c r="D64" s="3" t="s">
+      <c r="D64" t="s">
         <v>189</v>
       </c>
-      <c r="E64" s="3" t="s">
+      <c r="E64" t="s">
         <v>112</v>
       </c>
-      <c r="F64" s="3" t="s">
+      <c r="F64" t="s">
         <v>113</v>
       </c>
-      <c r="G64" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H64" s="3" t="s">
+      <c r="G64" t="s">
+        <v>10</v>
+      </c>
+      <c r="H64" t="s">
         <v>65</v>
       </c>
       <c r="I64" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="J64" t="s">
-        <v>236</v>
+        <v>561</v>
       </c>
     </row>
     <row r="65" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B65"/>
       <c r="C65"/>
-      <c r="D65" s="4" t="s">
+      <c r="D65" t="s">
         <v>190</v>
       </c>
-      <c r="E65" s="4" t="s">
+      <c r="E65" t="s">
         <v>12</v>
       </c>
-      <c r="F65" s="4" t="s">
+      <c r="F65" t="s">
         <v>13</v>
       </c>
-      <c r="G65" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H65" s="4" t="s">
+      <c r="G65" t="s">
+        <v>10</v>
+      </c>
+      <c r="H65" t="s">
         <v>61</v>
       </c>
       <c r="I65" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="J65" t="s">
-        <v>235</v>
+        <v>560</v>
       </c>
     </row>
     <row r="66" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B66"/>
       <c r="C66"/>
-      <c r="D66" s="3" t="s">
+      <c r="D66" t="s">
         <v>191</v>
       </c>
-      <c r="E66" s="3" t="s">
+      <c r="E66" t="s">
         <v>73</v>
       </c>
-      <c r="F66" s="3" t="s">
+      <c r="F66" t="s">
         <v>78</v>
       </c>
-      <c r="G66" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H66" s="3" t="s">
+      <c r="G66" t="s">
+        <v>10</v>
+      </c>
+      <c r="H66" t="s">
         <v>61</v>
       </c>
       <c r="I66" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J66" t="s">
-        <v>229</v>
+        <v>554</v>
       </c>
     </row>
     <row r="67" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B67"/>
       <c r="C67"/>
-      <c r="D67" s="4" t="s">
+      <c r="D67" t="s">
         <v>192</v>
       </c>
-      <c r="E67" s="4" t="s">
+      <c r="E67" t="s">
         <v>193</v>
       </c>
-      <c r="F67" s="4" t="s">
+      <c r="F67" t="s">
         <v>71</v>
       </c>
-      <c r="G67" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H67" s="4" t="s">
+      <c r="G67" t="s">
+        <v>10</v>
+      </c>
+      <c r="H67" t="s">
         <v>65</v>
       </c>
       <c r="I67" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="J67" t="s">
-        <v>231</v>
+        <v>556</v>
       </c>
     </row>
     <row r="68" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B68"/>
       <c r="C68"/>
-      <c r="D68" s="3" t="s">
+      <c r="D68" t="s">
         <v>25</v>
       </c>
-      <c r="E68" s="3" t="s">
+      <c r="E68" t="s">
         <v>194</v>
       </c>
-      <c r="F68" s="3" t="s">
+      <c r="F68" t="s">
         <v>76</v>
       </c>
-      <c r="G68" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H68" s="3" t="s">
+      <c r="G68" t="s">
+        <v>10</v>
+      </c>
+      <c r="H68" t="s">
         <v>65</v>
       </c>
       <c r="I68" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J68" t="s">
-        <v>237</v>
+        <v>562</v>
       </c>
     </row>
     <row r="69" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B69"/>
       <c r="C69"/>
-      <c r="D69" s="4" t="s">
+      <c r="D69" t="s">
         <v>195</v>
       </c>
-      <c r="E69" s="4" t="s">
+      <c r="E69" t="s">
         <v>196</v>
       </c>
-      <c r="F69" s="4" t="s">
+      <c r="F69" t="s">
         <v>197</v>
       </c>
-      <c r="G69" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H69" s="4" t="s">
+      <c r="G69" t="s">
+        <v>10</v>
+      </c>
+      <c r="H69" t="s">
         <v>65</v>
       </c>
       <c r="I69" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="J69" t="s">
-        <v>226</v>
+        <v>551</v>
       </c>
     </row>
     <row r="70" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B70"/>
       <c r="C70"/>
-      <c r="D70" s="3" t="s">
+      <c r="D70" t="s">
         <v>198</v>
       </c>
-      <c r="E70" s="3" t="s">
+      <c r="E70" t="s">
         <v>86</v>
       </c>
-      <c r="F70" s="3" t="s">
+      <c r="F70" t="s">
         <v>81</v>
       </c>
-      <c r="G70" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H70" s="3" t="s">
+      <c r="G70" t="s">
+        <v>10</v>
+      </c>
+      <c r="H70" t="s">
         <v>68</v>
       </c>
       <c r="I70" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="J70" t="s">
-        <v>233</v>
+        <v>558</v>
       </c>
     </row>
     <row r="71" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B71"/>
       <c r="C71"/>
-      <c r="D71" s="4" t="s">
+      <c r="D71" t="s">
         <v>199</v>
       </c>
-      <c r="E71" s="4" t="s">
+      <c r="E71" t="s">
         <v>128</v>
       </c>
-      <c r="F71" s="4" t="s">
+      <c r="F71" t="s">
         <v>71</v>
       </c>
-      <c r="G71" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H71" s="4" t="s">
+      <c r="G71" t="s">
+        <v>10</v>
+      </c>
+      <c r="H71" t="s">
         <v>65</v>
       </c>
       <c r="I71" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="J71" t="s">
-        <v>231</v>
+        <v>556</v>
       </c>
     </row>
     <row r="72" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B72"/>
       <c r="C72"/>
-      <c r="D72" s="3" t="s">
+      <c r="D72" t="s">
         <v>11</v>
       </c>
-      <c r="E72" s="3" t="s">
+      <c r="E72" t="s">
         <v>200</v>
       </c>
-      <c r="F72" s="3" t="s">
+      <c r="F72" t="s">
         <v>159</v>
       </c>
-      <c r="G72" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H72" s="3" t="s">
+      <c r="G72" t="s">
+        <v>10</v>
+      </c>
+      <c r="H72" t="s">
         <v>59</v>
       </c>
       <c r="I72" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="J72" t="s">
-        <v>218</v>
+        <v>544</v>
       </c>
     </row>
     <row r="73" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B73"/>
       <c r="C73"/>
-      <c r="D73" s="4" t="s">
+      <c r="D73" t="s">
         <v>201</v>
       </c>
-      <c r="E73" s="4" t="s">
+      <c r="E73" t="s">
         <v>202</v>
       </c>
-      <c r="F73" s="4" t="s">
+      <c r="F73" t="s">
         <v>113</v>
       </c>
-      <c r="G73" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H73" s="4" t="s">
+      <c r="G73" t="s">
+        <v>10</v>
+      </c>
+      <c r="H73" t="s">
         <v>65</v>
       </c>
       <c r="I73" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="J73" t="s">
-        <v>237</v>
+        <v>562</v>
       </c>
     </row>
     <row r="74" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B74"/>
       <c r="C74"/>
-      <c r="D74" s="3" t="s">
+      <c r="D74" t="s">
         <v>203</v>
       </c>
-      <c r="E74" s="3" t="s">
+      <c r="E74" t="s">
         <v>204</v>
       </c>
-      <c r="F74" s="3" t="s">
+      <c r="F74" t="s">
         <v>71</v>
       </c>
-      <c r="G74" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H74" s="3" t="s">
+      <c r="G74" t="s">
+        <v>10</v>
+      </c>
+      <c r="H74" t="s">
         <v>65</v>
       </c>
       <c r="I74" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="J74" t="s">
-        <v>231</v>
+        <v>556</v>
       </c>
     </row>
     <row r="75" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B75"/>
       <c r="C75"/>
-      <c r="D75" s="4" t="s">
+      <c r="D75" t="s">
         <v>205</v>
       </c>
-      <c r="E75" s="4" t="s">
+      <c r="E75" t="s">
         <v>73</v>
       </c>
-      <c r="F75" s="4" t="s">
+      <c r="F75" t="s">
         <v>78</v>
       </c>
-      <c r="G75" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H75" s="4" t="s">
+      <c r="G75" t="s">
+        <v>10</v>
+      </c>
+      <c r="H75" t="s">
         <v>61</v>
       </c>
       <c r="I75" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="J75" t="s">
-        <v>226</v>
+        <v>551</v>
       </c>
     </row>
     <row r="76" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B76"/>
       <c r="C76"/>
-      <c r="D76" s="3" t="s">
+      <c r="D76" t="s">
         <v>206</v>
       </c>
-      <c r="E76" s="3" t="s">
+      <c r="E76" t="s">
         <v>207</v>
       </c>
-      <c r="F76" s="3" t="s">
+      <c r="F76" t="s">
         <v>208</v>
       </c>
-      <c r="G76" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H76" s="3" t="s">
+      <c r="G76" t="s">
+        <v>10</v>
+      </c>
+      <c r="H76" t="s">
         <v>61</v>
       </c>
       <c r="I76" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J76" t="s">
-        <v>232</v>
+        <v>557</v>
       </c>
     </row>
     <row r="77" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B77"/>
       <c r="C77"/>
-      <c r="D77" s="4" t="s">
+      <c r="D77" t="s">
         <v>209</v>
       </c>
-      <c r="E77" s="4" t="s">
+      <c r="E77" t="s">
         <v>210</v>
       </c>
-      <c r="F77" s="4" t="s">
+      <c r="F77" t="s">
         <v>81</v>
       </c>
-      <c r="G77" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H77" s="4" t="s">
+      <c r="G77" t="s">
+        <v>10</v>
+      </c>
+      <c r="H77" t="s">
         <v>68</v>
       </c>
       <c r="I77" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="J77" t="s">
-        <v>233</v>
+        <v>558</v>
       </c>
     </row>
     <row r="78" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B78"/>
       <c r="C78"/>
-      <c r="D78" s="3" t="s">
+      <c r="D78" t="s">
         <v>211</v>
       </c>
-      <c r="E78" s="3" t="s">
+      <c r="E78" t="s">
         <v>212</v>
       </c>
-      <c r="F78" s="3" t="s">
+      <c r="F78" t="s">
         <v>213</v>
       </c>
-      <c r="G78" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H78" s="3" t="s">
+      <c r="G78" t="s">
+        <v>10</v>
+      </c>
+      <c r="H78" t="s">
         <v>65</v>
       </c>
       <c r="I78" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="J78" t="s">
-        <v>233</v>
+        <v>558</v>
       </c>
     </row>
     <row r="79" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B79"/>
       <c r="C79"/>
-      <c r="D79" s="4" t="s">
+      <c r="D79" t="s">
         <v>214</v>
       </c>
-      <c r="E79" s="4" t="s">
+      <c r="E79" t="s">
         <v>15</v>
       </c>
-      <c r="F79" s="4" t="s">
+      <c r="F79" t="s">
         <v>13</v>
       </c>
-      <c r="G79" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H79" s="4" t="s">
+      <c r="G79" t="s">
+        <v>10</v>
+      </c>
+      <c r="H79" t="s">
         <v>61</v>
       </c>
       <c r="I79" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="J79" t="s">
-        <v>235</v>
+        <v>560</v>
       </c>
     </row>
     <row r="80" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B80"/>
       <c r="C80"/>
-      <c r="D80" s="3" t="s">
+      <c r="D80" t="s">
         <v>215</v>
       </c>
-      <c r="E80" s="3" t="s">
+      <c r="E80" t="s">
         <v>94</v>
       </c>
-      <c r="F80" s="3" t="s">
+      <c r="F80" t="s">
         <v>13</v>
       </c>
-      <c r="G80" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H80" s="3" t="s">
+      <c r="G80" t="s">
+        <v>10</v>
+      </c>
+      <c r="H80" t="s">
         <v>61</v>
       </c>
       <c r="I80" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="J80" t="s">
-        <v>226</v>
+        <v>551</v>
       </c>
     </row>
     <row r="81" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B81"/>
       <c r="C81"/>
-      <c r="D81" s="4" t="s">
+      <c r="D81" t="s">
         <v>216</v>
       </c>
-      <c r="E81" s="4" t="s">
+      <c r="E81" t="s">
         <v>217</v>
       </c>
-      <c r="F81" s="4" t="s">
+      <c r="F81" t="s">
         <v>100</v>
       </c>
-      <c r="G81" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H81" s="4" t="s">
+      <c r="G81" t="s">
+        <v>10</v>
+      </c>
+      <c r="H81" t="s">
         <v>68</v>
       </c>
       <c r="I81" t="s">
+        <v>31</v>
+      </c>
+      <c r="J81" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="82" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B82"/>
+      <c r="C82"/>
+      <c r="D82" t="s">
+        <v>219</v>
+      </c>
+      <c r="E82" t="s">
+        <v>112</v>
+      </c>
+      <c r="F82" t="s">
+        <v>113</v>
+      </c>
+      <c r="G82" t="s">
+        <v>10</v>
+      </c>
+      <c r="H82" t="s">
+        <v>65</v>
+      </c>
+      <c r="I82" t="s">
+        <v>46</v>
+      </c>
+      <c r="J82" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="83" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B83"/>
+      <c r="C83"/>
+      <c r="D83" t="s">
+        <v>220</v>
+      </c>
+      <c r="E83" t="s">
+        <v>221</v>
+      </c>
+      <c r="F83" t="s">
+        <v>187</v>
+      </c>
+      <c r="G83" t="s">
+        <v>10</v>
+      </c>
+      <c r="H83" t="s">
+        <v>59</v>
+      </c>
+      <c r="I83" t="s">
+        <v>38</v>
+      </c>
+      <c r="J83" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="84" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B84"/>
+      <c r="C84"/>
+      <c r="D84" t="s">
+        <v>222</v>
+      </c>
+      <c r="E84" t="s">
+        <v>156</v>
+      </c>
+      <c r="F84" t="s">
+        <v>143</v>
+      </c>
+      <c r="G84" t="s">
+        <v>10</v>
+      </c>
+      <c r="H84" t="s">
+        <v>61</v>
+      </c>
+      <c r="I84" t="s">
+        <v>218</v>
+      </c>
+      <c r="J84" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="85" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B85"/>
+      <c r="C85"/>
+      <c r="D85" t="s">
+        <v>223</v>
+      </c>
+      <c r="E85" t="s">
+        <v>70</v>
+      </c>
+      <c r="F85" t="s">
+        <v>71</v>
+      </c>
+      <c r="G85" t="s">
+        <v>10</v>
+      </c>
+      <c r="H85" t="s">
+        <v>65</v>
+      </c>
+      <c r="I85" t="s">
+        <v>41</v>
+      </c>
+      <c r="J85" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="86" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B86"/>
+      <c r="C86"/>
+      <c r="D86" t="s">
+        <v>224</v>
+      </c>
+      <c r="E86" t="s">
+        <v>225</v>
+      </c>
+      <c r="F86" t="s">
+        <v>197</v>
+      </c>
+      <c r="G86" t="s">
+        <v>10</v>
+      </c>
+      <c r="H86" t="s">
+        <v>65</v>
+      </c>
+      <c r="I86" t="s">
+        <v>39</v>
+      </c>
+      <c r="J86" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="87" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B87"/>
+      <c r="C87"/>
+      <c r="D87" t="s">
+        <v>226</v>
+      </c>
+      <c r="E87" t="s">
+        <v>227</v>
+      </c>
+      <c r="F87" t="s">
+        <v>147</v>
+      </c>
+      <c r="G87" t="s">
+        <v>10</v>
+      </c>
+      <c r="H87" t="s">
+        <v>65</v>
+      </c>
+      <c r="I87" t="s">
+        <v>29</v>
+      </c>
+      <c r="J87" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="88" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B88"/>
+      <c r="C88"/>
+      <c r="D88" t="s">
+        <v>228</v>
+      </c>
+      <c r="E88" t="s">
+        <v>229</v>
+      </c>
+      <c r="F88" t="s">
+        <v>230</v>
+      </c>
+      <c r="G88" t="s">
+        <v>10</v>
+      </c>
+      <c r="H88" t="s">
+        <v>65</v>
+      </c>
+      <c r="I88" t="s">
+        <v>41</v>
+      </c>
+      <c r="J88" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="89" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B89"/>
+      <c r="C89"/>
+      <c r="D89" t="s">
+        <v>231</v>
+      </c>
+      <c r="E89" t="s">
+        <v>21</v>
+      </c>
+      <c r="F89" t="s">
+        <v>76</v>
+      </c>
+      <c r="G89" t="s">
+        <v>10</v>
+      </c>
+      <c r="H89" t="s">
+        <v>65</v>
+      </c>
+      <c r="I89" t="s">
+        <v>29</v>
+      </c>
+      <c r="J89" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="90" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B90"/>
+      <c r="C90"/>
+      <c r="D90" t="s">
+        <v>232</v>
+      </c>
+      <c r="E90" t="s">
+        <v>103</v>
+      </c>
+      <c r="F90" t="s">
+        <v>104</v>
+      </c>
+      <c r="G90" t="s">
+        <v>10</v>
+      </c>
+      <c r="H90" t="s">
+        <v>59</v>
+      </c>
+      <c r="I90" t="s">
+        <v>39</v>
+      </c>
+      <c r="J90" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="91" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B91"/>
+      <c r="C91"/>
+      <c r="D91" t="s">
+        <v>233</v>
+      </c>
+      <c r="E91" t="s">
+        <v>227</v>
+      </c>
+      <c r="F91" t="s">
+        <v>182</v>
+      </c>
+      <c r="G91" t="s">
+        <v>10</v>
+      </c>
+      <c r="H91" t="s">
+        <v>65</v>
+      </c>
+      <c r="I91" t="s">
+        <v>20</v>
+      </c>
+      <c r="J91" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="92" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B92"/>
+      <c r="C92"/>
+      <c r="D92" t="s">
+        <v>234</v>
+      </c>
+      <c r="E92" t="s">
+        <v>235</v>
+      </c>
+      <c r="F92" t="s">
+        <v>236</v>
+      </c>
+      <c r="G92" t="s">
+        <v>10</v>
+      </c>
+      <c r="H92" t="s">
+        <v>61</v>
+      </c>
+      <c r="I92" t="s">
+        <v>33</v>
+      </c>
+      <c r="J92" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="93" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B93"/>
+      <c r="C93"/>
+      <c r="D93" t="s">
+        <v>237</v>
+      </c>
+      <c r="E93" t="s">
+        <v>238</v>
+      </c>
+      <c r="F93" t="s">
+        <v>230</v>
+      </c>
+      <c r="G93" t="s">
+        <v>10</v>
+      </c>
+      <c r="H93" t="s">
+        <v>65</v>
+      </c>
+      <c r="I93" t="s">
+        <v>30</v>
+      </c>
+      <c r="J93" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="94" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B94"/>
+      <c r="C94"/>
+      <c r="D94" t="s">
+        <v>239</v>
+      </c>
+      <c r="E94" t="s">
+        <v>240</v>
+      </c>
+      <c r="F94" t="s">
+        <v>143</v>
+      </c>
+      <c r="G94" t="s">
+        <v>10</v>
+      </c>
+      <c r="H94" t="s">
+        <v>61</v>
+      </c>
+      <c r="I94" t="s">
+        <v>45</v>
+      </c>
+      <c r="J94" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="95" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B95"/>
+      <c r="C95"/>
+      <c r="D95" t="s">
+        <v>241</v>
+      </c>
+      <c r="E95" t="s">
+        <v>242</v>
+      </c>
+      <c r="F95" t="s">
+        <v>159</v>
+      </c>
+      <c r="G95" t="s">
+        <v>10</v>
+      </c>
+      <c r="H95" t="s">
+        <v>59</v>
+      </c>
+      <c r="I95" t="s">
+        <v>42</v>
+      </c>
+      <c r="J95" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="96" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B96"/>
+      <c r="C96"/>
+      <c r="D96" t="s">
+        <v>243</v>
+      </c>
+      <c r="E96" t="s">
+        <v>186</v>
+      </c>
+      <c r="F96" t="s">
+        <v>187</v>
+      </c>
+      <c r="G96" t="s">
+        <v>10</v>
+      </c>
+      <c r="H96" t="s">
+        <v>59</v>
+      </c>
+      <c r="I96" t="s">
+        <v>28</v>
+      </c>
+      <c r="J96" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="97" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B97"/>
+      <c r="C97"/>
+      <c r="D97" t="s">
+        <v>244</v>
+      </c>
+      <c r="E97" t="s">
+        <v>245</v>
+      </c>
+      <c r="F97" t="s">
+        <v>246</v>
+      </c>
+      <c r="G97" t="s">
+        <v>10</v>
+      </c>
+      <c r="H97" t="s">
+        <v>59</v>
+      </c>
+      <c r="I97" t="s">
+        <v>44</v>
+      </c>
+      <c r="J97" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="98" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B98"/>
+      <c r="C98"/>
+      <c r="D98" t="s">
+        <v>247</v>
+      </c>
+      <c r="E98" t="s">
+        <v>248</v>
+      </c>
+      <c r="F98" t="s">
+        <v>104</v>
+      </c>
+      <c r="G98" t="s">
+        <v>10</v>
+      </c>
+      <c r="H98" t="s">
+        <v>59</v>
+      </c>
+      <c r="I98" t="s">
+        <v>218</v>
+      </c>
+      <c r="J98" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="99" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B99"/>
+      <c r="C99"/>
+      <c r="D99" t="s">
+        <v>249</v>
+      </c>
+      <c r="E99" t="s">
+        <v>176</v>
+      </c>
+      <c r="F99" t="s">
+        <v>124</v>
+      </c>
+      <c r="G99" t="s">
+        <v>10</v>
+      </c>
+      <c r="H99" t="s">
+        <v>65</v>
+      </c>
+      <c r="I99" t="s">
+        <v>36</v>
+      </c>
+      <c r="J99" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="100" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B100"/>
+      <c r="C100"/>
+      <c r="D100" t="s">
+        <v>250</v>
+      </c>
+      <c r="E100" t="s">
+        <v>251</v>
+      </c>
+      <c r="F100" t="s">
+        <v>252</v>
+      </c>
+      <c r="G100" t="s">
+        <v>10</v>
+      </c>
+      <c r="H100" t="s">
+        <v>68</v>
+      </c>
+      <c r="I100" t="s">
+        <v>31</v>
+      </c>
+      <c r="J100" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="101" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B101"/>
+      <c r="C101"/>
+      <c r="D101" t="s">
+        <v>253</v>
+      </c>
+      <c r="E101" t="s">
+        <v>254</v>
+      </c>
+      <c r="F101" t="s">
+        <v>97</v>
+      </c>
+      <c r="G101" t="s">
+        <v>10</v>
+      </c>
+      <c r="H101" t="s">
+        <v>61</v>
+      </c>
+      <c r="I101" t="s">
+        <v>32</v>
+      </c>
+      <c r="J101" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="102" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B102"/>
+      <c r="C102"/>
+      <c r="D102" t="s">
+        <v>255</v>
+      </c>
+      <c r="E102" t="s">
+        <v>103</v>
+      </c>
+      <c r="F102" t="s">
+        <v>104</v>
+      </c>
+      <c r="G102" t="s">
+        <v>10</v>
+      </c>
+      <c r="H102" t="s">
+        <v>59</v>
+      </c>
+      <c r="I102" t="s">
+        <v>41</v>
+      </c>
+      <c r="J102" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="103" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B103"/>
+      <c r="C103"/>
+      <c r="D103" t="s">
+        <v>256</v>
+      </c>
+      <c r="E103" t="s">
+        <v>210</v>
+      </c>
+      <c r="F103" t="s">
+        <v>246</v>
+      </c>
+      <c r="G103" t="s">
+        <v>10</v>
+      </c>
+      <c r="H103" t="s">
+        <v>59</v>
+      </c>
+      <c r="I103" t="s">
+        <v>22</v>
+      </c>
+      <c r="J103" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="104" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B104"/>
+      <c r="C104"/>
+      <c r="D104" t="s">
+        <v>257</v>
+      </c>
+      <c r="E104" t="s">
+        <v>258</v>
+      </c>
+      <c r="F104" t="s">
+        <v>143</v>
+      </c>
+      <c r="G104" t="s">
+        <v>10</v>
+      </c>
+      <c r="H104" t="s">
+        <v>61</v>
+      </c>
+      <c r="I104" t="s">
+        <v>28</v>
+      </c>
+      <c r="J104" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="105" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B105"/>
+      <c r="C105"/>
+      <c r="D105" t="s">
+        <v>259</v>
+      </c>
+      <c r="E105" t="s">
+        <v>91</v>
+      </c>
+      <c r="F105" t="s">
+        <v>92</v>
+      </c>
+      <c r="G105" t="s">
+        <v>10</v>
+      </c>
+      <c r="H105" t="s">
+        <v>68</v>
+      </c>
+      <c r="I105" t="s">
+        <v>43</v>
+      </c>
+      <c r="J105" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="106" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B106"/>
+      <c r="C106"/>
+      <c r="D106" t="s">
+        <v>260</v>
+      </c>
+      <c r="E106" t="s">
+        <v>245</v>
+      </c>
+      <c r="F106" t="s">
+        <v>246</v>
+      </c>
+      <c r="G106" t="s">
+        <v>10</v>
+      </c>
+      <c r="H106" t="s">
+        <v>59</v>
+      </c>
+      <c r="I106" t="s">
+        <v>35</v>
+      </c>
+      <c r="J106" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="107" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B107"/>
+      <c r="C107"/>
+      <c r="D107" t="s">
+        <v>261</v>
+      </c>
+      <c r="E107" t="s">
+        <v>262</v>
+      </c>
+      <c r="F107" t="s">
+        <v>71</v>
+      </c>
+      <c r="G107" t="s">
+        <v>10</v>
+      </c>
+      <c r="H107" t="s">
+        <v>65</v>
+      </c>
+      <c r="I107" t="s">
+        <v>42</v>
+      </c>
+      <c r="J107" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="108" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B108"/>
+      <c r="C108"/>
+      <c r="D108" t="s">
+        <v>263</v>
+      </c>
+      <c r="E108" t="s">
+        <v>264</v>
+      </c>
+      <c r="F108" t="s">
+        <v>76</v>
+      </c>
+      <c r="G108" t="s">
+        <v>10</v>
+      </c>
+      <c r="H108" t="s">
+        <v>65</v>
+      </c>
+      <c r="I108" t="s">
+        <v>22</v>
+      </c>
+      <c r="J108" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="109" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B109"/>
+      <c r="C109"/>
+      <c r="D109" t="s">
+        <v>265</v>
+      </c>
+      <c r="E109" t="s">
+        <v>266</v>
+      </c>
+      <c r="F109" t="s">
+        <v>267</v>
+      </c>
+      <c r="G109" t="s">
+        <v>10</v>
+      </c>
+      <c r="H109" t="s">
+        <v>59</v>
+      </c>
+      <c r="I109" t="s">
+        <v>37</v>
+      </c>
+      <c r="J109" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="110" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B110"/>
+      <c r="C110"/>
+      <c r="D110" t="s">
+        <v>268</v>
+      </c>
+      <c r="E110" t="s">
+        <v>269</v>
+      </c>
+      <c r="F110" t="s">
+        <v>187</v>
+      </c>
+      <c r="G110" t="s">
+        <v>10</v>
+      </c>
+      <c r="H110" t="s">
+        <v>59</v>
+      </c>
+      <c r="I110" t="s">
+        <v>34</v>
+      </c>
+      <c r="J110" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="111" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B111"/>
+      <c r="C111"/>
+      <c r="D111" t="s">
+        <v>270</v>
+      </c>
+      <c r="E111" t="s">
+        <v>271</v>
+      </c>
+      <c r="F111" t="s">
+        <v>92</v>
+      </c>
+      <c r="G111" t="s">
+        <v>10</v>
+      </c>
+      <c r="H111" t="s">
+        <v>68</v>
+      </c>
+      <c r="I111" t="s">
+        <v>40</v>
+      </c>
+      <c r="J111" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="112" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B112"/>
+      <c r="C112"/>
+      <c r="D112" t="s">
+        <v>272</v>
+      </c>
+      <c r="E112" t="s">
+        <v>273</v>
+      </c>
+      <c r="F112" t="s">
+        <v>274</v>
+      </c>
+      <c r="G112" t="s">
+        <v>10</v>
+      </c>
+      <c r="H112" t="s">
+        <v>65</v>
+      </c>
+      <c r="I112" t="s">
+        <v>47</v>
+      </c>
+      <c r="J112" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="113" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B113"/>
+      <c r="C113"/>
+      <c r="D113" t="s">
+        <v>275</v>
+      </c>
+      <c r="E113" t="s">
+        <v>276</v>
+      </c>
+      <c r="F113" t="s">
+        <v>277</v>
+      </c>
+      <c r="G113" t="s">
+        <v>10</v>
+      </c>
+      <c r="H113" t="s">
+        <v>65</v>
+      </c>
+      <c r="I113" t="s">
+        <v>218</v>
+      </c>
+      <c r="J113" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="114" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B114"/>
+      <c r="C114"/>
+      <c r="D114" t="s">
+        <v>278</v>
+      </c>
+      <c r="E114" t="s">
+        <v>120</v>
+      </c>
+      <c r="F114" t="s">
+        <v>104</v>
+      </c>
+      <c r="G114" t="s">
+        <v>10</v>
+      </c>
+      <c r="H114" t="s">
+        <v>59</v>
+      </c>
+      <c r="I114" t="s">
+        <v>43</v>
+      </c>
+      <c r="J114" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="115" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B115"/>
+      <c r="C115"/>
+      <c r="D115" t="s">
+        <v>279</v>
+      </c>
+      <c r="E115" t="s">
+        <v>264</v>
+      </c>
+      <c r="F115" t="s">
+        <v>76</v>
+      </c>
+      <c r="G115" t="s">
+        <v>10</v>
+      </c>
+      <c r="H115" t="s">
+        <v>65</v>
+      </c>
+      <c r="I115" t="s">
+        <v>45</v>
+      </c>
+      <c r="J115" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="116" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B116"/>
+      <c r="C116"/>
+      <c r="D116" t="s">
+        <v>280</v>
+      </c>
+      <c r="E116" t="s">
+        <v>156</v>
+      </c>
+      <c r="F116" t="s">
+        <v>143</v>
+      </c>
+      <c r="G116" t="s">
+        <v>10</v>
+      </c>
+      <c r="H116" t="s">
+        <v>61</v>
+      </c>
+      <c r="I116" t="s">
+        <v>40</v>
+      </c>
+      <c r="J116" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="117" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B117"/>
+      <c r="C117"/>
+      <c r="D117" t="s">
+        <v>281</v>
+      </c>
+      <c r="E117" t="s">
+        <v>282</v>
+      </c>
+      <c r="F117" t="s">
+        <v>76</v>
+      </c>
+      <c r="G117" t="s">
+        <v>10</v>
+      </c>
+      <c r="H117" t="s">
+        <v>65</v>
+      </c>
+      <c r="I117" t="s">
+        <v>37</v>
+      </c>
+      <c r="J117" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="118" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B118"/>
+      <c r="C118"/>
+      <c r="D118" t="s">
+        <v>283</v>
+      </c>
+      <c r="E118" t="s">
+        <v>284</v>
+      </c>
+      <c r="F118" t="s">
+        <v>124</v>
+      </c>
+      <c r="G118" t="s">
+        <v>10</v>
+      </c>
+      <c r="H118" t="s">
+        <v>65</v>
+      </c>
+      <c r="I118" t="s">
+        <v>29</v>
+      </c>
+      <c r="J118" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="119" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B119"/>
+      <c r="C119"/>
+      <c r="D119" t="s">
+        <v>285</v>
+      </c>
+      <c r="E119" t="s">
+        <v>196</v>
+      </c>
+      <c r="F119" t="s">
+        <v>197</v>
+      </c>
+      <c r="G119" t="s">
+        <v>10</v>
+      </c>
+      <c r="H119" t="s">
+        <v>65</v>
+      </c>
+      <c r="I119" t="s">
+        <v>45</v>
+      </c>
+      <c r="J119" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="120" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B120"/>
+      <c r="C120"/>
+      <c r="D120" t="s">
+        <v>286</v>
+      </c>
+      <c r="E120" t="s">
+        <v>287</v>
+      </c>
+      <c r="F120" t="s">
+        <v>107</v>
+      </c>
+      <c r="G120" t="s">
+        <v>10</v>
+      </c>
+      <c r="H120" t="s">
+        <v>59</v>
+      </c>
+      <c r="I120" t="s">
+        <v>45</v>
+      </c>
+      <c r="J120" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="121" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B121"/>
+      <c r="C121"/>
+      <c r="D121" t="s">
+        <v>288</v>
+      </c>
+      <c r="E121" t="s">
+        <v>289</v>
+      </c>
+      <c r="F121" t="s">
+        <v>187</v>
+      </c>
+      <c r="G121" t="s">
+        <v>10</v>
+      </c>
+      <c r="H121" t="s">
+        <v>59</v>
+      </c>
+      <c r="I121" t="s">
+        <v>38</v>
+      </c>
+      <c r="J121" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="122" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B122"/>
+      <c r="C122"/>
+      <c r="D122" t="s">
+        <v>290</v>
+      </c>
+      <c r="E122" t="s">
+        <v>73</v>
+      </c>
+      <c r="F122" t="s">
+        <v>78</v>
+      </c>
+      <c r="G122" t="s">
+        <v>10</v>
+      </c>
+      <c r="H122" t="s">
+        <v>61</v>
+      </c>
+      <c r="I122" t="s">
+        <v>47</v>
+      </c>
+      <c r="J122" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="123" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B123"/>
+      <c r="C123"/>
+      <c r="D123" t="s">
+        <v>291</v>
+      </c>
+      <c r="E123" t="s">
+        <v>235</v>
+      </c>
+      <c r="F123" t="s">
+        <v>236</v>
+      </c>
+      <c r="G123" t="s">
+        <v>10</v>
+      </c>
+      <c r="H123" t="s">
+        <v>61</v>
+      </c>
+      <c r="I123" t="s">
+        <v>46</v>
+      </c>
+      <c r="J123" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="124" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B124"/>
+      <c r="C124"/>
+      <c r="D124" t="s">
+        <v>292</v>
+      </c>
+      <c r="E124" t="s">
+        <v>196</v>
+      </c>
+      <c r="F124" t="s">
+        <v>197</v>
+      </c>
+      <c r="G124" t="s">
+        <v>10</v>
+      </c>
+      <c r="H124" t="s">
+        <v>65</v>
+      </c>
+      <c r="I124" t="s">
+        <v>32</v>
+      </c>
+      <c r="J124" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="125" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B125"/>
+      <c r="C125"/>
+      <c r="D125" t="s">
+        <v>293</v>
+      </c>
+      <c r="E125" t="s">
+        <v>168</v>
+      </c>
+      <c r="F125" t="s">
+        <v>76</v>
+      </c>
+      <c r="G125" t="s">
+        <v>10</v>
+      </c>
+      <c r="H125" t="s">
+        <v>65</v>
+      </c>
+      <c r="I125" t="s">
+        <v>47</v>
+      </c>
+      <c r="J125" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="126" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B126"/>
+      <c r="C126"/>
+      <c r="D126" t="s">
+        <v>294</v>
+      </c>
+      <c r="E126" t="s">
+        <v>295</v>
+      </c>
+      <c r="F126" t="s">
+        <v>296</v>
+      </c>
+      <c r="G126" t="s">
+        <v>10</v>
+      </c>
+      <c r="H126" t="s">
+        <v>65</v>
+      </c>
+      <c r="I126" t="s">
+        <v>30</v>
+      </c>
+      <c r="J126" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="127" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B127"/>
+      <c r="C127"/>
+      <c r="D127" t="s">
+        <v>297</v>
+      </c>
+      <c r="E127" t="s">
+        <v>298</v>
+      </c>
+      <c r="F127" t="s">
+        <v>76</v>
+      </c>
+      <c r="G127" t="s">
+        <v>10</v>
+      </c>
+      <c r="H127" t="s">
+        <v>65</v>
+      </c>
+      <c r="I127" t="s">
+        <v>30</v>
+      </c>
+      <c r="J127" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="128" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B128"/>
+      <c r="C128"/>
+      <c r="D128" t="s">
+        <v>299</v>
+      </c>
+      <c r="E128" t="s">
+        <v>204</v>
+      </c>
+      <c r="F128" t="s">
+        <v>71</v>
+      </c>
+      <c r="G128" t="s">
+        <v>10</v>
+      </c>
+      <c r="H128" t="s">
+        <v>65</v>
+      </c>
+      <c r="I128" t="s">
+        <v>46</v>
+      </c>
+      <c r="J128" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="129" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B129"/>
+      <c r="C129"/>
+      <c r="D129" t="s">
+        <v>300</v>
+      </c>
+      <c r="E129" t="s">
+        <v>103</v>
+      </c>
+      <c r="F129" t="s">
+        <v>104</v>
+      </c>
+      <c r="G129" t="s">
+        <v>10</v>
+      </c>
+      <c r="H129" t="s">
+        <v>59</v>
+      </c>
+      <c r="I129" t="s">
+        <v>31</v>
+      </c>
+      <c r="J129" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="130" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B130"/>
+      <c r="C130"/>
+      <c r="D130" t="s">
+        <v>301</v>
+      </c>
+      <c r="E130" t="s">
+        <v>161</v>
+      </c>
+      <c r="F130" t="s">
+        <v>143</v>
+      </c>
+      <c r="G130" t="s">
+        <v>10</v>
+      </c>
+      <c r="H130" t="s">
+        <v>61</v>
+      </c>
+      <c r="I130" t="s">
+        <v>33</v>
+      </c>
+      <c r="J130" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="131" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B131"/>
+      <c r="C131"/>
+      <c r="D131" t="s">
+        <v>302</v>
+      </c>
+      <c r="E131" t="s">
+        <v>303</v>
+      </c>
+      <c r="F131" t="s">
+        <v>197</v>
+      </c>
+      <c r="G131" t="s">
+        <v>10</v>
+      </c>
+      <c r="H131" t="s">
+        <v>65</v>
+      </c>
+      <c r="I131" t="s">
+        <v>22</v>
+      </c>
+      <c r="J131" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="132" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B132"/>
+      <c r="C132"/>
+      <c r="D132" t="s">
+        <v>304</v>
+      </c>
+      <c r="E132" t="s">
+        <v>176</v>
+      </c>
+      <c r="F132" t="s">
+        <v>124</v>
+      </c>
+      <c r="G132" t="s">
+        <v>10</v>
+      </c>
+      <c r="H132" t="s">
+        <v>65</v>
+      </c>
+      <c r="I132" t="s">
+        <v>42</v>
+      </c>
+      <c r="J132" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="133" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B133"/>
+      <c r="C133"/>
+      <c r="D133" t="s">
+        <v>305</v>
+      </c>
+      <c r="E133" t="s">
+        <v>306</v>
+      </c>
+      <c r="F133" t="s">
+        <v>307</v>
+      </c>
+      <c r="G133" t="s">
+        <v>10</v>
+      </c>
+      <c r="H133" t="s">
+        <v>59</v>
+      </c>
+      <c r="I133" t="s">
+        <v>33</v>
+      </c>
+      <c r="J133" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="134" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B134"/>
+      <c r="C134"/>
+      <c r="D134" t="s">
+        <v>308</v>
+      </c>
+      <c r="E134" t="s">
+        <v>202</v>
+      </c>
+      <c r="F134" t="s">
+        <v>113</v>
+      </c>
+      <c r="G134" t="s">
+        <v>10</v>
+      </c>
+      <c r="H134" t="s">
+        <v>65</v>
+      </c>
+      <c r="I134" t="s">
+        <v>36</v>
+      </c>
+      <c r="J134" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="135" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B135"/>
+      <c r="C135"/>
+      <c r="D135" t="s">
+        <v>309</v>
+      </c>
+      <c r="E135" t="s">
+        <v>310</v>
+      </c>
+      <c r="F135" t="s">
+        <v>213</v>
+      </c>
+      <c r="G135" t="s">
+        <v>10</v>
+      </c>
+      <c r="H135" t="s">
+        <v>65</v>
+      </c>
+      <c r="I135" t="s">
+        <v>46</v>
+      </c>
+      <c r="J135" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="136" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B136"/>
+      <c r="C136"/>
+      <c r="D136" t="s">
+        <v>311</v>
+      </c>
+      <c r="E136" t="s">
+        <v>73</v>
+      </c>
+      <c r="F136" t="s">
+        <v>78</v>
+      </c>
+      <c r="G136" t="s">
+        <v>10</v>
+      </c>
+      <c r="H136" t="s">
+        <v>61</v>
+      </c>
+      <c r="I136" t="s">
+        <v>35</v>
+      </c>
+      <c r="J136" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="137" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B137"/>
+      <c r="C137"/>
+      <c r="D137" t="s">
+        <v>312</v>
+      </c>
+      <c r="E137" t="s">
+        <v>80</v>
+      </c>
+      <c r="F137" t="s">
+        <v>81</v>
+      </c>
+      <c r="G137" t="s">
+        <v>10</v>
+      </c>
+      <c r="H137" t="s">
+        <v>68</v>
+      </c>
+      <c r="I137" t="s">
+        <v>20</v>
+      </c>
+      <c r="J137" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="138" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B138"/>
+      <c r="C138"/>
+      <c r="D138" t="s">
+        <v>313</v>
+      </c>
+      <c r="E138" t="s">
+        <v>204</v>
+      </c>
+      <c r="F138" t="s">
+        <v>71</v>
+      </c>
+      <c r="G138" t="s">
+        <v>10</v>
+      </c>
+      <c r="H138" t="s">
+        <v>65</v>
+      </c>
+      <c r="I138" t="s">
         <v>48</v>
       </c>
-      <c r="J81" t="s">
-        <v>233</v>
+      <c r="J138" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="139" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B139"/>
+      <c r="C139"/>
+      <c r="D139" t="s">
+        <v>314</v>
+      </c>
+      <c r="E139" t="s">
+        <v>310</v>
+      </c>
+      <c r="F139" t="s">
+        <v>213</v>
+      </c>
+      <c r="G139" t="s">
+        <v>10</v>
+      </c>
+      <c r="H139" t="s">
+        <v>65</v>
+      </c>
+      <c r="I139" t="s">
+        <v>37</v>
+      </c>
+      <c r="J139" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="140" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B140"/>
+      <c r="C140"/>
+      <c r="D140" t="s">
+        <v>315</v>
+      </c>
+      <c r="E140" t="s">
+        <v>276</v>
+      </c>
+      <c r="F140" t="s">
+        <v>277</v>
+      </c>
+      <c r="G140" t="s">
+        <v>10</v>
+      </c>
+      <c r="H140" t="s">
+        <v>65</v>
+      </c>
+      <c r="I140" t="s">
+        <v>43</v>
+      </c>
+      <c r="J140" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="141" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B141"/>
+      <c r="C141"/>
+      <c r="D141" t="s">
+        <v>316</v>
+      </c>
+      <c r="E141" t="s">
+        <v>142</v>
+      </c>
+      <c r="F141" t="s">
+        <v>143</v>
+      </c>
+      <c r="G141" t="s">
+        <v>10</v>
+      </c>
+      <c r="H141" t="s">
+        <v>61</v>
+      </c>
+      <c r="I141" t="s">
+        <v>40</v>
+      </c>
+      <c r="J141" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="142" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B142"/>
+      <c r="C142"/>
+      <c r="D142" t="s">
+        <v>317</v>
+      </c>
+      <c r="E142" t="s">
+        <v>318</v>
+      </c>
+      <c r="F142" t="s">
+        <v>58</v>
+      </c>
+      <c r="G142" t="s">
+        <v>10</v>
+      </c>
+      <c r="H142" t="s">
+        <v>61</v>
+      </c>
+      <c r="I142" t="s">
+        <v>47</v>
+      </c>
+      <c r="J142" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="143" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B143"/>
+      <c r="C143"/>
+      <c r="D143" t="s">
+        <v>319</v>
+      </c>
+      <c r="E143" t="s">
+        <v>320</v>
+      </c>
+      <c r="F143" t="s">
+        <v>133</v>
+      </c>
+      <c r="G143" t="s">
+        <v>10</v>
+      </c>
+      <c r="H143" t="s">
+        <v>59</v>
+      </c>
+      <c r="I143" t="s">
+        <v>34</v>
+      </c>
+      <c r="J143" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="144" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B144"/>
+      <c r="C144"/>
+      <c r="D144" t="s">
+        <v>321</v>
+      </c>
+      <c r="E144" t="s">
+        <v>322</v>
+      </c>
+      <c r="F144" t="s">
+        <v>113</v>
+      </c>
+      <c r="G144" t="s">
+        <v>10</v>
+      </c>
+      <c r="H144" t="s">
+        <v>65</v>
+      </c>
+      <c r="I144" t="s">
+        <v>48</v>
+      </c>
+      <c r="J144" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="145" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B145"/>
+      <c r="C145"/>
+      <c r="D145" t="s">
+        <v>323</v>
+      </c>
+      <c r="E145" t="s">
+        <v>324</v>
+      </c>
+      <c r="F145" t="s">
+        <v>208</v>
+      </c>
+      <c r="G145" t="s">
+        <v>10</v>
+      </c>
+      <c r="H145" t="s">
+        <v>61</v>
+      </c>
+      <c r="I145" t="s">
+        <v>44</v>
+      </c>
+      <c r="J145" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="146" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B146"/>
+      <c r="C146"/>
+      <c r="D146" t="s">
+        <v>325</v>
+      </c>
+      <c r="E146" t="s">
+        <v>118</v>
+      </c>
+      <c r="F146" t="s">
+        <v>78</v>
+      </c>
+      <c r="G146" t="s">
+        <v>10</v>
+      </c>
+      <c r="H146" t="s">
+        <v>61</v>
+      </c>
+      <c r="I146" t="s">
+        <v>46</v>
+      </c>
+      <c r="J146" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="147" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B147"/>
+      <c r="C147"/>
+      <c r="D147" t="s">
+        <v>326</v>
+      </c>
+      <c r="E147" t="s">
+        <v>186</v>
+      </c>
+      <c r="F147" t="s">
+        <v>187</v>
+      </c>
+      <c r="G147" t="s">
+        <v>10</v>
+      </c>
+      <c r="H147" t="s">
+        <v>59</v>
+      </c>
+      <c r="I147" t="s">
+        <v>35</v>
+      </c>
+      <c r="J147" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="148" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B148"/>
+      <c r="C148"/>
+      <c r="D148" t="s">
+        <v>327</v>
+      </c>
+      <c r="E148" t="s">
+        <v>83</v>
+      </c>
+      <c r="F148" t="s">
+        <v>84</v>
+      </c>
+      <c r="G148" t="s">
+        <v>10</v>
+      </c>
+      <c r="H148" t="s">
+        <v>59</v>
+      </c>
+      <c r="I148" t="s">
+        <v>34</v>
+      </c>
+      <c r="J148" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="149" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B149"/>
+      <c r="C149"/>
+      <c r="D149" t="s">
+        <v>328</v>
+      </c>
+      <c r="E149" t="s">
+        <v>73</v>
+      </c>
+      <c r="F149" t="s">
+        <v>78</v>
+      </c>
+      <c r="G149" t="s">
+        <v>10</v>
+      </c>
+      <c r="H149" t="s">
+        <v>61</v>
+      </c>
+      <c r="I149" t="s">
+        <v>44</v>
+      </c>
+      <c r="J149" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="150" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B150"/>
+      <c r="C150"/>
+      <c r="D150" t="s">
+        <v>329</v>
+      </c>
+      <c r="E150" t="s">
+        <v>225</v>
+      </c>
+      <c r="F150" t="s">
+        <v>197</v>
+      </c>
+      <c r="G150" t="s">
+        <v>10</v>
+      </c>
+      <c r="H150" t="s">
+        <v>65</v>
+      </c>
+      <c r="I150" t="s">
+        <v>48</v>
+      </c>
+      <c r="J150" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="151" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B151"/>
+      <c r="C151"/>
+      <c r="D151" t="s">
+        <v>330</v>
+      </c>
+      <c r="E151" t="s">
+        <v>331</v>
+      </c>
+      <c r="F151" t="s">
+        <v>332</v>
+      </c>
+      <c r="G151" t="s">
+        <v>10</v>
+      </c>
+      <c r="H151" t="s">
+        <v>68</v>
+      </c>
+      <c r="I151" t="s">
+        <v>20</v>
+      </c>
+      <c r="J151" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="152" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B152"/>
+      <c r="C152"/>
+      <c r="D152" t="s">
+        <v>333</v>
+      </c>
+      <c r="E152" t="s">
+        <v>334</v>
+      </c>
+      <c r="F152" t="s">
+        <v>335</v>
+      </c>
+      <c r="G152" t="s">
+        <v>10</v>
+      </c>
+      <c r="H152" t="s">
+        <v>65</v>
+      </c>
+      <c r="I152" t="s">
+        <v>36</v>
+      </c>
+      <c r="J152" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="153" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B153"/>
+      <c r="C153"/>
+      <c r="D153" t="s">
+        <v>336</v>
+      </c>
+      <c r="E153" t="s">
+        <v>287</v>
+      </c>
+      <c r="F153" t="s">
+        <v>107</v>
+      </c>
+      <c r="G153" t="s">
+        <v>10</v>
+      </c>
+      <c r="H153" t="s">
+        <v>59</v>
+      </c>
+      <c r="I153" t="s">
+        <v>28</v>
+      </c>
+      <c r="J153" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="154" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B154"/>
+      <c r="C154"/>
+      <c r="D154" t="s">
+        <v>337</v>
+      </c>
+      <c r="E154" t="s">
+        <v>338</v>
+      </c>
+      <c r="F154" t="s">
+        <v>143</v>
+      </c>
+      <c r="G154" t="s">
+        <v>10</v>
+      </c>
+      <c r="H154" t="s">
+        <v>61</v>
+      </c>
+      <c r="I154" t="s">
+        <v>38</v>
+      </c>
+      <c r="J154" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="155" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B155"/>
+      <c r="C155"/>
+      <c r="D155" t="s">
+        <v>339</v>
+      </c>
+      <c r="E155" t="s">
+        <v>298</v>
+      </c>
+      <c r="F155" t="s">
+        <v>76</v>
+      </c>
+      <c r="G155" t="s">
+        <v>10</v>
+      </c>
+      <c r="H155" t="s">
+        <v>65</v>
+      </c>
+      <c r="I155" t="s">
+        <v>47</v>
+      </c>
+      <c r="J155" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="156" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B156"/>
+      <c r="C156"/>
+      <c r="D156" t="s">
+        <v>340</v>
+      </c>
+      <c r="E156" t="s">
+        <v>341</v>
+      </c>
+      <c r="F156" t="s">
+        <v>236</v>
+      </c>
+      <c r="G156" t="s">
+        <v>10</v>
+      </c>
+      <c r="H156" t="s">
+        <v>61</v>
+      </c>
+      <c r="I156" t="s">
+        <v>45</v>
+      </c>
+      <c r="J156" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="157" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B157"/>
+      <c r="C157"/>
+      <c r="D157" t="s">
+        <v>342</v>
+      </c>
+      <c r="E157" t="s">
+        <v>343</v>
+      </c>
+      <c r="F157" t="s">
+        <v>13</v>
+      </c>
+      <c r="G157" t="s">
+        <v>10</v>
+      </c>
+      <c r="H157" t="s">
+        <v>61</v>
+      </c>
+      <c r="I157" t="s">
+        <v>32</v>
+      </c>
+      <c r="J157" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="158" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B158"/>
+      <c r="C158"/>
+      <c r="D158" t="s">
+        <v>344</v>
+      </c>
+      <c r="E158" t="s">
+        <v>345</v>
+      </c>
+      <c r="F158" t="s">
+        <v>16</v>
+      </c>
+      <c r="G158" t="s">
+        <v>10</v>
+      </c>
+      <c r="H158" t="s">
+        <v>68</v>
+      </c>
+      <c r="I158" t="s">
+        <v>45</v>
+      </c>
+      <c r="J158" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="159" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B159"/>
+      <c r="C159"/>
+      <c r="D159" t="s">
+        <v>346</v>
+      </c>
+      <c r="E159" t="s">
+        <v>200</v>
+      </c>
+      <c r="F159" t="s">
+        <v>159</v>
+      </c>
+      <c r="G159" t="s">
+        <v>10</v>
+      </c>
+      <c r="H159" t="s">
+        <v>59</v>
+      </c>
+      <c r="I159" t="s">
+        <v>39</v>
+      </c>
+      <c r="J159" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="160" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B160"/>
+      <c r="C160"/>
+      <c r="D160" t="s">
+        <v>347</v>
+      </c>
+      <c r="E160" t="s">
+        <v>196</v>
+      </c>
+      <c r="F160" t="s">
+        <v>197</v>
+      </c>
+      <c r="G160" t="s">
+        <v>10</v>
+      </c>
+      <c r="H160" t="s">
+        <v>65</v>
+      </c>
+      <c r="I160" t="s">
+        <v>48</v>
+      </c>
+      <c r="J160" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="161" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B161"/>
+      <c r="C161"/>
+      <c r="D161" t="s">
+        <v>348</v>
+      </c>
+      <c r="E161" t="s">
+        <v>156</v>
+      </c>
+      <c r="F161" t="s">
+        <v>143</v>
+      </c>
+      <c r="G161" t="s">
+        <v>10</v>
+      </c>
+      <c r="H161" t="s">
+        <v>61</v>
+      </c>
+      <c r="I161" t="s">
+        <v>48</v>
+      </c>
+      <c r="J161" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="162" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B162"/>
+      <c r="C162"/>
+      <c r="D162" t="s">
+        <v>349</v>
+      </c>
+      <c r="E162" t="s">
+        <v>112</v>
+      </c>
+      <c r="F162" t="s">
+        <v>113</v>
+      </c>
+      <c r="G162" t="s">
+        <v>10</v>
+      </c>
+      <c r="H162" t="s">
+        <v>65</v>
+      </c>
+      <c r="I162" t="s">
+        <v>31</v>
+      </c>
+      <c r="J162" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="163" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B163"/>
+      <c r="C163"/>
+      <c r="D163" t="s">
+        <v>350</v>
+      </c>
+      <c r="E163" t="s">
+        <v>351</v>
+      </c>
+      <c r="F163" t="s">
+        <v>131</v>
+      </c>
+      <c r="G163" t="s">
+        <v>10</v>
+      </c>
+      <c r="H163" t="s">
+        <v>59</v>
+      </c>
+      <c r="I163" t="s">
+        <v>46</v>
+      </c>
+      <c r="J163" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="164" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B164"/>
+      <c r="C164"/>
+      <c r="D164" t="s">
+        <v>352</v>
+      </c>
+      <c r="E164" t="s">
+        <v>353</v>
+      </c>
+      <c r="F164" t="s">
+        <v>354</v>
+      </c>
+      <c r="G164" t="s">
+        <v>10</v>
+      </c>
+      <c r="H164" t="s">
+        <v>61</v>
+      </c>
+      <c r="I164" t="s">
+        <v>38</v>
+      </c>
+      <c r="J164" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="165" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B165"/>
+      <c r="C165"/>
+      <c r="D165" t="s">
+        <v>355</v>
+      </c>
+      <c r="E165" t="s">
+        <v>212</v>
+      </c>
+      <c r="F165" t="s">
+        <v>213</v>
+      </c>
+      <c r="G165" t="s">
+        <v>10</v>
+      </c>
+      <c r="H165" t="s">
+        <v>65</v>
+      </c>
+      <c r="I165" t="s">
+        <v>218</v>
+      </c>
+      <c r="J165" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="166" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B166"/>
+      <c r="C166"/>
+      <c r="D166" t="s">
+        <v>356</v>
+      </c>
+      <c r="E166" t="s">
+        <v>63</v>
+      </c>
+      <c r="F166" t="s">
+        <v>97</v>
+      </c>
+      <c r="G166" t="s">
+        <v>10</v>
+      </c>
+      <c r="H166" t="s">
+        <v>61</v>
+      </c>
+      <c r="I166" t="s">
+        <v>41</v>
+      </c>
+      <c r="J166" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="167" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B167"/>
+      <c r="C167"/>
+      <c r="D167" t="s">
+        <v>357</v>
+      </c>
+      <c r="E167" t="s">
+        <v>258</v>
+      </c>
+      <c r="F167" t="s">
+        <v>143</v>
+      </c>
+      <c r="G167" t="s">
+        <v>10</v>
+      </c>
+      <c r="H167" t="s">
+        <v>61</v>
+      </c>
+      <c r="I167" t="s">
+        <v>39</v>
+      </c>
+      <c r="J167" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="168" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B168"/>
+      <c r="C168"/>
+      <c r="D168" t="s">
+        <v>358</v>
+      </c>
+      <c r="E168" t="s">
+        <v>264</v>
+      </c>
+      <c r="F168" t="s">
+        <v>76</v>
+      </c>
+      <c r="G168" t="s">
+        <v>10</v>
+      </c>
+      <c r="H168" t="s">
+        <v>65</v>
+      </c>
+      <c r="I168" t="s">
+        <v>29</v>
+      </c>
+      <c r="J168" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="169" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B169"/>
+      <c r="C169"/>
+      <c r="D169" t="s">
+        <v>359</v>
+      </c>
+      <c r="E169" t="s">
+        <v>83</v>
+      </c>
+      <c r="F169" t="s">
+        <v>84</v>
+      </c>
+      <c r="G169" t="s">
+        <v>10</v>
+      </c>
+      <c r="H169" t="s">
+        <v>59</v>
+      </c>
+      <c r="I169" t="s">
+        <v>41</v>
+      </c>
+      <c r="J169" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="170" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B170"/>
+      <c r="C170"/>
+      <c r="D170" t="s">
+        <v>360</v>
+      </c>
+      <c r="E170" t="s">
+        <v>212</v>
+      </c>
+      <c r="F170" t="s">
+        <v>213</v>
+      </c>
+      <c r="G170" t="s">
+        <v>10</v>
+      </c>
+      <c r="H170" t="s">
+        <v>65</v>
+      </c>
+      <c r="I170" t="s">
+        <v>29</v>
+      </c>
+      <c r="J170" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="171" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B171"/>
+      <c r="C171"/>
+      <c r="D171" t="s">
+        <v>361</v>
+      </c>
+      <c r="E171" t="s">
+        <v>362</v>
+      </c>
+      <c r="F171" t="s">
+        <v>76</v>
+      </c>
+      <c r="G171" t="s">
+        <v>10</v>
+      </c>
+      <c r="H171" t="s">
+        <v>65</v>
+      </c>
+      <c r="I171" t="s">
+        <v>39</v>
+      </c>
+      <c r="J171" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="172" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B172"/>
+      <c r="C172"/>
+      <c r="D172" t="s">
+        <v>363</v>
+      </c>
+      <c r="E172" t="s">
+        <v>248</v>
+      </c>
+      <c r="F172" t="s">
+        <v>104</v>
+      </c>
+      <c r="G172" t="s">
+        <v>10</v>
+      </c>
+      <c r="H172" t="s">
+        <v>59</v>
+      </c>
+      <c r="I172" t="s">
+        <v>20</v>
+      </c>
+      <c r="J172" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="173" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B173"/>
+      <c r="C173"/>
+      <c r="D173" t="s">
+        <v>364</v>
+      </c>
+      <c r="E173" t="s">
+        <v>73</v>
+      </c>
+      <c r="F173" t="s">
+        <v>78</v>
+      </c>
+      <c r="G173" t="s">
+        <v>10</v>
+      </c>
+      <c r="H173" t="s">
+        <v>61</v>
+      </c>
+      <c r="I173" t="s">
+        <v>33</v>
+      </c>
+      <c r="J173" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="174" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B174"/>
+      <c r="C174"/>
+      <c r="D174" t="s">
+        <v>365</v>
+      </c>
+      <c r="E174" t="s">
+        <v>366</v>
+      </c>
+      <c r="F174" t="s">
+        <v>230</v>
+      </c>
+      <c r="G174" t="s">
+        <v>10</v>
+      </c>
+      <c r="H174" t="s">
+        <v>65</v>
+      </c>
+      <c r="I174" t="s">
+        <v>30</v>
+      </c>
+      <c r="J174" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="175" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B175"/>
+      <c r="C175"/>
+      <c r="D175" t="s">
+        <v>367</v>
+      </c>
+      <c r="E175" t="s">
+        <v>83</v>
+      </c>
+      <c r="F175" t="s">
+        <v>84</v>
+      </c>
+      <c r="G175" t="s">
+        <v>10</v>
+      </c>
+      <c r="H175" t="s">
+        <v>59</v>
+      </c>
+      <c r="I175" t="s">
+        <v>45</v>
+      </c>
+      <c r="J175" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="176" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B176"/>
+      <c r="C176"/>
+      <c r="D176" t="s">
+        <v>368</v>
+      </c>
+      <c r="E176" t="s">
+        <v>136</v>
+      </c>
+      <c r="F176" t="s">
+        <v>76</v>
+      </c>
+      <c r="G176" t="s">
+        <v>10</v>
+      </c>
+      <c r="H176" t="s">
+        <v>65</v>
+      </c>
+      <c r="I176" t="s">
+        <v>42</v>
+      </c>
+      <c r="J176" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="177" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B177"/>
+      <c r="C177"/>
+      <c r="D177" t="s">
+        <v>369</v>
+      </c>
+      <c r="E177" t="s">
+        <v>94</v>
+      </c>
+      <c r="F177" t="s">
+        <v>13</v>
+      </c>
+      <c r="G177" t="s">
+        <v>10</v>
+      </c>
+      <c r="H177" t="s">
+        <v>65</v>
+      </c>
+      <c r="I177" t="s">
+        <v>28</v>
+      </c>
+      <c r="J177" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="178" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B178"/>
+      <c r="C178"/>
+      <c r="D178" t="s">
+        <v>370</v>
+      </c>
+      <c r="E178" t="s">
+        <v>170</v>
+      </c>
+      <c r="F178" t="s">
+        <v>81</v>
+      </c>
+      <c r="G178" t="s">
+        <v>10</v>
+      </c>
+      <c r="H178" t="s">
+        <v>68</v>
+      </c>
+      <c r="I178" t="s">
+        <v>44</v>
+      </c>
+      <c r="J178" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="179" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B179"/>
+      <c r="C179"/>
+      <c r="D179" t="s">
+        <v>371</v>
+      </c>
+      <c r="E179" t="s">
+        <v>372</v>
+      </c>
+      <c r="F179" t="s">
+        <v>104</v>
+      </c>
+      <c r="G179" t="s">
+        <v>10</v>
+      </c>
+      <c r="H179" t="s">
+        <v>59</v>
+      </c>
+      <c r="I179" t="s">
+        <v>218</v>
+      </c>
+      <c r="J179" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="180" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B180"/>
+      <c r="C180"/>
+      <c r="D180" t="s">
+        <v>373</v>
+      </c>
+      <c r="E180" t="s">
+        <v>63</v>
+      </c>
+      <c r="F180" t="s">
+        <v>64</v>
+      </c>
+      <c r="G180" t="s">
+        <v>10</v>
+      </c>
+      <c r="H180" t="s">
+        <v>65</v>
+      </c>
+      <c r="I180" t="s">
+        <v>36</v>
+      </c>
+      <c r="J180" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="181" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B181"/>
+      <c r="C181"/>
+      <c r="D181" t="s">
+        <v>374</v>
+      </c>
+      <c r="E181" t="s">
+        <v>123</v>
+      </c>
+      <c r="F181" t="s">
+        <v>147</v>
+      </c>
+      <c r="G181" t="s">
+        <v>10</v>
+      </c>
+      <c r="H181" t="s">
+        <v>65</v>
+      </c>
+      <c r="I181" t="s">
+        <v>31</v>
+      </c>
+      <c r="J181" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="182" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B182"/>
+      <c r="C182"/>
+      <c r="D182" t="s">
+        <v>375</v>
+      </c>
+      <c r="E182" t="s">
+        <v>73</v>
+      </c>
+      <c r="F182" t="s">
+        <v>78</v>
+      </c>
+      <c r="G182" t="s">
+        <v>10</v>
+      </c>
+      <c r="H182" t="s">
+        <v>61</v>
+      </c>
+      <c r="I182" t="s">
+        <v>32</v>
+      </c>
+      <c r="J182" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="183" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B183"/>
+      <c r="C183"/>
+      <c r="D183" t="s">
+        <v>376</v>
+      </c>
+      <c r="E183" t="s">
+        <v>377</v>
+      </c>
+      <c r="F183" t="s">
+        <v>147</v>
+      </c>
+      <c r="G183" t="s">
+        <v>10</v>
+      </c>
+      <c r="H183" t="s">
+        <v>65</v>
+      </c>
+      <c r="I183" t="s">
+        <v>41</v>
+      </c>
+      <c r="J183" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="184" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B184"/>
+      <c r="C184"/>
+      <c r="D184" t="s">
+        <v>378</v>
+      </c>
+      <c r="E184" t="s">
+        <v>379</v>
+      </c>
+      <c r="F184" t="s">
+        <v>197</v>
+      </c>
+      <c r="G184" t="s">
+        <v>10</v>
+      </c>
+      <c r="H184" t="s">
+        <v>65</v>
+      </c>
+      <c r="I184" t="s">
+        <v>22</v>
+      </c>
+      <c r="J184" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="185" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B185"/>
+      <c r="C185"/>
+      <c r="D185" t="s">
+        <v>380</v>
+      </c>
+      <c r="E185" t="s">
+        <v>381</v>
+      </c>
+      <c r="F185" t="s">
+        <v>76</v>
+      </c>
+      <c r="G185" t="s">
+        <v>10</v>
+      </c>
+      <c r="H185" t="s">
+        <v>65</v>
+      </c>
+      <c r="I185" t="s">
+        <v>28</v>
+      </c>
+      <c r="J185" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="186" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B186"/>
+      <c r="C186"/>
+      <c r="D186" t="s">
+        <v>382</v>
+      </c>
+      <c r="E186" t="s">
+        <v>86</v>
+      </c>
+      <c r="F186" t="s">
+        <v>81</v>
+      </c>
+      <c r="G186" t="s">
+        <v>10</v>
+      </c>
+      <c r="H186" t="s">
+        <v>68</v>
+      </c>
+      <c r="I186" t="s">
+        <v>43</v>
+      </c>
+      <c r="J186" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="187" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B187"/>
+      <c r="C187"/>
+      <c r="D187" t="s">
+        <v>383</v>
+      </c>
+      <c r="E187" t="s">
+        <v>276</v>
+      </c>
+      <c r="F187" t="s">
+        <v>277</v>
+      </c>
+      <c r="G187" t="s">
+        <v>10</v>
+      </c>
+      <c r="H187" t="s">
+        <v>65</v>
+      </c>
+      <c r="I187" t="s">
+        <v>35</v>
+      </c>
+      <c r="J187" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="188" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B188"/>
+      <c r="C188"/>
+      <c r="D188" t="s">
+        <v>384</v>
+      </c>
+      <c r="E188" t="s">
+        <v>385</v>
+      </c>
+      <c r="F188" t="s">
+        <v>13</v>
+      </c>
+      <c r="G188" t="s">
+        <v>10</v>
+      </c>
+      <c r="H188" t="s">
+        <v>61</v>
+      </c>
+      <c r="I188" t="s">
+        <v>42</v>
+      </c>
+      <c r="J188" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="189" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B189"/>
+      <c r="C189"/>
+      <c r="D189" t="s">
+        <v>386</v>
+      </c>
+      <c r="E189" t="s">
+        <v>387</v>
+      </c>
+      <c r="F189" t="s">
+        <v>230</v>
+      </c>
+      <c r="G189" t="s">
+        <v>10</v>
+      </c>
+      <c r="H189" t="s">
+        <v>65</v>
+      </c>
+      <c r="I189" t="s">
+        <v>22</v>
+      </c>
+      <c r="J189" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="190" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B190"/>
+      <c r="C190"/>
+      <c r="D190" t="s">
+        <v>388</v>
+      </c>
+      <c r="E190" t="s">
+        <v>389</v>
+      </c>
+      <c r="F190" t="s">
+        <v>274</v>
+      </c>
+      <c r="G190" t="s">
+        <v>10</v>
+      </c>
+      <c r="H190" t="s">
+        <v>65</v>
+      </c>
+      <c r="I190" t="s">
+        <v>37</v>
+      </c>
+      <c r="J190" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="191" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B191"/>
+      <c r="C191"/>
+      <c r="D191" t="s">
+        <v>390</v>
+      </c>
+      <c r="E191" t="s">
+        <v>193</v>
+      </c>
+      <c r="F191" t="s">
+        <v>71</v>
+      </c>
+      <c r="G191" t="s">
+        <v>10</v>
+      </c>
+      <c r="H191" t="s">
+        <v>65</v>
+      </c>
+      <c r="I191" t="s">
+        <v>34</v>
+      </c>
+      <c r="J191" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="192" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B192"/>
+      <c r="C192"/>
+      <c r="D192" t="s">
+        <v>391</v>
+      </c>
+      <c r="E192" t="s">
+        <v>289</v>
+      </c>
+      <c r="F192" t="s">
+        <v>187</v>
+      </c>
+      <c r="G192" t="s">
+        <v>10</v>
+      </c>
+      <c r="H192" t="s">
+        <v>59</v>
+      </c>
+      <c r="I192" t="s">
+        <v>40</v>
+      </c>
+      <c r="J192" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="193" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B193"/>
+      <c r="C193"/>
+      <c r="D193" t="s">
+        <v>392</v>
+      </c>
+      <c r="E193" t="s">
+        <v>393</v>
+      </c>
+      <c r="F193" t="s">
+        <v>64</v>
+      </c>
+      <c r="G193" t="s">
+        <v>10</v>
+      </c>
+      <c r="H193" t="s">
+        <v>65</v>
+      </c>
+      <c r="I193" t="s">
+        <v>47</v>
+      </c>
+      <c r="J193" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="194" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B194"/>
+      <c r="C194"/>
+      <c r="D194" t="s">
+        <v>394</v>
+      </c>
+      <c r="E194" t="s">
+        <v>128</v>
+      </c>
+      <c r="F194" t="s">
+        <v>71</v>
+      </c>
+      <c r="G194" t="s">
+        <v>10</v>
+      </c>
+      <c r="H194" t="s">
+        <v>65</v>
+      </c>
+      <c r="I194" t="s">
+        <v>218</v>
+      </c>
+      <c r="J194" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="195" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B195"/>
+      <c r="C195"/>
+      <c r="D195" t="s">
+        <v>395</v>
+      </c>
+      <c r="E195" t="s">
+        <v>396</v>
+      </c>
+      <c r="F195" t="s">
+        <v>143</v>
+      </c>
+      <c r="G195" t="s">
+        <v>10</v>
+      </c>
+      <c r="H195" t="s">
+        <v>61</v>
+      </c>
+      <c r="I195" t="s">
+        <v>43</v>
+      </c>
+      <c r="J195" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="196" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B196"/>
+      <c r="C196"/>
+      <c r="D196" t="s">
+        <v>397</v>
+      </c>
+      <c r="E196" t="s">
+        <v>398</v>
+      </c>
+      <c r="F196" t="s">
+        <v>332</v>
+      </c>
+      <c r="G196" t="s">
+        <v>10</v>
+      </c>
+      <c r="H196" t="s">
+        <v>68</v>
+      </c>
+      <c r="I196" t="s">
+        <v>45</v>
+      </c>
+      <c r="J196" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="197" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B197"/>
+      <c r="C197"/>
+      <c r="D197" t="s">
+        <v>399</v>
+      </c>
+      <c r="E197" t="s">
+        <v>289</v>
+      </c>
+      <c r="F197" t="s">
+        <v>400</v>
+      </c>
+      <c r="G197" t="s">
+        <v>10</v>
+      </c>
+      <c r="H197" t="s">
+        <v>65</v>
+      </c>
+      <c r="I197" t="s">
+        <v>40</v>
+      </c>
+      <c r="J197" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="198" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B198"/>
+      <c r="C198"/>
+      <c r="D198" t="s">
+        <v>401</v>
+      </c>
+      <c r="E198" t="s">
+        <v>402</v>
+      </c>
+      <c r="F198" t="s">
+        <v>143</v>
+      </c>
+      <c r="G198" t="s">
+        <v>10</v>
+      </c>
+      <c r="H198" t="s">
+        <v>61</v>
+      </c>
+      <c r="I198" t="s">
+        <v>37</v>
+      </c>
+      <c r="J198" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="199" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B199"/>
+      <c r="C199"/>
+      <c r="D199" t="s">
+        <v>403</v>
+      </c>
+      <c r="E199" t="s">
+        <v>282</v>
+      </c>
+      <c r="F199" t="s">
+        <v>76</v>
+      </c>
+      <c r="G199" t="s">
+        <v>10</v>
+      </c>
+      <c r="H199" t="s">
+        <v>65</v>
+      </c>
+      <c r="I199" t="s">
+        <v>29</v>
+      </c>
+      <c r="J199" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="200" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B200"/>
+      <c r="C200"/>
+      <c r="D200" t="s">
+        <v>404</v>
+      </c>
+      <c r="E200" t="s">
+        <v>405</v>
+      </c>
+      <c r="F200" t="s">
+        <v>110</v>
+      </c>
+      <c r="G200" t="s">
+        <v>10</v>
+      </c>
+      <c r="H200" t="s">
+        <v>68</v>
+      </c>
+      <c r="I200" t="s">
+        <v>45</v>
+      </c>
+      <c r="J200" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="201" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B201"/>
+      <c r="C201"/>
+      <c r="D201" t="s">
+        <v>406</v>
+      </c>
+      <c r="E201" t="s">
+        <v>145</v>
+      </c>
+      <c r="F201" t="s">
+        <v>64</v>
+      </c>
+      <c r="G201" t="s">
+        <v>10</v>
+      </c>
+      <c r="H201" t="s">
+        <v>65</v>
+      </c>
+      <c r="I201" t="s">
+        <v>45</v>
+      </c>
+      <c r="J201" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="202" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B202"/>
+      <c r="C202"/>
+      <c r="D202" t="s">
+        <v>407</v>
+      </c>
+      <c r="E202" t="s">
+        <v>235</v>
+      </c>
+      <c r="F202" t="s">
+        <v>236</v>
+      </c>
+      <c r="G202" t="s">
+        <v>10</v>
+      </c>
+      <c r="H202" t="s">
+        <v>61</v>
+      </c>
+      <c r="I202" t="s">
+        <v>38</v>
+      </c>
+      <c r="J202" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="203" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B203"/>
+      <c r="C203"/>
+      <c r="D203" t="s">
+        <v>408</v>
+      </c>
+      <c r="E203" t="s">
+        <v>409</v>
+      </c>
+      <c r="F203" t="s">
+        <v>89</v>
+      </c>
+      <c r="G203" t="s">
+        <v>10</v>
+      </c>
+      <c r="H203" t="s">
+        <v>65</v>
+      </c>
+      <c r="I203" t="s">
+        <v>47</v>
+      </c>
+      <c r="J203" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="204" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B204"/>
+      <c r="C204"/>
+      <c r="D204" t="s">
+        <v>410</v>
+      </c>
+      <c r="E204" t="s">
+        <v>128</v>
+      </c>
+      <c r="F204" t="s">
+        <v>71</v>
+      </c>
+      <c r="G204" t="s">
+        <v>10</v>
+      </c>
+      <c r="H204" t="s">
+        <v>65</v>
+      </c>
+      <c r="I204" t="s">
+        <v>46</v>
+      </c>
+      <c r="J204" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="205" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B205"/>
+      <c r="C205"/>
+      <c r="D205" t="s">
+        <v>411</v>
+      </c>
+      <c r="E205" t="s">
+        <v>19</v>
+      </c>
+      <c r="F205" t="s">
+        <v>92</v>
+      </c>
+      <c r="G205" t="s">
+        <v>10</v>
+      </c>
+      <c r="H205" t="s">
+        <v>68</v>
+      </c>
+      <c r="I205" t="s">
+        <v>32</v>
+      </c>
+      <c r="J205" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="206" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B206"/>
+      <c r="C206"/>
+      <c r="D206" t="s">
+        <v>412</v>
+      </c>
+      <c r="E206" t="s">
+        <v>413</v>
+      </c>
+      <c r="F206" t="s">
+        <v>332</v>
+      </c>
+      <c r="G206" t="s">
+        <v>10</v>
+      </c>
+      <c r="H206" t="s">
+        <v>68</v>
+      </c>
+      <c r="I206" t="s">
+        <v>47</v>
+      </c>
+      <c r="J206" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="207" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B207"/>
+      <c r="C207"/>
+      <c r="D207" t="s">
+        <v>414</v>
+      </c>
+      <c r="E207" t="s">
+        <v>415</v>
+      </c>
+      <c r="F207" t="s">
+        <v>213</v>
+      </c>
+      <c r="G207" t="s">
+        <v>10</v>
+      </c>
+      <c r="H207" t="s">
+        <v>65</v>
+      </c>
+      <c r="I207" t="s">
+        <v>30</v>
+      </c>
+      <c r="J207" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="208" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B208"/>
+      <c r="C208"/>
+      <c r="D208" t="s">
+        <v>416</v>
+      </c>
+      <c r="E208" t="s">
+        <v>153</v>
+      </c>
+      <c r="F208" t="s">
+        <v>131</v>
+      </c>
+      <c r="G208" t="s">
+        <v>10</v>
+      </c>
+      <c r="H208" t="s">
+        <v>59</v>
+      </c>
+      <c r="I208" t="s">
+        <v>30</v>
+      </c>
+      <c r="J208" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="209" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B209"/>
+      <c r="C209"/>
+      <c r="D209" t="s">
+        <v>417</v>
+      </c>
+      <c r="E209" t="s">
+        <v>91</v>
+      </c>
+      <c r="F209" t="s">
+        <v>92</v>
+      </c>
+      <c r="G209" t="s">
+        <v>10</v>
+      </c>
+      <c r="H209" t="s">
+        <v>68</v>
+      </c>
+      <c r="I209" t="s">
+        <v>46</v>
+      </c>
+      <c r="J209" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="210" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B210"/>
+      <c r="C210"/>
+      <c r="D210" t="s">
+        <v>418</v>
+      </c>
+      <c r="E210" t="s">
+        <v>196</v>
+      </c>
+      <c r="F210" t="s">
+        <v>197</v>
+      </c>
+      <c r="G210" t="s">
+        <v>10</v>
+      </c>
+      <c r="H210" t="s">
+        <v>65</v>
+      </c>
+      <c r="I210" t="s">
+        <v>31</v>
+      </c>
+      <c r="J210" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="211" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B211"/>
+      <c r="C211"/>
+      <c r="D211" t="s">
+        <v>419</v>
+      </c>
+      <c r="E211" t="s">
+        <v>142</v>
+      </c>
+      <c r="F211" t="s">
+        <v>143</v>
+      </c>
+      <c r="G211" t="s">
+        <v>10</v>
+      </c>
+      <c r="H211" t="s">
+        <v>61</v>
+      </c>
+      <c r="I211" t="s">
+        <v>33</v>
+      </c>
+      <c r="J211" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="212" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B212"/>
+      <c r="C212"/>
+      <c r="D212" t="s">
+        <v>420</v>
+      </c>
+      <c r="E212" t="s">
+        <v>421</v>
+      </c>
+      <c r="F212" t="s">
+        <v>64</v>
+      </c>
+      <c r="G212" t="s">
+        <v>10</v>
+      </c>
+      <c r="H212" t="s">
+        <v>65</v>
+      </c>
+      <c r="I212" t="s">
+        <v>22</v>
+      </c>
+      <c r="J212" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="213" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B213"/>
+      <c r="C213"/>
+      <c r="D213" t="s">
+        <v>422</v>
+      </c>
+      <c r="E213" t="s">
+        <v>423</v>
+      </c>
+      <c r="F213" t="s">
+        <v>230</v>
+      </c>
+      <c r="G213" t="s">
+        <v>10</v>
+      </c>
+      <c r="H213" t="s">
+        <v>65</v>
+      </c>
+      <c r="I213" t="s">
+        <v>42</v>
+      </c>
+      <c r="J213" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="214" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B214"/>
+      <c r="C214"/>
+      <c r="D214" t="s">
+        <v>424</v>
+      </c>
+      <c r="E214" t="s">
+        <v>242</v>
+      </c>
+      <c r="F214" t="s">
+        <v>159</v>
+      </c>
+      <c r="G214" t="s">
+        <v>10</v>
+      </c>
+      <c r="H214" t="s">
+        <v>59</v>
+      </c>
+      <c r="I214" t="s">
+        <v>33</v>
+      </c>
+      <c r="J214" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="215" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B215"/>
+      <c r="C215"/>
+      <c r="D215" t="s">
+        <v>425</v>
+      </c>
+      <c r="E215" t="s">
+        <v>171</v>
+      </c>
+      <c r="F215" t="s">
+        <v>172</v>
+      </c>
+      <c r="G215" t="s">
+        <v>10</v>
+      </c>
+      <c r="H215" t="s">
+        <v>59</v>
+      </c>
+      <c r="I215" t="s">
+        <v>36</v>
+      </c>
+      <c r="J215" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="216" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B216"/>
+      <c r="C216"/>
+      <c r="D216" t="s">
+        <v>426</v>
+      </c>
+      <c r="E216" t="s">
+        <v>112</v>
+      </c>
+      <c r="F216" t="s">
+        <v>113</v>
+      </c>
+      <c r="G216" t="s">
+        <v>10</v>
+      </c>
+      <c r="H216" t="s">
+        <v>65</v>
+      </c>
+      <c r="I216" t="s">
+        <v>46</v>
+      </c>
+      <c r="J216" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="217" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B217"/>
+      <c r="C217"/>
+      <c r="D217" t="s">
+        <v>427</v>
+      </c>
+      <c r="E217" t="s">
+        <v>428</v>
+      </c>
+      <c r="F217" t="s">
+        <v>143</v>
+      </c>
+      <c r="G217" t="s">
+        <v>10</v>
+      </c>
+      <c r="H217" t="s">
+        <v>61</v>
+      </c>
+      <c r="I217" t="s">
+        <v>35</v>
+      </c>
+      <c r="J217" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="218" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B218"/>
+      <c r="C218"/>
+      <c r="D218" t="s">
+        <v>429</v>
+      </c>
+      <c r="E218" t="s">
+        <v>430</v>
+      </c>
+      <c r="F218" t="s">
+        <v>92</v>
+      </c>
+      <c r="G218" t="s">
+        <v>10</v>
+      </c>
+      <c r="H218" t="s">
+        <v>68</v>
+      </c>
+      <c r="I218" t="s">
+        <v>20</v>
+      </c>
+      <c r="J218" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="219" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B219"/>
+      <c r="C219"/>
+      <c r="D219" t="s">
+        <v>431</v>
+      </c>
+      <c r="E219" t="s">
+        <v>150</v>
+      </c>
+      <c r="F219" t="s">
+        <v>143</v>
+      </c>
+      <c r="G219" t="s">
+        <v>10</v>
+      </c>
+      <c r="H219" t="s">
+        <v>61</v>
+      </c>
+      <c r="I219" t="s">
+        <v>48</v>
+      </c>
+      <c r="J219" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="220" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B220"/>
+      <c r="C220"/>
+      <c r="D220" t="s">
+        <v>432</v>
+      </c>
+      <c r="E220" t="s">
+        <v>196</v>
+      </c>
+      <c r="F220" t="s">
+        <v>197</v>
+      </c>
+      <c r="G220" t="s">
+        <v>10</v>
+      </c>
+      <c r="H220" t="s">
+        <v>65</v>
+      </c>
+      <c r="I220" t="s">
+        <v>37</v>
+      </c>
+      <c r="J220" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="221" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B221"/>
+      <c r="C221"/>
+      <c r="D221" t="s">
+        <v>433</v>
+      </c>
+      <c r="E221" t="s">
+        <v>289</v>
+      </c>
+      <c r="F221" t="s">
+        <v>187</v>
+      </c>
+      <c r="G221" t="s">
+        <v>10</v>
+      </c>
+      <c r="H221" t="s">
+        <v>59</v>
+      </c>
+      <c r="I221" t="s">
+        <v>43</v>
+      </c>
+      <c r="J221" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="222" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B222"/>
+      <c r="C222"/>
+      <c r="D222" t="s">
+        <v>434</v>
+      </c>
+      <c r="E222" t="s">
+        <v>103</v>
+      </c>
+      <c r="F222" t="s">
+        <v>104</v>
+      </c>
+      <c r="G222" t="s">
+        <v>10</v>
+      </c>
+      <c r="H222" t="s">
+        <v>59</v>
+      </c>
+      <c r="I222" t="s">
+        <v>40</v>
+      </c>
+      <c r="J222" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="223" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B223"/>
+      <c r="C223"/>
+      <c r="D223" t="s">
+        <v>435</v>
+      </c>
+      <c r="E223" t="s">
+        <v>381</v>
+      </c>
+      <c r="F223" t="s">
+        <v>76</v>
+      </c>
+      <c r="G223" t="s">
+        <v>10</v>
+      </c>
+      <c r="H223" t="s">
+        <v>65</v>
+      </c>
+      <c r="I223" t="s">
+        <v>47</v>
+      </c>
+      <c r="J223" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="224" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B224"/>
+      <c r="C224"/>
+      <c r="D224" t="s">
+        <v>436</v>
+      </c>
+      <c r="E224" t="s">
+        <v>437</v>
+      </c>
+      <c r="F224" t="s">
+        <v>213</v>
+      </c>
+      <c r="G224" t="s">
+        <v>10</v>
+      </c>
+      <c r="H224" t="s">
+        <v>65</v>
+      </c>
+      <c r="I224" t="s">
+        <v>34</v>
+      </c>
+      <c r="J224" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="225" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B225"/>
+      <c r="C225"/>
+      <c r="D225" t="s">
+        <v>438</v>
+      </c>
+      <c r="E225" t="s">
+        <v>67</v>
+      </c>
+      <c r="F225" t="s">
+        <v>16</v>
+      </c>
+      <c r="G225" t="s">
+        <v>10</v>
+      </c>
+      <c r="H225" t="s">
+        <v>68</v>
+      </c>
+      <c r="I225" t="s">
+        <v>48</v>
+      </c>
+      <c r="J225" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="226" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B226"/>
+      <c r="C226"/>
+      <c r="D226" t="s">
+        <v>439</v>
+      </c>
+      <c r="E226" t="s">
+        <v>276</v>
+      </c>
+      <c r="F226" t="s">
+        <v>277</v>
+      </c>
+      <c r="G226" t="s">
+        <v>10</v>
+      </c>
+      <c r="H226" t="s">
+        <v>65</v>
+      </c>
+      <c r="I226" t="s">
+        <v>44</v>
+      </c>
+      <c r="J226" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="227" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B227"/>
+      <c r="C227"/>
+      <c r="D227" t="s">
+        <v>440</v>
+      </c>
+      <c r="E227" t="s">
+        <v>276</v>
+      </c>
+      <c r="F227" t="s">
+        <v>277</v>
+      </c>
+      <c r="G227" t="s">
+        <v>10</v>
+      </c>
+      <c r="H227" t="s">
+        <v>65</v>
+      </c>
+      <c r="I227" t="s">
+        <v>46</v>
+      </c>
+      <c r="J227" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="228" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B228"/>
+      <c r="C228"/>
+      <c r="D228" t="s">
+        <v>441</v>
+      </c>
+      <c r="E228" t="s">
+        <v>389</v>
+      </c>
+      <c r="F228" t="s">
+        <v>274</v>
+      </c>
+      <c r="G228" t="s">
+        <v>10</v>
+      </c>
+      <c r="H228" t="s">
+        <v>65</v>
+      </c>
+      <c r="I228" t="s">
+        <v>35</v>
+      </c>
+      <c r="J228" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="229" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B229"/>
+      <c r="C229"/>
+      <c r="D229" t="s">
+        <v>442</v>
+      </c>
+      <c r="E229" t="s">
+        <v>248</v>
+      </c>
+      <c r="F229" t="s">
+        <v>104</v>
+      </c>
+      <c r="G229" t="s">
+        <v>10</v>
+      </c>
+      <c r="H229" t="s">
+        <v>59</v>
+      </c>
+      <c r="I229" t="s">
+        <v>34</v>
+      </c>
+      <c r="J229" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="230" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B230"/>
+      <c r="C230"/>
+      <c r="D230" t="s">
+        <v>443</v>
+      </c>
+      <c r="E230" t="s">
+        <v>310</v>
+      </c>
+      <c r="F230" t="s">
+        <v>213</v>
+      </c>
+      <c r="G230" t="s">
+        <v>10</v>
+      </c>
+      <c r="H230" t="s">
+        <v>65</v>
+      </c>
+      <c r="I230" t="s">
+        <v>44</v>
+      </c>
+      <c r="J230" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="231" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B231"/>
+      <c r="C231"/>
+      <c r="D231" t="s">
+        <v>444</v>
+      </c>
+      <c r="E231" t="s">
+        <v>445</v>
+      </c>
+      <c r="F231" t="s">
+        <v>97</v>
+      </c>
+      <c r="G231" t="s">
+        <v>10</v>
+      </c>
+      <c r="H231" t="s">
+        <v>61</v>
+      </c>
+      <c r="I231" t="s">
+        <v>48</v>
+      </c>
+      <c r="J231" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="232" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B232"/>
+      <c r="C232"/>
+      <c r="D232" t="s">
+        <v>446</v>
+      </c>
+      <c r="E232" t="s">
+        <v>184</v>
+      </c>
+      <c r="F232" t="s">
+        <v>81</v>
+      </c>
+      <c r="G232" t="s">
+        <v>10</v>
+      </c>
+      <c r="H232" t="s">
+        <v>68</v>
+      </c>
+      <c r="I232" t="s">
+        <v>20</v>
+      </c>
+      <c r="J232" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="233" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B233"/>
+      <c r="C233"/>
+      <c r="D233" t="s">
+        <v>447</v>
+      </c>
+      <c r="E233" t="s">
+        <v>225</v>
+      </c>
+      <c r="F233" t="s">
+        <v>197</v>
+      </c>
+      <c r="G233" t="s">
+        <v>10</v>
+      </c>
+      <c r="H233" t="s">
+        <v>65</v>
+      </c>
+      <c r="I233" t="s">
+        <v>36</v>
+      </c>
+      <c r="J233" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="234" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B234"/>
+      <c r="C234"/>
+      <c r="D234" t="s">
+        <v>448</v>
+      </c>
+      <c r="E234" t="s">
+        <v>449</v>
+      </c>
+      <c r="F234" t="s">
+        <v>208</v>
+      </c>
+      <c r="G234" t="s">
+        <v>10</v>
+      </c>
+      <c r="H234" t="s">
+        <v>61</v>
+      </c>
+      <c r="I234" t="s">
+        <v>28</v>
+      </c>
+      <c r="J234" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="235" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B235"/>
+      <c r="C235"/>
+      <c r="D235" t="s">
+        <v>450</v>
+      </c>
+      <c r="E235" t="s">
+        <v>140</v>
+      </c>
+      <c r="F235" t="s">
+        <v>71</v>
+      </c>
+      <c r="G235" t="s">
+        <v>10</v>
+      </c>
+      <c r="H235" t="s">
+        <v>65</v>
+      </c>
+      <c r="I235" t="s">
+        <v>38</v>
+      </c>
+      <c r="J235" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="236" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B236"/>
+      <c r="C236"/>
+      <c r="D236" t="s">
+        <v>451</v>
+      </c>
+      <c r="E236" t="s">
+        <v>452</v>
+      </c>
+      <c r="F236" t="s">
+        <v>296</v>
+      </c>
+      <c r="G236" t="s">
+        <v>10</v>
+      </c>
+      <c r="H236" t="s">
+        <v>65</v>
+      </c>
+      <c r="I236" t="s">
+        <v>47</v>
+      </c>
+      <c r="J236" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="237" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B237"/>
+      <c r="C237"/>
+      <c r="D237" t="s">
+        <v>453</v>
+      </c>
+      <c r="E237" t="s">
+        <v>86</v>
+      </c>
+      <c r="F237" t="s">
+        <v>81</v>
+      </c>
+      <c r="G237" t="s">
+        <v>10</v>
+      </c>
+      <c r="H237" t="s">
+        <v>68</v>
+      </c>
+      <c r="I237" t="s">
+        <v>45</v>
+      </c>
+      <c r="J237" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="238" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B238"/>
+      <c r="C238"/>
+      <c r="D238" t="s">
+        <v>454</v>
+      </c>
+      <c r="E238" t="s">
+        <v>334</v>
+      </c>
+      <c r="F238" t="s">
+        <v>335</v>
+      </c>
+      <c r="G238" t="s">
+        <v>10</v>
+      </c>
+      <c r="H238" t="s">
+        <v>65</v>
+      </c>
+      <c r="I238" t="s">
+        <v>32</v>
+      </c>
+      <c r="J238" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="239" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B239"/>
+      <c r="C239"/>
+      <c r="D239" t="s">
+        <v>455</v>
+      </c>
+      <c r="E239" t="s">
+        <v>456</v>
+      </c>
+      <c r="F239" t="s">
+        <v>71</v>
+      </c>
+      <c r="G239" t="s">
+        <v>10</v>
+      </c>
+      <c r="H239" t="s">
+        <v>65</v>
+      </c>
+      <c r="I239" t="s">
+        <v>45</v>
+      </c>
+      <c r="J239" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="240" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B240"/>
+      <c r="C240"/>
+      <c r="D240" t="s">
+        <v>457</v>
+      </c>
+      <c r="E240" t="s">
+        <v>458</v>
+      </c>
+      <c r="F240" t="s">
+        <v>71</v>
+      </c>
+      <c r="G240" t="s">
+        <v>10</v>
+      </c>
+      <c r="H240" t="s">
+        <v>65</v>
+      </c>
+      <c r="I240" t="s">
+        <v>39</v>
+      </c>
+      <c r="J240" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="241" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B241"/>
+      <c r="C241"/>
+      <c r="D241" t="s">
+        <v>459</v>
+      </c>
+      <c r="E241" t="s">
+        <v>295</v>
+      </c>
+      <c r="F241" t="s">
+        <v>296</v>
+      </c>
+      <c r="G241" t="s">
+        <v>10</v>
+      </c>
+      <c r="H241" t="s">
+        <v>65</v>
+      </c>
+      <c r="I241" t="s">
+        <v>48</v>
+      </c>
+      <c r="J241" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="242" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B242"/>
+      <c r="C242"/>
+      <c r="D242" t="s">
+        <v>460</v>
+      </c>
+      <c r="E242" t="s">
+        <v>461</v>
+      </c>
+      <c r="F242" t="s">
+        <v>143</v>
+      </c>
+      <c r="G242" t="s">
+        <v>10</v>
+      </c>
+      <c r="H242" t="s">
+        <v>61</v>
+      </c>
+      <c r="I242" t="s">
+        <v>41</v>
+      </c>
+      <c r="J242" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="243" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B243"/>
+      <c r="C243"/>
+      <c r="D243" t="s">
+        <v>462</v>
+      </c>
+      <c r="E243" t="s">
+        <v>351</v>
+      </c>
+      <c r="F243" t="s">
+        <v>131</v>
+      </c>
+      <c r="G243" t="s">
+        <v>10</v>
+      </c>
+      <c r="H243" t="s">
+        <v>59</v>
+      </c>
+      <c r="I243" t="s">
+        <v>22</v>
+      </c>
+      <c r="J243" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="244" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B244"/>
+      <c r="C244"/>
+      <c r="D244" t="s">
+        <v>463</v>
+      </c>
+      <c r="E244" t="s">
+        <v>464</v>
+      </c>
+      <c r="F244" t="s">
+        <v>465</v>
+      </c>
+      <c r="G244" t="s">
+        <v>10</v>
+      </c>
+      <c r="H244" t="s">
+        <v>61</v>
+      </c>
+      <c r="I244" t="s">
+        <v>28</v>
+      </c>
+      <c r="J244" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="245" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B245"/>
+      <c r="C245"/>
+      <c r="D245" t="s">
+        <v>466</v>
+      </c>
+      <c r="E245" t="s">
+        <v>242</v>
+      </c>
+      <c r="F245" t="s">
+        <v>159</v>
+      </c>
+      <c r="G245" t="s">
+        <v>10</v>
+      </c>
+      <c r="H245" t="s">
+        <v>59</v>
+      </c>
+      <c r="I245" t="s">
+        <v>43</v>
+      </c>
+      <c r="J245" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="246" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B246"/>
+      <c r="C246"/>
+      <c r="D246" t="s">
+        <v>467</v>
+      </c>
+      <c r="E246" t="s">
+        <v>276</v>
+      </c>
+      <c r="F246" t="s">
+        <v>277</v>
+      </c>
+      <c r="G246" t="s">
+        <v>10</v>
+      </c>
+      <c r="H246" t="s">
+        <v>65</v>
+      </c>
+      <c r="I246" t="s">
+        <v>35</v>
+      </c>
+      <c r="J246" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="247" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B247"/>
+      <c r="C247"/>
+      <c r="D247" t="s">
+        <v>468</v>
+      </c>
+      <c r="E247" t="s">
+        <v>207</v>
+      </c>
+      <c r="F247" t="s">
+        <v>208</v>
+      </c>
+      <c r="G247" t="s">
+        <v>10</v>
+      </c>
+      <c r="H247" t="s">
+        <v>61</v>
+      </c>
+      <c r="I247" t="s">
+        <v>42</v>
+      </c>
+      <c r="J247" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="248" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B248"/>
+      <c r="C248"/>
+      <c r="D248" t="s">
+        <v>469</v>
+      </c>
+      <c r="E248" t="s">
+        <v>235</v>
+      </c>
+      <c r="F248" t="s">
+        <v>236</v>
+      </c>
+      <c r="G248" t="s">
+        <v>10</v>
+      </c>
+      <c r="H248" t="s">
+        <v>61</v>
+      </c>
+      <c r="I248" t="s">
+        <v>22</v>
+      </c>
+      <c r="J248" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="249" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B249"/>
+      <c r="C249"/>
+      <c r="D249" t="s">
+        <v>470</v>
+      </c>
+      <c r="E249" t="s">
+        <v>471</v>
+      </c>
+      <c r="F249" t="s">
+        <v>332</v>
+      </c>
+      <c r="G249" t="s">
+        <v>10</v>
+      </c>
+      <c r="H249" t="s">
+        <v>68</v>
+      </c>
+      <c r="I249" t="s">
+        <v>37</v>
+      </c>
+      <c r="J249" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="250" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B250"/>
+      <c r="C250"/>
+      <c r="D250" t="s">
+        <v>472</v>
+      </c>
+      <c r="E250" t="s">
+        <v>18</v>
+      </c>
+      <c r="F250" t="s">
+        <v>133</v>
+      </c>
+      <c r="G250" t="s">
+        <v>10</v>
+      </c>
+      <c r="H250" t="s">
+        <v>59</v>
+      </c>
+      <c r="I250" t="s">
+        <v>34</v>
+      </c>
+      <c r="J250" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="251" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B251"/>
+      <c r="C251"/>
+      <c r="D251" t="s">
+        <v>473</v>
+      </c>
+      <c r="E251" t="s">
+        <v>196</v>
+      </c>
+      <c r="F251" t="s">
+        <v>197</v>
+      </c>
+      <c r="G251" t="s">
+        <v>10</v>
+      </c>
+      <c r="H251" t="s">
+        <v>65</v>
+      </c>
+      <c r="I251" t="s">
+        <v>40</v>
+      </c>
+      <c r="J251" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="252" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B252"/>
+      <c r="C252"/>
+      <c r="D252" t="s">
+        <v>474</v>
+      </c>
+      <c r="E252" t="s">
+        <v>86</v>
+      </c>
+      <c r="F252" t="s">
+        <v>81</v>
+      </c>
+      <c r="G252" t="s">
+        <v>10</v>
+      </c>
+      <c r="H252" t="s">
+        <v>68</v>
+      </c>
+      <c r="I252" t="s">
+        <v>47</v>
+      </c>
+      <c r="J252" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="253" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B253"/>
+      <c r="C253"/>
+      <c r="D253" t="s">
+        <v>475</v>
+      </c>
+      <c r="E253" t="s">
+        <v>138</v>
+      </c>
+      <c r="F253" t="s">
+        <v>76</v>
+      </c>
+      <c r="G253" t="s">
+        <v>10</v>
+      </c>
+      <c r="H253" t="s">
+        <v>65</v>
+      </c>
+      <c r="I253" t="s">
+        <v>218</v>
+      </c>
+      <c r="J253" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="254" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B254"/>
+      <c r="C254"/>
+      <c r="D254" t="s">
+        <v>476</v>
+      </c>
+      <c r="E254" t="s">
+        <v>477</v>
+      </c>
+      <c r="F254" t="s">
+        <v>76</v>
+      </c>
+      <c r="G254" t="s">
+        <v>10</v>
+      </c>
+      <c r="H254" t="s">
+        <v>65</v>
+      </c>
+      <c r="I254" t="s">
+        <v>43</v>
+      </c>
+      <c r="J254" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="255" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B255"/>
+      <c r="C255"/>
+      <c r="D255" t="s">
+        <v>478</v>
+      </c>
+      <c r="E255" t="s">
+        <v>194</v>
+      </c>
+      <c r="F255" t="s">
+        <v>76</v>
+      </c>
+      <c r="G255" t="s">
+        <v>10</v>
+      </c>
+      <c r="H255" t="s">
+        <v>65</v>
+      </c>
+      <c r="I255" t="s">
+        <v>45</v>
+      </c>
+      <c r="J255" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="256" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B256"/>
+      <c r="C256"/>
+      <c r="D256" t="s">
+        <v>479</v>
+      </c>
+      <c r="E256" t="s">
+        <v>273</v>
+      </c>
+      <c r="F256" t="s">
+        <v>274</v>
+      </c>
+      <c r="G256" t="s">
+        <v>10</v>
+      </c>
+      <c r="H256" t="s">
+        <v>65</v>
+      </c>
+      <c r="I256" t="s">
+        <v>40</v>
+      </c>
+      <c r="J256" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="257" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B257"/>
+      <c r="C257"/>
+      <c r="D257" t="s">
+        <v>480</v>
+      </c>
+      <c r="E257" t="s">
+        <v>19</v>
+      </c>
+      <c r="F257" t="s">
+        <v>92</v>
+      </c>
+      <c r="G257" t="s">
+        <v>10</v>
+      </c>
+      <c r="H257" t="s">
+        <v>68</v>
+      </c>
+      <c r="I257" t="s">
+        <v>37</v>
+      </c>
+      <c r="J257" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="258" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B258"/>
+      <c r="C258"/>
+      <c r="D258" t="s">
+        <v>481</v>
+      </c>
+      <c r="E258" t="s">
+        <v>138</v>
+      </c>
+      <c r="F258" t="s">
+        <v>76</v>
+      </c>
+      <c r="G258" t="s">
+        <v>10</v>
+      </c>
+      <c r="H258" t="s">
+        <v>65</v>
+      </c>
+      <c r="I258" t="s">
+        <v>29</v>
+      </c>
+      <c r="J258" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="259" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B259"/>
+      <c r="C259"/>
+      <c r="D259" t="s">
+        <v>482</v>
+      </c>
+      <c r="E259" t="s">
+        <v>483</v>
+      </c>
+      <c r="F259" t="s">
+        <v>246</v>
+      </c>
+      <c r="G259" t="s">
+        <v>10</v>
+      </c>
+      <c r="H259" t="s">
+        <v>59</v>
+      </c>
+      <c r="I259" t="s">
+        <v>45</v>
+      </c>
+      <c r="J259" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="260" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B260"/>
+      <c r="C260"/>
+      <c r="D260" t="s">
+        <v>484</v>
+      </c>
+      <c r="E260" t="s">
+        <v>485</v>
+      </c>
+      <c r="F260" t="s">
+        <v>143</v>
+      </c>
+      <c r="G260" t="s">
+        <v>10</v>
+      </c>
+      <c r="H260" t="s">
+        <v>61</v>
+      </c>
+      <c r="I260" t="s">
+        <v>45</v>
+      </c>
+      <c r="J260" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="261" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B261"/>
+      <c r="C261"/>
+      <c r="D261" t="s">
+        <v>486</v>
+      </c>
+      <c r="E261" t="s">
+        <v>487</v>
+      </c>
+      <c r="F261" t="s">
+        <v>81</v>
+      </c>
+      <c r="G261" t="s">
+        <v>10</v>
+      </c>
+      <c r="H261" t="s">
+        <v>68</v>
+      </c>
+      <c r="I261" t="s">
+        <v>38</v>
+      </c>
+      <c r="J261" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="262" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B262"/>
+      <c r="C262"/>
+      <c r="D262" t="s">
+        <v>488</v>
+      </c>
+      <c r="E262" t="s">
+        <v>489</v>
+      </c>
+      <c r="F262" t="s">
+        <v>71</v>
+      </c>
+      <c r="G262" t="s">
+        <v>10</v>
+      </c>
+      <c r="H262" t="s">
+        <v>65</v>
+      </c>
+      <c r="I262" t="s">
+        <v>47</v>
+      </c>
+      <c r="J262" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="263" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B263"/>
+      <c r="C263"/>
+      <c r="D263" t="s">
+        <v>490</v>
+      </c>
+      <c r="E263" t="s">
+        <v>194</v>
+      </c>
+      <c r="F263" t="s">
+        <v>76</v>
+      </c>
+      <c r="G263" t="s">
+        <v>10</v>
+      </c>
+      <c r="H263" t="s">
+        <v>65</v>
+      </c>
+      <c r="I263" t="s">
+        <v>46</v>
+      </c>
+      <c r="J263" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="264" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B264"/>
+      <c r="C264"/>
+      <c r="D264" t="s">
+        <v>491</v>
+      </c>
+      <c r="E264" t="s">
+        <v>210</v>
+      </c>
+      <c r="F264" t="s">
+        <v>81</v>
+      </c>
+      <c r="G264" t="s">
+        <v>10</v>
+      </c>
+      <c r="H264" t="s">
+        <v>68</v>
+      </c>
+      <c r="I264" t="s">
+        <v>32</v>
+      </c>
+      <c r="J264" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="265" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B265"/>
+      <c r="C265"/>
+      <c r="D265" t="s">
+        <v>492</v>
+      </c>
+      <c r="E265" t="s">
+        <v>493</v>
+      </c>
+      <c r="F265" t="s">
+        <v>81</v>
+      </c>
+      <c r="G265" t="s">
+        <v>10</v>
+      </c>
+      <c r="H265" t="s">
+        <v>68</v>
+      </c>
+      <c r="I265" t="s">
+        <v>47</v>
+      </c>
+      <c r="J265" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="266" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B266"/>
+      <c r="C266"/>
+      <c r="D266" t="s">
+        <v>494</v>
+      </c>
+      <c r="E266" t="s">
+        <v>495</v>
+      </c>
+      <c r="F266" t="s">
+        <v>133</v>
+      </c>
+      <c r="G266" t="s">
+        <v>10</v>
+      </c>
+      <c r="H266" t="s">
+        <v>59</v>
+      </c>
+      <c r="I266" t="s">
+        <v>30</v>
+      </c>
+      <c r="J266" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="267" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B267"/>
+      <c r="C267"/>
+      <c r="D267" t="s">
+        <v>496</v>
+      </c>
+      <c r="E267" t="s">
+        <v>23</v>
+      </c>
+      <c r="F267" t="s">
+        <v>58</v>
+      </c>
+      <c r="G267" t="s">
+        <v>10</v>
+      </c>
+      <c r="H267" t="s">
+        <v>61</v>
+      </c>
+      <c r="I267" t="s">
+        <v>30</v>
+      </c>
+      <c r="J267" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="268" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B268"/>
+      <c r="C268"/>
+      <c r="D268" t="s">
+        <v>497</v>
+      </c>
+      <c r="E268" t="s">
+        <v>126</v>
+      </c>
+      <c r="F268" t="s">
+        <v>71</v>
+      </c>
+      <c r="G268" t="s">
+        <v>10</v>
+      </c>
+      <c r="H268" t="s">
+        <v>65</v>
+      </c>
+      <c r="I268" t="s">
+        <v>46</v>
+      </c>
+      <c r="J268" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="269" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B269"/>
+      <c r="C269"/>
+      <c r="D269" t="s">
+        <v>498</v>
+      </c>
+      <c r="E269" t="s">
+        <v>499</v>
+      </c>
+      <c r="F269" t="s">
+        <v>500</v>
+      </c>
+      <c r="G269" t="s">
+        <v>10</v>
+      </c>
+      <c r="H269" t="s">
+        <v>61</v>
+      </c>
+      <c r="I269" t="s">
+        <v>31</v>
+      </c>
+      <c r="J269" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="270" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B270"/>
+      <c r="C270"/>
+      <c r="D270" t="s">
+        <v>501</v>
+      </c>
+      <c r="E270" t="s">
+        <v>136</v>
+      </c>
+      <c r="F270" t="s">
+        <v>76</v>
+      </c>
+      <c r="G270" t="s">
+        <v>10</v>
+      </c>
+      <c r="H270" t="s">
+        <v>65</v>
+      </c>
+      <c r="I270" t="s">
+        <v>33</v>
+      </c>
+      <c r="J270" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="271" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B271"/>
+      <c r="C271"/>
+      <c r="D271" t="s">
+        <v>502</v>
+      </c>
+      <c r="E271" t="s">
+        <v>106</v>
+      </c>
+      <c r="F271" t="s">
+        <v>107</v>
+      </c>
+      <c r="G271" t="s">
+        <v>10</v>
+      </c>
+      <c r="H271" t="s">
+        <v>59</v>
+      </c>
+      <c r="I271" t="s">
+        <v>22</v>
+      </c>
+      <c r="J271" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="272" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B272"/>
+      <c r="C272"/>
+      <c r="D272" t="s">
+        <v>503</v>
+      </c>
+      <c r="E272" t="s">
+        <v>128</v>
+      </c>
+      <c r="F272" t="s">
+        <v>71</v>
+      </c>
+      <c r="G272" t="s">
+        <v>10</v>
+      </c>
+      <c r="H272" t="s">
+        <v>65</v>
+      </c>
+      <c r="I272" t="s">
+        <v>42</v>
+      </c>
+      <c r="J272" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="273" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B273"/>
+      <c r="C273"/>
+      <c r="D273" t="s">
+        <v>504</v>
+      </c>
+      <c r="E273" t="s">
+        <v>505</v>
+      </c>
+      <c r="F273" t="s">
+        <v>143</v>
+      </c>
+      <c r="G273" t="s">
+        <v>10</v>
+      </c>
+      <c r="H273" t="s">
+        <v>61</v>
+      </c>
+      <c r="I273" t="s">
+        <v>33</v>
+      </c>
+      <c r="J273" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="274" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B274"/>
+      <c r="C274"/>
+      <c r="D274" t="s">
+        <v>506</v>
+      </c>
+      <c r="E274" t="s">
+        <v>507</v>
+      </c>
+      <c r="F274" t="s">
+        <v>64</v>
+      </c>
+      <c r="G274" t="s">
+        <v>10</v>
+      </c>
+      <c r="H274" t="s">
+        <v>65</v>
+      </c>
+      <c r="I274" t="s">
+        <v>36</v>
+      </c>
+      <c r="J274" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="275" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B275"/>
+      <c r="C275"/>
+      <c r="D275" t="s">
+        <v>508</v>
+      </c>
+      <c r="E275" t="s">
+        <v>509</v>
+      </c>
+      <c r="F275" t="s">
+        <v>143</v>
+      </c>
+      <c r="G275" t="s">
+        <v>10</v>
+      </c>
+      <c r="H275" t="s">
+        <v>61</v>
+      </c>
+      <c r="I275" t="s">
+        <v>46</v>
+      </c>
+      <c r="J275" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="276" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B276"/>
+      <c r="C276"/>
+      <c r="D276" t="s">
+        <v>510</v>
+      </c>
+      <c r="E276" t="s">
+        <v>115</v>
+      </c>
+      <c r="F276" t="s">
+        <v>116</v>
+      </c>
+      <c r="G276" t="s">
+        <v>10</v>
+      </c>
+      <c r="H276" t="s">
+        <v>59</v>
+      </c>
+      <c r="I276" t="s">
+        <v>35</v>
+      </c>
+      <c r="J276" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="277" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B277"/>
+      <c r="C277"/>
+      <c r="D277" t="s">
+        <v>511</v>
+      </c>
+      <c r="E277" t="s">
+        <v>276</v>
+      </c>
+      <c r="F277" t="s">
+        <v>277</v>
+      </c>
+      <c r="G277" t="s">
+        <v>10</v>
+      </c>
+      <c r="H277" t="s">
+        <v>65</v>
+      </c>
+      <c r="I277" t="s">
+        <v>20</v>
+      </c>
+      <c r="J277" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="278" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B278"/>
+      <c r="C278"/>
+      <c r="D278" t="s">
+        <v>512</v>
+      </c>
+      <c r="E278" t="s">
+        <v>194</v>
+      </c>
+      <c r="F278" t="s">
+        <v>76</v>
+      </c>
+      <c r="G278" t="s">
+        <v>10</v>
+      </c>
+      <c r="H278" t="s">
+        <v>65</v>
+      </c>
+      <c r="I278" t="s">
+        <v>48</v>
+      </c>
+      <c r="J278" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="279" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B279"/>
+      <c r="C279"/>
+      <c r="D279" t="s">
+        <v>513</v>
+      </c>
+      <c r="E279" t="s">
+        <v>514</v>
+      </c>
+      <c r="F279" t="s">
+        <v>81</v>
+      </c>
+      <c r="G279" t="s">
+        <v>10</v>
+      </c>
+      <c r="H279" t="s">
+        <v>68</v>
+      </c>
+      <c r="I279" t="s">
+        <v>37</v>
+      </c>
+      <c r="J279" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="280" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B280"/>
+      <c r="C280"/>
+      <c r="D280" t="s">
+        <v>515</v>
+      </c>
+      <c r="E280" t="s">
+        <v>516</v>
+      </c>
+      <c r="F280" t="s">
+        <v>246</v>
+      </c>
+      <c r="G280" t="s">
+        <v>10</v>
+      </c>
+      <c r="H280" t="s">
+        <v>59</v>
+      </c>
+      <c r="I280" t="s">
+        <v>43</v>
+      </c>
+      <c r="J280" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="281" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B281"/>
+      <c r="C281"/>
+      <c r="D281" t="s">
+        <v>517</v>
+      </c>
+      <c r="E281" t="s">
+        <v>445</v>
+      </c>
+      <c r="F281" t="s">
+        <v>97</v>
+      </c>
+      <c r="G281" t="s">
+        <v>10</v>
+      </c>
+      <c r="H281" t="s">
+        <v>61</v>
+      </c>
+      <c r="I281" t="s">
+        <v>40</v>
+      </c>
+      <c r="J281" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="282" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B282"/>
+      <c r="C282"/>
+      <c r="D282" t="s">
+        <v>518</v>
+      </c>
+      <c r="E282" t="s">
+        <v>18</v>
+      </c>
+      <c r="F282" t="s">
+        <v>133</v>
+      </c>
+      <c r="G282" t="s">
+        <v>10</v>
+      </c>
+      <c r="H282" t="s">
+        <v>59</v>
+      </c>
+      <c r="I282" t="s">
+        <v>47</v>
+      </c>
+      <c r="J282" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="283" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B283"/>
+      <c r="C283"/>
+      <c r="D283" t="s">
+        <v>519</v>
+      </c>
+      <c r="E283" t="s">
+        <v>520</v>
+      </c>
+      <c r="F283" t="s">
+        <v>133</v>
+      </c>
+      <c r="G283" t="s">
+        <v>10</v>
+      </c>
+      <c r="H283" t="s">
+        <v>59</v>
+      </c>
+      <c r="I283" t="s">
+        <v>34</v>
+      </c>
+      <c r="J283" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="284" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B284"/>
+      <c r="C284"/>
+      <c r="D284" t="s">
+        <v>521</v>
+      </c>
+      <c r="E284" t="s">
+        <v>522</v>
+      </c>
+      <c r="F284" t="s">
+        <v>71</v>
+      </c>
+      <c r="G284" t="s">
+        <v>10</v>
+      </c>
+      <c r="H284" t="s">
+        <v>65</v>
+      </c>
+      <c r="I284" t="s">
+        <v>48</v>
+      </c>
+      <c r="J284" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="285" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B285"/>
+      <c r="C285"/>
+      <c r="D285" t="s">
+        <v>523</v>
+      </c>
+      <c r="E285" t="s">
+        <v>524</v>
+      </c>
+      <c r="F285" t="s">
+        <v>187</v>
+      </c>
+      <c r="G285" t="s">
+        <v>10</v>
+      </c>
+      <c r="H285" t="s">
+        <v>59</v>
+      </c>
+      <c r="I285" t="s">
+        <v>44</v>
+      </c>
+      <c r="J285" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="286" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B286"/>
+      <c r="C286"/>
+      <c r="D286" t="s">
+        <v>525</v>
+      </c>
+      <c r="E286" t="s">
+        <v>526</v>
+      </c>
+      <c r="F286" t="s">
+        <v>159</v>
+      </c>
+      <c r="G286" t="s">
+        <v>10</v>
+      </c>
+      <c r="H286" t="s">
+        <v>59</v>
+      </c>
+      <c r="I286" t="s">
+        <v>46</v>
+      </c>
+      <c r="J286" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="287" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B287"/>
+      <c r="C287"/>
+      <c r="D287" t="s">
+        <v>527</v>
+      </c>
+      <c r="E287" t="s">
+        <v>83</v>
+      </c>
+      <c r="F287" t="s">
+        <v>84</v>
+      </c>
+      <c r="G287" t="s">
+        <v>10</v>
+      </c>
+      <c r="H287" t="s">
+        <v>59</v>
+      </c>
+      <c r="I287" t="s">
+        <v>35</v>
+      </c>
+      <c r="J287" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="288" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B288"/>
+      <c r="C288"/>
+      <c r="D288" t="s">
+        <v>528</v>
+      </c>
+      <c r="E288" t="s">
+        <v>461</v>
+      </c>
+      <c r="F288" t="s">
+        <v>143</v>
+      </c>
+      <c r="G288" t="s">
+        <v>10</v>
+      </c>
+      <c r="H288" t="s">
+        <v>61</v>
+      </c>
+      <c r="I288" t="s">
+        <v>34</v>
+      </c>
+      <c r="J288" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="289" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B289"/>
+      <c r="C289"/>
+      <c r="D289" t="s">
+        <v>529</v>
+      </c>
+      <c r="E289" t="s">
+        <v>123</v>
+      </c>
+      <c r="F289" t="s">
+        <v>124</v>
+      </c>
+      <c r="G289" t="s">
+        <v>10</v>
+      </c>
+      <c r="H289" t="s">
+        <v>65</v>
+      </c>
+      <c r="I289" t="s">
+        <v>44</v>
+      </c>
+      <c r="J289" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="290" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B290"/>
+      <c r="C290"/>
+      <c r="D290" t="s">
+        <v>530</v>
+      </c>
+      <c r="E290" t="s">
+        <v>136</v>
+      </c>
+      <c r="F290" t="s">
+        <v>76</v>
+      </c>
+      <c r="G290" t="s">
+        <v>10</v>
+      </c>
+      <c r="H290" t="s">
+        <v>65</v>
+      </c>
+      <c r="I290" t="s">
+        <v>48</v>
+      </c>
+      <c r="J290" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="291" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B291"/>
+      <c r="C291"/>
+      <c r="D291" t="s">
+        <v>531</v>
+      </c>
+      <c r="E291" t="s">
+        <v>310</v>
+      </c>
+      <c r="F291" t="s">
+        <v>213</v>
+      </c>
+      <c r="G291" t="s">
+        <v>10</v>
+      </c>
+      <c r="H291" t="s">
+        <v>65</v>
+      </c>
+      <c r="I291" t="s">
+        <v>20</v>
+      </c>
+      <c r="J291" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="292" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B292"/>
+      <c r="C292"/>
+      <c r="D292" t="s">
+        <v>532</v>
+      </c>
+      <c r="E292" t="s">
+        <v>70</v>
+      </c>
+      <c r="F292" t="s">
+        <v>71</v>
+      </c>
+      <c r="G292" t="s">
+        <v>10</v>
+      </c>
+      <c r="H292" t="s">
+        <v>65</v>
+      </c>
+      <c r="I292" t="s">
+        <v>36</v>
+      </c>
+      <c r="J292" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="293" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B293"/>
+      <c r="C293"/>
+      <c r="D293" t="s">
+        <v>533</v>
+      </c>
+      <c r="E293" t="s">
+        <v>393</v>
+      </c>
+      <c r="F293" t="s">
+        <v>64</v>
+      </c>
+      <c r="G293" t="s">
+        <v>10</v>
+      </c>
+      <c r="H293" t="s">
+        <v>65</v>
+      </c>
+      <c r="I293" t="s">
+        <v>28</v>
+      </c>
+      <c r="J293" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="294" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B294"/>
+      <c r="C294"/>
+      <c r="D294" t="s">
+        <v>534</v>
+      </c>
+      <c r="E294" t="s">
+        <v>381</v>
+      </c>
+      <c r="F294" t="s">
+        <v>76</v>
+      </c>
+      <c r="G294" t="s">
+        <v>10</v>
+      </c>
+      <c r="H294" t="s">
+        <v>65</v>
+      </c>
+      <c r="I294" t="s">
+        <v>38</v>
+      </c>
+      <c r="J294" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="295" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B295"/>
+      <c r="C295"/>
+      <c r="D295" t="s">
+        <v>535</v>
+      </c>
+      <c r="E295" t="s">
+        <v>103</v>
+      </c>
+      <c r="F295" t="s">
+        <v>104</v>
+      </c>
+      <c r="G295" t="s">
+        <v>10</v>
+      </c>
+      <c r="H295" t="s">
+        <v>59</v>
+      </c>
+      <c r="I295" t="s">
+        <v>47</v>
+      </c>
+      <c r="J295" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="296" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B296"/>
+      <c r="C296"/>
+      <c r="D296" t="s">
+        <v>536</v>
+      </c>
+      <c r="E296" t="s">
+        <v>181</v>
+      </c>
+      <c r="F296" t="s">
+        <v>182</v>
+      </c>
+      <c r="G296" t="s">
+        <v>10</v>
+      </c>
+      <c r="H296" t="s">
+        <v>65</v>
+      </c>
+      <c r="I296" t="s">
+        <v>45</v>
+      </c>
+      <c r="J296" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="297" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B297"/>
+      <c r="C297"/>
+      <c r="D297" t="s">
+        <v>537</v>
+      </c>
+      <c r="E297" t="s">
+        <v>538</v>
+      </c>
+      <c r="F297" t="s">
+        <v>131</v>
+      </c>
+      <c r="G297" t="s">
+        <v>10</v>
+      </c>
+      <c r="H297" t="s">
+        <v>59</v>
+      </c>
+      <c r="I297" t="s">
+        <v>32</v>
+      </c>
+      <c r="J297" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="298" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B298"/>
+      <c r="C298"/>
+      <c r="D298" t="s">
+        <v>539</v>
+      </c>
+      <c r="E298" t="s">
+        <v>540</v>
+      </c>
+      <c r="F298" t="s">
+        <v>147</v>
+      </c>
+      <c r="G298" t="s">
+        <v>10</v>
+      </c>
+      <c r="H298" t="s">
+        <v>65</v>
+      </c>
+      <c r="I298" t="s">
+        <v>45</v>
+      </c>
+      <c r="J298" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="299" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B299"/>
+      <c r="C299"/>
+      <c r="D299" t="s">
+        <v>541</v>
+      </c>
+      <c r="E299" t="s">
+        <v>86</v>
+      </c>
+      <c r="F299" t="s">
+        <v>81</v>
+      </c>
+      <c r="G299" t="s">
+        <v>10</v>
+      </c>
+      <c r="H299" t="s">
+        <v>68</v>
+      </c>
+      <c r="I299" t="s">
+        <v>39</v>
+      </c>
+      <c r="J299" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="300" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B300"/>
+      <c r="C300"/>
+      <c r="D300" t="s">
+        <v>542</v>
+      </c>
+      <c r="E300" t="s">
+        <v>298</v>
+      </c>
+      <c r="F300" t="s">
+        <v>76</v>
+      </c>
+      <c r="G300" t="s">
+        <v>10</v>
+      </c>
+      <c r="H300" t="s">
+        <v>65</v>
+      </c>
+      <c r="I300" t="s">
+        <v>48</v>
+      </c>
+      <c r="J300" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="301" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B301"/>
+      <c r="C301"/>
+      <c r="D301" t="s">
+        <v>543</v>
+      </c>
+      <c r="E301" t="s">
+        <v>23</v>
+      </c>
+      <c r="F301" t="s">
+        <v>58</v>
+      </c>
+      <c r="G301" t="s">
+        <v>10</v>
+      </c>
+      <c r="H301" t="s">
+        <v>61</v>
+      </c>
+      <c r="I301" t="s">
+        <v>48</v>
+      </c>
+      <c r="J301" t="s">
+        <v>558</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="6">
-    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Date" error="(Do Not Modify) Modified On must be in the correct date and time format." promptTitle="Date and time" prompt=" " sqref="C82:C1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Date" error="(Do Not Modify) Modified On must be in the correct date and time format." promptTitle="Date and time" prompt=" " sqref="C302:C1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>1</formula1>
     </dataValidation>
     <dataValidation type="textLength" operator="lessThanOrEqual" showInputMessage="1" showErrorMessage="1" errorTitle="Length Exceeded" error="This value must be less than or equal to 160 characters long." promptTitle="Text (required)" prompt="Maximum Length: 160 characters." sqref="D82:D1048576" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>160</formula1>
     </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Length Exceeded" error="This value must be less than or equal to 80 characters long." promptTitle="Text" prompt="Maximum Length: 80 characters." sqref="E82:F1048576" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="textLength" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Length Exceeded" error="This value must be less than or equal to 80 characters long." promptTitle="Text" prompt="Maximum Length: 80 characters." sqref="E302:F1048576" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>80</formula1>
     </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Length Exceeded" error="This value must be less than or equal to 50 characters long." promptTitle="Text" prompt="Maximum Length: 50 characters." sqref="G82:G1048576" xr:uid="{00000000-0002-0000-0000-000004000000}">
+    <dataValidation type="textLength" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Length Exceeded" error="This value must be less than or equal to 50 characters long." promptTitle="Text" prompt="Maximum Length: 50 characters." sqref="G302:G1048576" xr:uid="{00000000-0002-0000-0000-000004000000}">
       <formula1>50</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" error=" " promptTitle="Lookup" prompt="This Territory record must already exist in Microsoft Dynamics 365 or in this source file." sqref="H82:H1048576" xr:uid="{00000000-0002-0000-0000-000005000000}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" error=" " promptTitle="Lookup (required)" prompt="This Owner record must already exist in Microsoft Dynamics 365 or in this source file." sqref="J82:J1048576" xr:uid="{00000000-0002-0000-0000-000007000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" error=" " promptTitle="Lookup" prompt="This Territory record must already exist in Microsoft Dynamics 365 or in this source file." sqref="H302:H1048576" xr:uid="{00000000-0002-0000-0000-000005000000}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" error=" " promptTitle="Lookup (required)" prompt="This Owner record must already exist in Microsoft Dynamics 365 or in this source file." sqref="J302:J1048576" xr:uid="{00000000-0002-0000-0000-000007000000}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -3298,7 +9759,7 @@
           <x14:formula1>
             <xm:f>hiddenSheet!$A$2:$AG$2</xm:f>
           </x14:formula1>
-          <xm:sqref>I82:I1048576</xm:sqref>
+          <xm:sqref>I302:I1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/Contoso - Sales - Current Release/Dataverse Data/3 🏭 Accounts for Import.xlsx
+++ b/Contoso - Sales - Current Release/Dataverse Data/3 🏭 Accounts for Import.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://microsoft-my.sharepoint.com/personal/misewell_microsoft_com/Documents/Documents/GitHub/ContosoBI/Contoso - Sales - Current Release/Dataverse Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\misewell\Documents\GitHub\ContosoBI\Contoso - Sales - Current Release\Dataverse Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="11_ADF37D841EA345F0FA330A5DCFB5940FC38FE545" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{971AC17A-745A-4922-A521-DB116F7F1175}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70A861BB-A0B6-4525-97E9-54ACFF7BC0E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="49515" yWindow="-270" windowWidth="28800" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11570" yWindow="3270" windowWidth="33180" windowHeight="16380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="All Accounts - For Import" sheetId="1" r:id="rId1"/>
@@ -1738,6 +1738,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -2198,8 +2199,8 @@
   <sheetPr codeName="dataSheet"/>
   <dimension ref="A1:J301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:J301"/>
+    <sheetView tabSelected="1" topLeftCell="D280" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
